--- a/resourses/testdata/excel_file/Tracking_number.xlsx
+++ b/resourses/testdata/excel_file/Tracking_number.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU546"/>
+  <dimension ref="A1:AU537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18:Y241"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016816</t>
+          <t>SPBD241100016831</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016797</t>
+          <t>SPBD241100016803</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016811</t>
+          <t>SPBD241100016805</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016812</t>
+          <t>SPBD241100016818</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016833</t>
+          <t>SPBD241100016819</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016800</t>
+          <t>SPBD241100016824</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016809</t>
+          <t>SPBD241100016799</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016822</t>
+          <t>SPBD241100016801</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016828</t>
+          <t>SPBD241100016802</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016831</t>
+          <t>SPBD241100016804</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016803</t>
+          <t>SPBD241100016806</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016805</t>
+          <t>SPBD241100016810</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016818</t>
+          <t>SPBD241100016814</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016819</t>
+          <t>SPBD241100016820</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016824</t>
+          <t>SPBD241100016821</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016799</t>
+          <t>SPBD241100016829</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016801</t>
+          <t>SPBD241100016830</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016802</t>
+          <t>SPBD241100016832</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016804</t>
+          <t>SPBD241100016795</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016806</t>
+          <t>SPBD241100016798</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016810</t>
+          <t>SPBD241100016807</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016814</t>
+          <t>SPBD241100016813</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016820</t>
+          <t>SPBD241100016815</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016821</t>
+          <t>SPBD241100016817</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016829</t>
+          <t>SPBD241100016823</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016830</t>
+          <t>SPBD241100016825</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016832</t>
+          <t>SPBD241100016826</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016795</t>
+          <t>SPBD241100016827</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016798</t>
+          <t>SPBD241100016834</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -5044,12 +5044,12 @@
     <row r="32" ht="13.2" customHeight="1" thickBot="1">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016807</t>
+          <t>SPBD241100017224</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -5193,12 +5193,12 @@
     <row r="33" ht="13.2" customHeight="1" thickBot="1">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016813</t>
+          <t>SPBD241100017225</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -5342,12 +5342,12 @@
     <row r="34" ht="13.2" customHeight="1" thickBot="1">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016815</t>
+          <t>SPBD241100017236</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -5491,12 +5491,12 @@
     <row r="35" ht="13.2" customHeight="1" thickBot="1">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016817</t>
+          <t>SPBD241100017242</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -5640,12 +5640,12 @@
     <row r="36" ht="13.2" customHeight="1" thickBot="1">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016823</t>
+          <t>SPBD241100017245</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -5789,12 +5789,12 @@
     <row r="37" ht="13.2" customHeight="1" thickBot="1">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016825</t>
+          <t>SPBD241100017222</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -5938,12 +5938,12 @@
     <row r="38" ht="13.2" customHeight="1" thickBot="1">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016826</t>
+          <t>SPBD241100017228</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -6087,12 +6087,12 @@
     <row r="39" ht="13.2" customHeight="1" thickBot="1">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016827</t>
+          <t>SPBD241100017233</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -6236,12 +6236,12 @@
     <row r="40" ht="13.2" customHeight="1" thickBot="1">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016834</t>
+          <t>SPBD241100017237</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017224</t>
+          <t>SPBD241100017248</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017225</t>
+          <t>SPBD241100017215</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017236</t>
+          <t>SPBD241100017217</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017242</t>
+          <t>SPBD241100017218</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017245</t>
+          <t>SPBD241100017219</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -7135,7 +7135,7 @@
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017222</t>
+          <t>SPBD241100017226</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017228</t>
+          <t>SPBD241100017232</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017233</t>
+          <t>SPBD241100017235</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017237</t>
+          <t>SPBD241100017239</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017248</t>
+          <t>SPBD241100017246</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017215</t>
+          <t>SPBD241100017247</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017217</t>
+          <t>SPBD241100017249</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -8178,7 +8178,7 @@
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017218</t>
+          <t>SPBD241100017216</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -8327,7 +8327,7 @@
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017219</t>
+          <t>SPBD241100017223</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017226</t>
+          <t>SPBD241100017230</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -8625,7 +8625,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017232</t>
+          <t>SPBD241100017238</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -8774,7 +8774,7 @@
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017235</t>
+          <t>SPBD241100017240</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017239</t>
+          <t>SPBD241100017220</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -9072,7 +9072,7 @@
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017246</t>
+          <t>SPBD241100017221</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017247</t>
+          <t>SPBD241100017227</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -9370,7 +9370,7 @@
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017249</t>
+          <t>SPBD241100017229</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -9519,7 +9519,7 @@
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017216</t>
+          <t>SPBD241100017234</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -9668,7 +9668,7 @@
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017223</t>
+          <t>SPBD241100017241</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017230</t>
+          <t>SPBD241100017244</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -9966,7 +9966,7 @@
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017238</t>
+          <t>SPBD241100017252</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017240</t>
+          <t>SPBD241100017213</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017220</t>
+          <t>SPBD241100017214</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -10413,7 +10413,7 @@
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017221</t>
+          <t>SPBD241100017231</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -10562,7 +10562,7 @@
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017227</t>
+          <t>SPBD241100017243</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017229</t>
+          <t>SPBD241100017250</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -10860,7 +10860,7 @@
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017234</t>
+          <t>SPBD241100017251</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -11004,12 +11004,12 @@
     <row r="72" ht="13.2" customHeight="1" thickBot="1">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017241</t>
+          <t>SPBD241100019897</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -11153,12 +11153,12 @@
     <row r="73" ht="13.2" customHeight="1" thickBot="1">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017244</t>
+          <t>SPBD241100019899</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -11302,12 +11302,12 @@
     <row r="74" ht="13.2" customHeight="1" thickBot="1">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017252</t>
+          <t>SPBD241100019903</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -11451,12 +11451,12 @@
     <row r="75" ht="13.2" customHeight="1" thickBot="1">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017213</t>
+          <t>SPBD241100019916</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -11600,12 +11600,12 @@
     <row r="76" ht="13.2" customHeight="1" thickBot="1">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017214</t>
+          <t>SPBD241100019893</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -11749,12 +11749,12 @@
     <row r="77" ht="13.2" customHeight="1" thickBot="1">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017231</t>
+          <t>SPBD241100019895</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -11898,12 +11898,12 @@
     <row r="78" ht="13.2" customHeight="1" thickBot="1">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017243</t>
+          <t>SPBD241100019904</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -12047,12 +12047,12 @@
     <row r="79" ht="13.2" customHeight="1" thickBot="1">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017250</t>
+          <t>SPBD241100019910</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -12196,12 +12196,12 @@
     <row r="80" ht="13.2" customHeight="1" thickBot="1">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017251</t>
+          <t>SPBD241100019915</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019897</t>
+          <t>SPBD241100019919</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -12499,7 +12499,7 @@
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019899</t>
+          <t>SPBD241100019920</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -12648,7 +12648,7 @@
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019903</t>
+          <t>SPBD241100019923</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -12797,7 +12797,7 @@
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019916</t>
+          <t>SPBD241100019887</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -12946,7 +12946,7 @@
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019893</t>
+          <t>SPBD241100019888</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
@@ -13095,7 +13095,7 @@
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019895</t>
+          <t>SPBD241100019892</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -13244,7 +13244,7 @@
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019904</t>
+          <t>SPBD241100019900</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019910</t>
+          <t>SPBD241100019902</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -13542,7 +13542,7 @@
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019915</t>
+          <t>SPBD241100019905</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
@@ -13691,7 +13691,7 @@
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019919</t>
+          <t>SPBD241100019906</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -13840,7 +13840,7 @@
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019920</t>
+          <t>SPBD241100019908</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
@@ -13989,7 +13989,7 @@
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019923</t>
+          <t>SPBD241100019911</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -14138,7 +14138,7 @@
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019887</t>
+          <t>SPBD241100019921</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
@@ -14287,7 +14287,7 @@
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019888</t>
+          <t>SPBD241100019925</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019892</t>
+          <t>SPBD241100019886</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -14585,7 +14585,7 @@
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019900</t>
+          <t>SPBD241100019890</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -14734,7 +14734,7 @@
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019902</t>
+          <t>SPBD241100019894</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019905</t>
+          <t>SPBD241100019901</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -15032,7 +15032,7 @@
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019906</t>
+          <t>SPBD241100019907</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
@@ -15181,7 +15181,7 @@
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019908</t>
+          <t>SPBD241100019909</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -15330,7 +15330,7 @@
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019911</t>
+          <t>SPBD241100019913</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
@@ -15479,7 +15479,7 @@
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019921</t>
+          <t>SPBD241100019918</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019925</t>
+          <t>SPBD241100019924</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
@@ -15777,7 +15777,7 @@
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019886</t>
+          <t>SPBD241100019891</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019890</t>
+          <t>SPBD241100019912</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
@@ -16075,7 +16075,7 @@
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019894</t>
+          <t>SPBD241100019917</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -16224,7 +16224,7 @@
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019901</t>
+          <t>SPBD241100019889</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019907</t>
+          <t>SPBD241100019896</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -16522,7 +16522,7 @@
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019909</t>
+          <t>SPBD241100019898</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
@@ -16671,7 +16671,7 @@
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019913</t>
+          <t>SPBD241100019914</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -16820,7 +16820,7 @@
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019918</t>
+          <t>SPBD241100019922</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
@@ -16964,12 +16964,12 @@
     <row r="112" ht="13.2" customHeight="1" thickBot="1">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019924</t>
+          <t>SPBD241100020298</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -17113,12 +17113,12 @@
     <row r="113" ht="13.2" customHeight="1" thickBot="1">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019891</t>
+          <t>SPBD241100020303</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
@@ -17262,12 +17262,12 @@
     <row r="114" ht="13.2" customHeight="1" thickBot="1">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019912</t>
+          <t>SPBD241100020292</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -17411,12 +17411,12 @@
     <row r="115" ht="13.2" customHeight="1" thickBot="1">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019917</t>
+          <t>SPBD241100020297</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -17560,12 +17560,12 @@
     <row r="116" ht="13.2" customHeight="1" thickBot="1">
       <c r="A116" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019889</t>
+          <t>SPBD241100020299</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -17709,12 +17709,12 @@
     <row r="117" ht="13.2" customHeight="1" thickBot="1">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019896</t>
+          <t>SPBD241100020302</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
@@ -17858,12 +17858,12 @@
     <row r="118" ht="13.2" customHeight="1" thickBot="1">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019898</t>
+          <t>SPBD241100020304</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
@@ -18007,12 +18007,12 @@
     <row r="119" ht="13.2" customHeight="1" thickBot="1">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019914</t>
+          <t>SPBD241100020309</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
@@ -18156,12 +18156,12 @@
     <row r="120" ht="13.2" customHeight="1" thickBot="1">
       <c r="A120" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019922</t>
+          <t>SPBD241100020278</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -18310,7 +18310,7 @@
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020298</t>
+          <t>SPBD241100020280</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
@@ -18459,7 +18459,7 @@
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020303</t>
+          <t>SPBD241100020286</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020292</t>
+          <t>SPBD241100020294</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
@@ -18757,7 +18757,7 @@
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020297</t>
+          <t>SPBD241100020301</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -18906,7 +18906,7 @@
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020299</t>
+          <t>SPBD241100020310</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
@@ -19055,7 +19055,7 @@
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020302</t>
+          <t>SPBD241100020311</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -19204,7 +19204,7 @@
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020304</t>
+          <t>SPBD241100020276</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
@@ -19353,7 +19353,7 @@
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020309</t>
+          <t>SPBD241100020285</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
@@ -19502,7 +19502,7 @@
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020278</t>
+          <t>SPBD241100020288</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
@@ -19651,7 +19651,7 @@
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020280</t>
+          <t>SPBD241100020290</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
@@ -19800,7 +19800,7 @@
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020286</t>
+          <t>SPBD241100020308</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
@@ -19949,7 +19949,7 @@
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020294</t>
+          <t>SPBD241100020312</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -20098,7 +20098,7 @@
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020301</t>
+          <t>SPBD241100020313</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
@@ -20247,7 +20247,7 @@
       </c>
       <c r="B134" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020310</t>
+          <t>SPBD241100020314</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -20396,7 +20396,7 @@
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020311</t>
+          <t>SPBD241100020315</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
@@ -20545,7 +20545,7 @@
       </c>
       <c r="B136" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020276</t>
+          <t>SPBD241100020277</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -20694,7 +20694,7 @@
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020285</t>
+          <t>SPBD241100020281</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
@@ -20843,7 +20843,7 @@
       </c>
       <c r="B138" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020288</t>
+          <t>SPBD241100020284</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -20992,7 +20992,7 @@
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020290</t>
+          <t>SPBD241100020287</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
@@ -21141,7 +21141,7 @@
       </c>
       <c r="B140" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020308</t>
+          <t>SPBD241100020291</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -21290,7 +21290,7 @@
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020312</t>
+          <t>SPBD241100020296</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
@@ -21439,7 +21439,7 @@
       </c>
       <c r="B142" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020313</t>
+          <t>SPBD241100020279</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -21588,7 +21588,7 @@
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020314</t>
+          <t>SPBD241100020282</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
@@ -21737,7 +21737,7 @@
       </c>
       <c r="B144" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020315</t>
+          <t>SPBD241100020283</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -21886,7 +21886,7 @@
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020277</t>
+          <t>SPBD241100020289</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
@@ -22035,7 +22035,7 @@
       </c>
       <c r="B146" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020281</t>
+          <t>SPBD241100020293</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -22184,7 +22184,7 @@
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020284</t>
+          <t>SPBD241100020295</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
@@ -22333,7 +22333,7 @@
       </c>
       <c r="B148" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020287</t>
+          <t>SPBD241100020300</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020291</t>
+          <t>SPBD241100020305</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
@@ -22631,7 +22631,7 @@
       </c>
       <c r="B150" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020296</t>
+          <t>SPBD241100020306</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020279</t>
+          <t>SPBD241100020307</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
@@ -22924,12 +22924,12 @@
     <row r="152" ht="13.2" customHeight="1" thickBot="1">
       <c r="A152" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B152" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020282</t>
+          <t>SPBD241100021257</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -23073,12 +23073,12 @@
     <row r="153" ht="13.2" customHeight="1" thickBot="1">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020283</t>
+          <t>SPBD241100021258</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
@@ -23222,12 +23222,12 @@
     <row r="154" ht="13.2" customHeight="1" thickBot="1">
       <c r="A154" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B154" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020289</t>
+          <t>SPBD241100021262</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
@@ -23371,12 +23371,12 @@
     <row r="155" ht="13.2" customHeight="1" thickBot="1">
       <c r="A155" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020293</t>
+          <t>SPBD241100021267</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
@@ -23520,12 +23520,12 @@
     <row r="156" ht="13.2" customHeight="1" thickBot="1">
       <c r="A156" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B156" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020295</t>
+          <t>SPBD241100021280</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
@@ -23669,12 +23669,12 @@
     <row r="157" ht="13.2" customHeight="1" thickBot="1">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020300</t>
+          <t>SPBD241100021287</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
@@ -23818,12 +23818,12 @@
     <row r="158" ht="13.2" customHeight="1" thickBot="1">
       <c r="A158" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B158" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020305</t>
+          <t>SPBD241100021289</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
@@ -23967,12 +23967,12 @@
     <row r="159" ht="13.2" customHeight="1" thickBot="1">
       <c r="A159" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020306</t>
+          <t>SPBD241100021260</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
@@ -24116,12 +24116,12 @@
     <row r="160" ht="13.2" customHeight="1" thickBot="1">
       <c r="A160" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B160" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020307</t>
+          <t>SPBD241100021261</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
@@ -24270,7 +24270,7 @@
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021257</t>
+          <t>SPBD241100021265</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
@@ -24419,7 +24419,7 @@
       </c>
       <c r="B162" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021258</t>
+          <t>SPBD241100021270</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
@@ -24568,7 +24568,7 @@
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021262</t>
+          <t>SPBD241100021272</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
@@ -24717,7 +24717,7 @@
       </c>
       <c r="B164" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021267</t>
+          <t>SPBD241100021273</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
@@ -24866,7 +24866,7 @@
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021280</t>
+          <t>SPBD241100021278</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
@@ -25015,7 +25015,7 @@
       </c>
       <c r="B166" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021287</t>
+          <t>SPBD241100021282</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
@@ -25164,7 +25164,7 @@
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021289</t>
+          <t>SPBD241100021290</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
@@ -25313,7 +25313,7 @@
       </c>
       <c r="B168" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021260</t>
+          <t>SPBD241100021291</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
@@ -25462,7 +25462,7 @@
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021261</t>
+          <t>SPBD241100021253</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
@@ -25611,7 +25611,7 @@
       </c>
       <c r="B170" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021265</t>
+          <t>SPBD241100021274</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
@@ -25760,7 +25760,7 @@
       </c>
       <c r="B171" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021270</t>
+          <t>SPBD241100021276</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
@@ -25909,7 +25909,7 @@
       </c>
       <c r="B172" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021272</t>
+          <t>SPBD241100021277</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -26058,7 +26058,7 @@
       </c>
       <c r="B173" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021273</t>
+          <t>SPBD241100021283</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
@@ -26207,7 +26207,7 @@
       </c>
       <c r="B174" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021278</t>
+          <t>SPBD241100021285</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -26356,7 +26356,7 @@
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021282</t>
+          <t>SPBD241100021286</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
@@ -26505,7 +26505,7 @@
       </c>
       <c r="B176" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021290</t>
+          <t>SPBD241100021288</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
@@ -26654,7 +26654,7 @@
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021291</t>
+          <t>SPBD241100021255</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
@@ -26803,7 +26803,7 @@
       </c>
       <c r="B178" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021253</t>
+          <t>SPBD241100021264</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -26952,7 +26952,7 @@
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021274</t>
+          <t>SPBD241100021266</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
@@ -27101,7 +27101,7 @@
       </c>
       <c r="B180" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021276</t>
+          <t>SPBD241100021269</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -27250,7 +27250,7 @@
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021277</t>
+          <t>SPBD241100021279</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
@@ -27399,7 +27399,7 @@
       </c>
       <c r="B182" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021283</t>
+          <t>SPBD241100021281</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
@@ -27548,7 +27548,7 @@
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021285</t>
+          <t>SPBD241100021252</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
@@ -27697,7 +27697,7 @@
       </c>
       <c r="B184" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021286</t>
+          <t>SPBD241100021254</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
@@ -27846,7 +27846,7 @@
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021288</t>
+          <t>SPBD241100021263</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
@@ -27995,7 +27995,7 @@
       </c>
       <c r="B186" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021255</t>
+          <t>SPBD241100021275</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -28144,7 +28144,7 @@
       </c>
       <c r="B187" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021264</t>
+          <t>SPBD241100021256</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
@@ -28293,7 +28293,7 @@
       </c>
       <c r="B188" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021266</t>
+          <t>SPBD241100021259</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
@@ -28442,7 +28442,7 @@
       </c>
       <c r="B189" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021269</t>
+          <t>SPBD241100021268</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
@@ -28591,7 +28591,7 @@
       </c>
       <c r="B190" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021279</t>
+          <t>SPBD241100021271</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
@@ -28740,7 +28740,7 @@
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021281</t>
+          <t>SPBD241100021284</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
@@ -28884,12 +28884,12 @@
     <row r="192" ht="13.2" customHeight="1" thickBot="1">
       <c r="A192" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B192" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021252</t>
+          <t>SPBD241100021782</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
@@ -29033,12 +29033,12 @@
     <row r="193" ht="13.2" customHeight="1" thickBot="1">
       <c r="A193" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B193" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021254</t>
+          <t>SPBD241100021784</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
@@ -29182,12 +29182,12 @@
     <row r="194" ht="13.2" customHeight="1" thickBot="1">
       <c r="A194" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B194" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021263</t>
+          <t>SPBD241100021809</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
@@ -29331,12 +29331,12 @@
     <row r="195" ht="13.2" customHeight="1" thickBot="1">
       <c r="A195" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B195" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021275</t>
+          <t>SPBD241100021814</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
@@ -29480,12 +29480,12 @@
     <row r="196" ht="13.2" customHeight="1" thickBot="1">
       <c r="A196" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B196" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021256</t>
+          <t>SPBD241100021786</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
@@ -29629,12 +29629,12 @@
     <row r="197" ht="13.2" customHeight="1" thickBot="1">
       <c r="A197" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B197" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021259</t>
+          <t>SPBD241100021787</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
@@ -29778,12 +29778,12 @@
     <row r="198" ht="13.2" customHeight="1" thickBot="1">
       <c r="A198" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B198" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021268</t>
+          <t>SPBD241100021791</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
@@ -29927,12 +29927,12 @@
     <row r="199" ht="13.2" customHeight="1" thickBot="1">
       <c r="A199" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B199" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021271</t>
+          <t>SPBD241100021793</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
@@ -30076,12 +30076,12 @@
     <row r="200" ht="13.2" customHeight="1" thickBot="1">
       <c r="A200" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B200" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021284</t>
+          <t>SPBD241100021796</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
@@ -30230,7 +30230,7 @@
       </c>
       <c r="B201" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021782</t>
+          <t>SPBD241100021797</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
@@ -30379,7 +30379,7 @@
       </c>
       <c r="B202" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021784</t>
+          <t>SPBD241100021800</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
@@ -30528,7 +30528,7 @@
       </c>
       <c r="B203" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021809</t>
+          <t>SPBD241100021802</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
@@ -30677,7 +30677,7 @@
       </c>
       <c r="B204" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021814</t>
+          <t>SPBD241100021806</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
@@ -30826,7 +30826,7 @@
       </c>
       <c r="B205" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021786</t>
+          <t>SPBD241100021808</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
@@ -30975,7 +30975,7 @@
       </c>
       <c r="B206" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021787</t>
+          <t>SPBD241100021810</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
@@ -31124,7 +31124,7 @@
       </c>
       <c r="B207" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021791</t>
+          <t>SPBD241100021813</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
@@ -31273,7 +31273,7 @@
       </c>
       <c r="B208" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021793</t>
+          <t>SPBD241100021816</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
@@ -31422,7 +31422,7 @@
       </c>
       <c r="B209" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021796</t>
+          <t>SPBD241100021788</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
@@ -31571,7 +31571,7 @@
       </c>
       <c r="B210" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021797</t>
+          <t>SPBD241100021789</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
@@ -31720,7 +31720,7 @@
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021800</t>
+          <t>SPBD241100021790</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
@@ -31869,7 +31869,7 @@
       </c>
       <c r="B212" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021802</t>
+          <t>SPBD241100021795</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
@@ -32018,7 +32018,7 @@
       </c>
       <c r="B213" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021806</t>
+          <t>SPBD241100021805</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
@@ -32167,7 +32167,7 @@
       </c>
       <c r="B214" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021808</t>
+          <t>SPBD241100021817</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
@@ -32316,7 +32316,7 @@
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021810</t>
+          <t>SPBD241100021783</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
@@ -32465,7 +32465,7 @@
       </c>
       <c r="B216" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021813</t>
+          <t>SPBD241100021785</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
@@ -32614,7 +32614,7 @@
       </c>
       <c r="B217" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021816</t>
+          <t>SPBD241100021799</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
@@ -32763,7 +32763,7 @@
       </c>
       <c r="B218" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021788</t>
+          <t>SPBD241100021801</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
@@ -32912,7 +32912,7 @@
       </c>
       <c r="B219" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021789</t>
+          <t>SPBD241100021803</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
@@ -33061,7 +33061,7 @@
       </c>
       <c r="B220" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021790</t>
+          <t>SPBD241100021804</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
@@ -33210,7 +33210,7 @@
       </c>
       <c r="B221" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021795</t>
+          <t>SPBD241100021812</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
@@ -33359,7 +33359,7 @@
       </c>
       <c r="B222" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021805</t>
+          <t>SPBD241100021781</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
@@ -33508,7 +33508,7 @@
       </c>
       <c r="B223" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021817</t>
+          <t>SPBD241100021792</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr">
@@ -33657,7 +33657,7 @@
       </c>
       <c r="B224" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021783</t>
+          <t>SPBD241100021794</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
@@ -33806,7 +33806,7 @@
       </c>
       <c r="B225" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021785</t>
+          <t>SPBD241100021807</t>
         </is>
       </c>
       <c r="C225" s="3" t="inlineStr">
@@ -33955,7 +33955,7 @@
       </c>
       <c r="B226" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021799</t>
+          <t>SPBD241100021815</t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr">
@@ -34104,7 +34104,7 @@
       </c>
       <c r="B227" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021801</t>
+          <t>SPBD241100021818</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr">
@@ -34253,7 +34253,7 @@
       </c>
       <c r="B228" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021803</t>
+          <t>SPBD241100021780</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
@@ -34402,7 +34402,7 @@
       </c>
       <c r="B229" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021804</t>
+          <t>SPBD241100021798</t>
         </is>
       </c>
       <c r="C229" s="3" t="inlineStr">
@@ -34551,7 +34551,7 @@
       </c>
       <c r="B230" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021812</t>
+          <t>SPBD241100021811</t>
         </is>
       </c>
       <c r="C230" s="3" t="inlineStr">
@@ -34693,131 +34693,31 @@
       <c r="AU230" s="3" t="n"/>
     </row>
     <row r="231" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A231" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B231" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021781</t>
-        </is>
-      </c>
-      <c r="C231" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D231" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E231" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F231" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G231" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H231" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I231" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J231" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K231" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L231" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M231" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N231" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O231" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P231" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q231" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R231" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S231" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T231" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U231" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V231" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W231" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X231" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y231" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A231" s="3" t="n"/>
+      <c r="B231" s="3" t="n"/>
+      <c r="C231" s="3" t="n"/>
+      <c r="D231" s="3" t="n"/>
+      <c r="E231" s="3" t="n"/>
+      <c r="F231" s="3" t="n"/>
+      <c r="G231" s="3" t="n"/>
+      <c r="H231" s="3" t="n"/>
+      <c r="I231" s="3" t="n"/>
+      <c r="J231" s="3" t="n"/>
+      <c r="K231" s="3" t="n"/>
+      <c r="L231" s="3" t="n"/>
+      <c r="M231" s="3" t="n"/>
+      <c r="N231" s="3" t="n"/>
+      <c r="O231" s="3" t="n"/>
+      <c r="P231" s="3" t="n"/>
+      <c r="Q231" s="3" t="n"/>
+      <c r="R231" s="3" t="n"/>
+      <c r="S231" s="3" t="n"/>
+      <c r="T231" s="3" t="n"/>
+      <c r="U231" s="3" t="n"/>
+      <c r="V231" s="3" t="n"/>
+      <c r="W231" s="3" t="n"/>
+      <c r="X231" s="3" t="n"/>
+      <c r="Y231" s="3" t="n"/>
       <c r="Z231" s="3" t="n"/>
       <c r="AA231" s="3" t="n"/>
       <c r="AB231" s="3" t="n"/>
@@ -34842,131 +34742,31 @@
       <c r="AU231" s="3" t="n"/>
     </row>
     <row r="232" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A232" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B232" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021792</t>
-        </is>
-      </c>
-      <c r="C232" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D232" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E232" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F232" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G232" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H232" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I232" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J232" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K232" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L232" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M232" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N232" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O232" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P232" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q232" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R232" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S232" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T232" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U232" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V232" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W232" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X232" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y232" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A232" s="3" t="n"/>
+      <c r="B232" s="3" t="n"/>
+      <c r="C232" s="3" t="n"/>
+      <c r="D232" s="3" t="n"/>
+      <c r="E232" s="3" t="n"/>
+      <c r="F232" s="3" t="n"/>
+      <c r="G232" s="3" t="n"/>
+      <c r="H232" s="3" t="n"/>
+      <c r="I232" s="3" t="n"/>
+      <c r="J232" s="3" t="n"/>
+      <c r="K232" s="3" t="n"/>
+      <c r="L232" s="3" t="n"/>
+      <c r="M232" s="3" t="n"/>
+      <c r="N232" s="3" t="n"/>
+      <c r="O232" s="3" t="n"/>
+      <c r="P232" s="3" t="n"/>
+      <c r="Q232" s="3" t="n"/>
+      <c r="R232" s="3" t="n"/>
+      <c r="S232" s="3" t="n"/>
+      <c r="T232" s="3" t="n"/>
+      <c r="U232" s="3" t="n"/>
+      <c r="V232" s="3" t="n"/>
+      <c r="W232" s="3" t="n"/>
+      <c r="X232" s="3" t="n"/>
+      <c r="Y232" s="3" t="n"/>
       <c r="Z232" s="3" t="n"/>
       <c r="AA232" s="3" t="n"/>
       <c r="AB232" s="3" t="n"/>
@@ -34991,131 +34791,31 @@
       <c r="AU232" s="3" t="n"/>
     </row>
     <row r="233" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A233" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B233" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021794</t>
-        </is>
-      </c>
-      <c r="C233" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D233" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E233" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F233" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G233" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H233" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I233" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J233" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K233" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L233" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M233" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N233" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O233" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P233" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q233" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R233" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S233" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T233" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U233" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V233" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W233" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X233" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y233" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A233" s="3" t="n"/>
+      <c r="B233" s="3" t="n"/>
+      <c r="C233" s="3" t="n"/>
+      <c r="D233" s="3" t="n"/>
+      <c r="E233" s="3" t="n"/>
+      <c r="F233" s="3" t="n"/>
+      <c r="G233" s="3" t="n"/>
+      <c r="H233" s="3" t="n"/>
+      <c r="I233" s="3" t="n"/>
+      <c r="J233" s="3" t="n"/>
+      <c r="K233" s="3" t="n"/>
+      <c r="L233" s="3" t="n"/>
+      <c r="M233" s="3" t="n"/>
+      <c r="N233" s="3" t="n"/>
+      <c r="O233" s="3" t="n"/>
+      <c r="P233" s="3" t="n"/>
+      <c r="Q233" s="3" t="n"/>
+      <c r="R233" s="3" t="n"/>
+      <c r="S233" s="3" t="n"/>
+      <c r="T233" s="3" t="n"/>
+      <c r="U233" s="3" t="n"/>
+      <c r="V233" s="3" t="n"/>
+      <c r="W233" s="3" t="n"/>
+      <c r="X233" s="3" t="n"/>
+      <c r="Y233" s="3" t="n"/>
       <c r="Z233" s="3" t="n"/>
       <c r="AA233" s="3" t="n"/>
       <c r="AB233" s="3" t="n"/>
@@ -35140,131 +34840,31 @@
       <c r="AU233" s="3" t="n"/>
     </row>
     <row r="234" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A234" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B234" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021807</t>
-        </is>
-      </c>
-      <c r="C234" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D234" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E234" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F234" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G234" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H234" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I234" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J234" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K234" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L234" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M234" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N234" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O234" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P234" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q234" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R234" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S234" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T234" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U234" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V234" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W234" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X234" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y234" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A234" s="3" t="n"/>
+      <c r="B234" s="3" t="n"/>
+      <c r="C234" s="3" t="n"/>
+      <c r="D234" s="3" t="n"/>
+      <c r="E234" s="3" t="n"/>
+      <c r="F234" s="3" t="n"/>
+      <c r="G234" s="3" t="n"/>
+      <c r="H234" s="3" t="n"/>
+      <c r="I234" s="3" t="n"/>
+      <c r="J234" s="3" t="n"/>
+      <c r="K234" s="3" t="n"/>
+      <c r="L234" s="3" t="n"/>
+      <c r="M234" s="3" t="n"/>
+      <c r="N234" s="3" t="n"/>
+      <c r="O234" s="3" t="n"/>
+      <c r="P234" s="3" t="n"/>
+      <c r="Q234" s="3" t="n"/>
+      <c r="R234" s="3" t="n"/>
+      <c r="S234" s="3" t="n"/>
+      <c r="T234" s="3" t="n"/>
+      <c r="U234" s="3" t="n"/>
+      <c r="V234" s="3" t="n"/>
+      <c r="W234" s="3" t="n"/>
+      <c r="X234" s="3" t="n"/>
+      <c r="Y234" s="3" t="n"/>
       <c r="Z234" s="3" t="n"/>
       <c r="AA234" s="3" t="n"/>
       <c r="AB234" s="3" t="n"/>
@@ -35289,131 +34889,31 @@
       <c r="AU234" s="3" t="n"/>
     </row>
     <row r="235" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A235" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B235" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021815</t>
-        </is>
-      </c>
-      <c r="C235" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D235" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E235" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F235" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G235" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H235" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I235" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J235" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K235" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L235" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M235" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N235" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O235" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P235" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q235" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R235" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S235" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T235" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U235" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V235" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W235" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X235" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y235" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A235" s="3" t="n"/>
+      <c r="B235" s="3" t="n"/>
+      <c r="C235" s="3" t="n"/>
+      <c r="D235" s="3" t="n"/>
+      <c r="E235" s="3" t="n"/>
+      <c r="F235" s="3" t="n"/>
+      <c r="G235" s="3" t="n"/>
+      <c r="H235" s="3" t="n"/>
+      <c r="I235" s="3" t="n"/>
+      <c r="J235" s="3" t="n"/>
+      <c r="K235" s="3" t="n"/>
+      <c r="L235" s="3" t="n"/>
+      <c r="M235" s="3" t="n"/>
+      <c r="N235" s="3" t="n"/>
+      <c r="O235" s="3" t="n"/>
+      <c r="P235" s="3" t="n"/>
+      <c r="Q235" s="3" t="n"/>
+      <c r="R235" s="3" t="n"/>
+      <c r="S235" s="3" t="n"/>
+      <c r="T235" s="3" t="n"/>
+      <c r="U235" s="3" t="n"/>
+      <c r="V235" s="3" t="n"/>
+      <c r="W235" s="3" t="n"/>
+      <c r="X235" s="3" t="n"/>
+      <c r="Y235" s="3" t="n"/>
       <c r="Z235" s="3" t="n"/>
       <c r="AA235" s="3" t="n"/>
       <c r="AB235" s="3" t="n"/>
@@ -35438,131 +34938,31 @@
       <c r="AU235" s="3" t="n"/>
     </row>
     <row r="236" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A236" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B236" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021818</t>
-        </is>
-      </c>
-      <c r="C236" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D236" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E236" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F236" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G236" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H236" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I236" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J236" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K236" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L236" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M236" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N236" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O236" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P236" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q236" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R236" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S236" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T236" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U236" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V236" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W236" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X236" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y236" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A236" s="3" t="n"/>
+      <c r="B236" s="3" t="n"/>
+      <c r="C236" s="3" t="n"/>
+      <c r="D236" s="3" t="n"/>
+      <c r="E236" s="3" t="n"/>
+      <c r="F236" s="3" t="n"/>
+      <c r="G236" s="3" t="n"/>
+      <c r="H236" s="3" t="n"/>
+      <c r="I236" s="3" t="n"/>
+      <c r="J236" s="3" t="n"/>
+      <c r="K236" s="3" t="n"/>
+      <c r="L236" s="3" t="n"/>
+      <c r="M236" s="3" t="n"/>
+      <c r="N236" s="3" t="n"/>
+      <c r="O236" s="3" t="n"/>
+      <c r="P236" s="3" t="n"/>
+      <c r="Q236" s="3" t="n"/>
+      <c r="R236" s="3" t="n"/>
+      <c r="S236" s="3" t="n"/>
+      <c r="T236" s="3" t="n"/>
+      <c r="U236" s="3" t="n"/>
+      <c r="V236" s="3" t="n"/>
+      <c r="W236" s="3" t="n"/>
+      <c r="X236" s="3" t="n"/>
+      <c r="Y236" s="3" t="n"/>
       <c r="Z236" s="3" t="n"/>
       <c r="AA236" s="3" t="n"/>
       <c r="AB236" s="3" t="n"/>
@@ -35587,131 +34987,31 @@
       <c r="AU236" s="3" t="n"/>
     </row>
     <row r="237" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A237" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B237" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021780</t>
-        </is>
-      </c>
-      <c r="C237" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D237" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E237" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F237" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G237" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H237" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I237" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J237" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K237" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L237" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M237" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N237" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O237" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P237" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q237" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R237" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S237" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T237" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U237" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V237" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W237" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X237" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y237" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A237" s="3" t="n"/>
+      <c r="B237" s="3" t="n"/>
+      <c r="C237" s="3" t="n"/>
+      <c r="D237" s="3" t="n"/>
+      <c r="E237" s="3" t="n"/>
+      <c r="F237" s="3" t="n"/>
+      <c r="G237" s="3" t="n"/>
+      <c r="H237" s="3" t="n"/>
+      <c r="I237" s="3" t="n"/>
+      <c r="J237" s="3" t="n"/>
+      <c r="K237" s="3" t="n"/>
+      <c r="L237" s="3" t="n"/>
+      <c r="M237" s="3" t="n"/>
+      <c r="N237" s="3" t="n"/>
+      <c r="O237" s="3" t="n"/>
+      <c r="P237" s="3" t="n"/>
+      <c r="Q237" s="3" t="n"/>
+      <c r="R237" s="3" t="n"/>
+      <c r="S237" s="3" t="n"/>
+      <c r="T237" s="3" t="n"/>
+      <c r="U237" s="3" t="n"/>
+      <c r="V237" s="3" t="n"/>
+      <c r="W237" s="3" t="n"/>
+      <c r="X237" s="3" t="n"/>
+      <c r="Y237" s="3" t="n"/>
       <c r="Z237" s="3" t="n"/>
       <c r="AA237" s="3" t="n"/>
       <c r="AB237" s="3" t="n"/>
@@ -35736,131 +35036,31 @@
       <c r="AU237" s="3" t="n"/>
     </row>
     <row r="238" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A238" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B238" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021798</t>
-        </is>
-      </c>
-      <c r="C238" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D238" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E238" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F238" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G238" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H238" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I238" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J238" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K238" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L238" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M238" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N238" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O238" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P238" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q238" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R238" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S238" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T238" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U238" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V238" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W238" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X238" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y238" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A238" s="3" t="n"/>
+      <c r="B238" s="3" t="n"/>
+      <c r="C238" s="3" t="n"/>
+      <c r="D238" s="3" t="n"/>
+      <c r="E238" s="3" t="n"/>
+      <c r="F238" s="3" t="n"/>
+      <c r="G238" s="3" t="n"/>
+      <c r="H238" s="3" t="n"/>
+      <c r="I238" s="3" t="n"/>
+      <c r="J238" s="3" t="n"/>
+      <c r="K238" s="3" t="n"/>
+      <c r="L238" s="3" t="n"/>
+      <c r="M238" s="3" t="n"/>
+      <c r="N238" s="3" t="n"/>
+      <c r="O238" s="3" t="n"/>
+      <c r="P238" s="3" t="n"/>
+      <c r="Q238" s="3" t="n"/>
+      <c r="R238" s="3" t="n"/>
+      <c r="S238" s="3" t="n"/>
+      <c r="T238" s="3" t="n"/>
+      <c r="U238" s="3" t="n"/>
+      <c r="V238" s="3" t="n"/>
+      <c r="W238" s="3" t="n"/>
+      <c r="X238" s="3" t="n"/>
+      <c r="Y238" s="3" t="n"/>
       <c r="Z238" s="3" t="n"/>
       <c r="AA238" s="3" t="n"/>
       <c r="AB238" s="3" t="n"/>
@@ -35885,131 +35085,31 @@
       <c r="AU238" s="3" t="n"/>
     </row>
     <row r="239" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A239" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B239" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021811</t>
-        </is>
-      </c>
-      <c r="C239" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D239" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E239" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F239" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G239" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H239" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I239" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J239" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K239" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L239" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M239" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N239" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O239" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P239" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q239" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R239" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S239" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T239" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U239" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V239" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W239" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X239" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y239" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A239" s="3" t="n"/>
+      <c r="B239" s="3" t="n"/>
+      <c r="C239" s="3" t="n"/>
+      <c r="D239" s="3" t="n"/>
+      <c r="E239" s="3" t="n"/>
+      <c r="F239" s="3" t="n"/>
+      <c r="G239" s="3" t="n"/>
+      <c r="H239" s="3" t="n"/>
+      <c r="I239" s="3" t="n"/>
+      <c r="J239" s="3" t="n"/>
+      <c r="K239" s="3" t="n"/>
+      <c r="L239" s="3" t="n"/>
+      <c r="M239" s="3" t="n"/>
+      <c r="N239" s="3" t="n"/>
+      <c r="O239" s="3" t="n"/>
+      <c r="P239" s="3" t="n"/>
+      <c r="Q239" s="3" t="n"/>
+      <c r="R239" s="3" t="n"/>
+      <c r="S239" s="3" t="n"/>
+      <c r="T239" s="3" t="n"/>
+      <c r="U239" s="3" t="n"/>
+      <c r="V239" s="3" t="n"/>
+      <c r="W239" s="3" t="n"/>
+      <c r="X239" s="3" t="n"/>
+      <c r="Y239" s="3" t="n"/>
       <c r="Z239" s="3" t="n"/>
       <c r="AA239" s="3" t="n"/>
       <c r="AB239" s="3" t="n"/>
@@ -50635,447 +49735,15 @@
       <c r="AT537" s="3" t="n"/>
       <c r="AU537" s="3" t="n"/>
     </row>
-    <row r="538" ht="13.2" customHeight="1">
-      <c r="A538" s="3" t="n"/>
-      <c r="B538" s="3" t="n"/>
-      <c r="C538" s="3" t="n"/>
-      <c r="D538" s="3" t="n"/>
-      <c r="E538" s="3" t="n"/>
-      <c r="F538" s="3" t="n"/>
-      <c r="G538" s="3" t="n"/>
-      <c r="H538" s="3" t="n"/>
-      <c r="I538" s="3" t="n"/>
-      <c r="J538" s="3" t="n"/>
-      <c r="K538" s="3" t="n"/>
-      <c r="L538" s="3" t="n"/>
-      <c r="M538" s="3" t="n"/>
-      <c r="N538" s="3" t="n"/>
-      <c r="O538" s="3" t="n"/>
-      <c r="P538" s="3" t="n"/>
-      <c r="Q538" s="3" t="n"/>
-      <c r="R538" s="3" t="n"/>
-      <c r="S538" s="3" t="n"/>
-      <c r="T538" s="3" t="n"/>
-      <c r="U538" s="3" t="n"/>
-      <c r="V538" s="3" t="n"/>
-      <c r="W538" s="3" t="n"/>
-      <c r="X538" s="3" t="n"/>
-      <c r="Y538" s="3" t="n"/>
-      <c r="Z538" s="3" t="n"/>
-      <c r="AA538" s="3" t="n"/>
-      <c r="AB538" s="3" t="n"/>
-      <c r="AC538" s="3" t="n"/>
-      <c r="AD538" s="3" t="n"/>
-      <c r="AE538" s="3" t="n"/>
-      <c r="AF538" s="3" t="n"/>
-      <c r="AG538" s="3" t="n"/>
-      <c r="AH538" s="3" t="n"/>
-      <c r="AI538" s="3" t="n"/>
-      <c r="AJ538" s="3" t="n"/>
-      <c r="AK538" s="3" t="n"/>
-      <c r="AL538" s="3" t="n"/>
-      <c r="AM538" s="3" t="n"/>
-      <c r="AN538" s="3" t="n"/>
-      <c r="AO538" s="3" t="n"/>
-      <c r="AP538" s="3" t="n"/>
-      <c r="AQ538" s="3" t="n"/>
-      <c r="AR538" s="3" t="n"/>
-      <c r="AS538" s="3" t="n"/>
-      <c r="AT538" s="3" t="n"/>
-      <c r="AU538" s="3" t="n"/>
-    </row>
-    <row r="539" ht="13.2" customHeight="1">
-      <c r="A539" s="3" t="n"/>
-      <c r="B539" s="3" t="n"/>
-      <c r="C539" s="3" t="n"/>
-      <c r="D539" s="3" t="n"/>
-      <c r="E539" s="3" t="n"/>
-      <c r="F539" s="3" t="n"/>
-      <c r="G539" s="3" t="n"/>
-      <c r="H539" s="3" t="n"/>
-      <c r="I539" s="3" t="n"/>
-      <c r="J539" s="3" t="n"/>
-      <c r="K539" s="3" t="n"/>
-      <c r="L539" s="3" t="n"/>
-      <c r="M539" s="3" t="n"/>
-      <c r="N539" s="3" t="n"/>
-      <c r="O539" s="3" t="n"/>
-      <c r="P539" s="3" t="n"/>
-      <c r="Q539" s="3" t="n"/>
-      <c r="R539" s="3" t="n"/>
-      <c r="S539" s="3" t="n"/>
-      <c r="T539" s="3" t="n"/>
-      <c r="U539" s="3" t="n"/>
-      <c r="V539" s="3" t="n"/>
-      <c r="W539" s="3" t="n"/>
-      <c r="X539" s="3" t="n"/>
-      <c r="Y539" s="3" t="n"/>
-      <c r="Z539" s="3" t="n"/>
-      <c r="AA539" s="3" t="n"/>
-      <c r="AB539" s="3" t="n"/>
-      <c r="AC539" s="3" t="n"/>
-      <c r="AD539" s="3" t="n"/>
-      <c r="AE539" s="3" t="n"/>
-      <c r="AF539" s="3" t="n"/>
-      <c r="AG539" s="3" t="n"/>
-      <c r="AH539" s="3" t="n"/>
-      <c r="AI539" s="3" t="n"/>
-      <c r="AJ539" s="3" t="n"/>
-      <c r="AK539" s="3" t="n"/>
-      <c r="AL539" s="3" t="n"/>
-      <c r="AM539" s="3" t="n"/>
-      <c r="AN539" s="3" t="n"/>
-      <c r="AO539" s="3" t="n"/>
-      <c r="AP539" s="3" t="n"/>
-      <c r="AQ539" s="3" t="n"/>
-      <c r="AR539" s="3" t="n"/>
-      <c r="AS539" s="3" t="n"/>
-      <c r="AT539" s="3" t="n"/>
-      <c r="AU539" s="3" t="n"/>
-    </row>
-    <row r="540" ht="13.2" customHeight="1">
-      <c r="A540" s="3" t="n"/>
-      <c r="B540" s="3" t="n"/>
-      <c r="C540" s="3" t="n"/>
-      <c r="D540" s="3" t="n"/>
-      <c r="E540" s="3" t="n"/>
-      <c r="F540" s="3" t="n"/>
-      <c r="G540" s="3" t="n"/>
-      <c r="H540" s="3" t="n"/>
-      <c r="I540" s="3" t="n"/>
-      <c r="J540" s="3" t="n"/>
-      <c r="K540" s="3" t="n"/>
-      <c r="L540" s="3" t="n"/>
-      <c r="M540" s="3" t="n"/>
-      <c r="N540" s="3" t="n"/>
-      <c r="O540" s="3" t="n"/>
-      <c r="P540" s="3" t="n"/>
-      <c r="Q540" s="3" t="n"/>
-      <c r="R540" s="3" t="n"/>
-      <c r="S540" s="3" t="n"/>
-      <c r="T540" s="3" t="n"/>
-      <c r="U540" s="3" t="n"/>
-      <c r="V540" s="3" t="n"/>
-      <c r="W540" s="3" t="n"/>
-      <c r="X540" s="3" t="n"/>
-      <c r="Y540" s="3" t="n"/>
-      <c r="Z540" s="3" t="n"/>
-      <c r="AA540" s="3" t="n"/>
-      <c r="AB540" s="3" t="n"/>
-      <c r="AC540" s="3" t="n"/>
-      <c r="AD540" s="3" t="n"/>
-      <c r="AE540" s="3" t="n"/>
-      <c r="AF540" s="3" t="n"/>
-      <c r="AG540" s="3" t="n"/>
-      <c r="AH540" s="3" t="n"/>
-      <c r="AI540" s="3" t="n"/>
-      <c r="AJ540" s="3" t="n"/>
-      <c r="AK540" s="3" t="n"/>
-      <c r="AL540" s="3" t="n"/>
-      <c r="AM540" s="3" t="n"/>
-      <c r="AN540" s="3" t="n"/>
-      <c r="AO540" s="3" t="n"/>
-      <c r="AP540" s="3" t="n"/>
-      <c r="AQ540" s="3" t="n"/>
-      <c r="AR540" s="3" t="n"/>
-      <c r="AS540" s="3" t="n"/>
-      <c r="AT540" s="3" t="n"/>
-      <c r="AU540" s="3" t="n"/>
-    </row>
-    <row r="541" ht="13.2" customHeight="1">
-      <c r="A541" s="3" t="n"/>
-      <c r="B541" s="3" t="n"/>
-      <c r="C541" s="3" t="n"/>
-      <c r="D541" s="3" t="n"/>
-      <c r="E541" s="3" t="n"/>
-      <c r="F541" s="3" t="n"/>
-      <c r="G541" s="3" t="n"/>
-      <c r="H541" s="3" t="n"/>
-      <c r="I541" s="3" t="n"/>
-      <c r="J541" s="3" t="n"/>
-      <c r="K541" s="3" t="n"/>
-      <c r="L541" s="3" t="n"/>
-      <c r="M541" s="3" t="n"/>
-      <c r="N541" s="3" t="n"/>
-      <c r="O541" s="3" t="n"/>
-      <c r="P541" s="3" t="n"/>
-      <c r="Q541" s="3" t="n"/>
-      <c r="R541" s="3" t="n"/>
-      <c r="S541" s="3" t="n"/>
-      <c r="T541" s="3" t="n"/>
-      <c r="U541" s="3" t="n"/>
-      <c r="V541" s="3" t="n"/>
-      <c r="W541" s="3" t="n"/>
-      <c r="X541" s="3" t="n"/>
-      <c r="Y541" s="3" t="n"/>
-      <c r="Z541" s="3" t="n"/>
-      <c r="AA541" s="3" t="n"/>
-      <c r="AB541" s="3" t="n"/>
-      <c r="AC541" s="3" t="n"/>
-      <c r="AD541" s="3" t="n"/>
-      <c r="AE541" s="3" t="n"/>
-      <c r="AF541" s="3" t="n"/>
-      <c r="AG541" s="3" t="n"/>
-      <c r="AH541" s="3" t="n"/>
-      <c r="AI541" s="3" t="n"/>
-      <c r="AJ541" s="3" t="n"/>
-      <c r="AK541" s="3" t="n"/>
-      <c r="AL541" s="3" t="n"/>
-      <c r="AM541" s="3" t="n"/>
-      <c r="AN541" s="3" t="n"/>
-      <c r="AO541" s="3" t="n"/>
-      <c r="AP541" s="3" t="n"/>
-      <c r="AQ541" s="3" t="n"/>
-      <c r="AR541" s="3" t="n"/>
-      <c r="AS541" s="3" t="n"/>
-      <c r="AT541" s="3" t="n"/>
-      <c r="AU541" s="3" t="n"/>
-    </row>
-    <row r="542" ht="13.2" customHeight="1">
-      <c r="A542" s="3" t="n"/>
-      <c r="B542" s="3" t="n"/>
-      <c r="C542" s="3" t="n"/>
-      <c r="D542" s="3" t="n"/>
-      <c r="E542" s="3" t="n"/>
-      <c r="F542" s="3" t="n"/>
-      <c r="G542" s="3" t="n"/>
-      <c r="H542" s="3" t="n"/>
-      <c r="I542" s="3" t="n"/>
-      <c r="J542" s="3" t="n"/>
-      <c r="K542" s="3" t="n"/>
-      <c r="L542" s="3" t="n"/>
-      <c r="M542" s="3" t="n"/>
-      <c r="N542" s="3" t="n"/>
-      <c r="O542" s="3" t="n"/>
-      <c r="P542" s="3" t="n"/>
-      <c r="Q542" s="3" t="n"/>
-      <c r="R542" s="3" t="n"/>
-      <c r="S542" s="3" t="n"/>
-      <c r="T542" s="3" t="n"/>
-      <c r="U542" s="3" t="n"/>
-      <c r="V542" s="3" t="n"/>
-      <c r="W542" s="3" t="n"/>
-      <c r="X542" s="3" t="n"/>
-      <c r="Y542" s="3" t="n"/>
-      <c r="Z542" s="3" t="n"/>
-      <c r="AA542" s="3" t="n"/>
-      <c r="AB542" s="3" t="n"/>
-      <c r="AC542" s="3" t="n"/>
-      <c r="AD542" s="3" t="n"/>
-      <c r="AE542" s="3" t="n"/>
-      <c r="AF542" s="3" t="n"/>
-      <c r="AG542" s="3" t="n"/>
-      <c r="AH542" s="3" t="n"/>
-      <c r="AI542" s="3" t="n"/>
-      <c r="AJ542" s="3" t="n"/>
-      <c r="AK542" s="3" t="n"/>
-      <c r="AL542" s="3" t="n"/>
-      <c r="AM542" s="3" t="n"/>
-      <c r="AN542" s="3" t="n"/>
-      <c r="AO542" s="3" t="n"/>
-      <c r="AP542" s="3" t="n"/>
-      <c r="AQ542" s="3" t="n"/>
-      <c r="AR542" s="3" t="n"/>
-      <c r="AS542" s="3" t="n"/>
-      <c r="AT542" s="3" t="n"/>
-      <c r="AU542" s="3" t="n"/>
-    </row>
-    <row r="543" ht="13.2" customHeight="1">
-      <c r="A543" s="3" t="n"/>
-      <c r="B543" s="3" t="n"/>
-      <c r="C543" s="3" t="n"/>
-      <c r="D543" s="3" t="n"/>
-      <c r="E543" s="3" t="n"/>
-      <c r="F543" s="3" t="n"/>
-      <c r="G543" s="3" t="n"/>
-      <c r="H543" s="3" t="n"/>
-      <c r="I543" s="3" t="n"/>
-      <c r="J543" s="3" t="n"/>
-      <c r="K543" s="3" t="n"/>
-      <c r="L543" s="3" t="n"/>
-      <c r="M543" s="3" t="n"/>
-      <c r="N543" s="3" t="n"/>
-      <c r="O543" s="3" t="n"/>
-      <c r="P543" s="3" t="n"/>
-      <c r="Q543" s="3" t="n"/>
-      <c r="R543" s="3" t="n"/>
-      <c r="S543" s="3" t="n"/>
-      <c r="T543" s="3" t="n"/>
-      <c r="U543" s="3" t="n"/>
-      <c r="V543" s="3" t="n"/>
-      <c r="W543" s="3" t="n"/>
-      <c r="X543" s="3" t="n"/>
-      <c r="Y543" s="3" t="n"/>
-      <c r="Z543" s="3" t="n"/>
-      <c r="AA543" s="3" t="n"/>
-      <c r="AB543" s="3" t="n"/>
-      <c r="AC543" s="3" t="n"/>
-      <c r="AD543" s="3" t="n"/>
-      <c r="AE543" s="3" t="n"/>
-      <c r="AF543" s="3" t="n"/>
-      <c r="AG543" s="3" t="n"/>
-      <c r="AH543" s="3" t="n"/>
-      <c r="AI543" s="3" t="n"/>
-      <c r="AJ543" s="3" t="n"/>
-      <c r="AK543" s="3" t="n"/>
-      <c r="AL543" s="3" t="n"/>
-      <c r="AM543" s="3" t="n"/>
-      <c r="AN543" s="3" t="n"/>
-      <c r="AO543" s="3" t="n"/>
-      <c r="AP543" s="3" t="n"/>
-      <c r="AQ543" s="3" t="n"/>
-      <c r="AR543" s="3" t="n"/>
-      <c r="AS543" s="3" t="n"/>
-      <c r="AT543" s="3" t="n"/>
-      <c r="AU543" s="3" t="n"/>
-    </row>
-    <row r="544" ht="13.2" customHeight="1">
-      <c r="A544" s="3" t="n"/>
-      <c r="B544" s="3" t="n"/>
-      <c r="C544" s="3" t="n"/>
-      <c r="D544" s="3" t="n"/>
-      <c r="E544" s="3" t="n"/>
-      <c r="F544" s="3" t="n"/>
-      <c r="G544" s="3" t="n"/>
-      <c r="H544" s="3" t="n"/>
-      <c r="I544" s="3" t="n"/>
-      <c r="J544" s="3" t="n"/>
-      <c r="K544" s="3" t="n"/>
-      <c r="L544" s="3" t="n"/>
-      <c r="M544" s="3" t="n"/>
-      <c r="N544" s="3" t="n"/>
-      <c r="O544" s="3" t="n"/>
-      <c r="P544" s="3" t="n"/>
-      <c r="Q544" s="3" t="n"/>
-      <c r="R544" s="3" t="n"/>
-      <c r="S544" s="3" t="n"/>
-      <c r="T544" s="3" t="n"/>
-      <c r="U544" s="3" t="n"/>
-      <c r="V544" s="3" t="n"/>
-      <c r="W544" s="3" t="n"/>
-      <c r="X544" s="3" t="n"/>
-      <c r="Y544" s="3" t="n"/>
-      <c r="Z544" s="3" t="n"/>
-      <c r="AA544" s="3" t="n"/>
-      <c r="AB544" s="3" t="n"/>
-      <c r="AC544" s="3" t="n"/>
-      <c r="AD544" s="3" t="n"/>
-      <c r="AE544" s="3" t="n"/>
-      <c r="AF544" s="3" t="n"/>
-      <c r="AG544" s="3" t="n"/>
-      <c r="AH544" s="3" t="n"/>
-      <c r="AI544" s="3" t="n"/>
-      <c r="AJ544" s="3" t="n"/>
-      <c r="AK544" s="3" t="n"/>
-      <c r="AL544" s="3" t="n"/>
-      <c r="AM544" s="3" t="n"/>
-      <c r="AN544" s="3" t="n"/>
-      <c r="AO544" s="3" t="n"/>
-      <c r="AP544" s="3" t="n"/>
-      <c r="AQ544" s="3" t="n"/>
-      <c r="AR544" s="3" t="n"/>
-      <c r="AS544" s="3" t="n"/>
-      <c r="AT544" s="3" t="n"/>
-      <c r="AU544" s="3" t="n"/>
-    </row>
-    <row r="545" ht="13.2" customHeight="1">
-      <c r="A545" s="3" t="n"/>
-      <c r="B545" s="3" t="n"/>
-      <c r="C545" s="3" t="n"/>
-      <c r="D545" s="3" t="n"/>
-      <c r="E545" s="3" t="n"/>
-      <c r="F545" s="3" t="n"/>
-      <c r="G545" s="3" t="n"/>
-      <c r="H545" s="3" t="n"/>
-      <c r="I545" s="3" t="n"/>
-      <c r="J545" s="3" t="n"/>
-      <c r="K545" s="3" t="n"/>
-      <c r="L545" s="3" t="n"/>
-      <c r="M545" s="3" t="n"/>
-      <c r="N545" s="3" t="n"/>
-      <c r="O545" s="3" t="n"/>
-      <c r="P545" s="3" t="n"/>
-      <c r="Q545" s="3" t="n"/>
-      <c r="R545" s="3" t="n"/>
-      <c r="S545" s="3" t="n"/>
-      <c r="T545" s="3" t="n"/>
-      <c r="U545" s="3" t="n"/>
-      <c r="V545" s="3" t="n"/>
-      <c r="W545" s="3" t="n"/>
-      <c r="X545" s="3" t="n"/>
-      <c r="Y545" s="3" t="n"/>
-      <c r="Z545" s="3" t="n"/>
-      <c r="AA545" s="3" t="n"/>
-      <c r="AB545" s="3" t="n"/>
-      <c r="AC545" s="3" t="n"/>
-      <c r="AD545" s="3" t="n"/>
-      <c r="AE545" s="3" t="n"/>
-      <c r="AF545" s="3" t="n"/>
-      <c r="AG545" s="3" t="n"/>
-      <c r="AH545" s="3" t="n"/>
-      <c r="AI545" s="3" t="n"/>
-      <c r="AJ545" s="3" t="n"/>
-      <c r="AK545" s="3" t="n"/>
-      <c r="AL545" s="3" t="n"/>
-      <c r="AM545" s="3" t="n"/>
-      <c r="AN545" s="3" t="n"/>
-      <c r="AO545" s="3" t="n"/>
-      <c r="AP545" s="3" t="n"/>
-      <c r="AQ545" s="3" t="n"/>
-      <c r="AR545" s="3" t="n"/>
-      <c r="AS545" s="3" t="n"/>
-      <c r="AT545" s="3" t="n"/>
-      <c r="AU545" s="3" t="n"/>
-    </row>
-    <row r="546" ht="13.2" customHeight="1">
-      <c r="A546" s="3" t="n"/>
-      <c r="B546" s="3" t="n"/>
-      <c r="C546" s="3" t="n"/>
-      <c r="D546" s="3" t="n"/>
-      <c r="E546" s="3" t="n"/>
-      <c r="F546" s="3" t="n"/>
-      <c r="G546" s="3" t="n"/>
-      <c r="H546" s="3" t="n"/>
-      <c r="I546" s="3" t="n"/>
-      <c r="J546" s="3" t="n"/>
-      <c r="K546" s="3" t="n"/>
-      <c r="L546" s="3" t="n"/>
-      <c r="M546" s="3" t="n"/>
-      <c r="N546" s="3" t="n"/>
-      <c r="O546" s="3" t="n"/>
-      <c r="P546" s="3" t="n"/>
-      <c r="Q546" s="3" t="n"/>
-      <c r="R546" s="3" t="n"/>
-      <c r="S546" s="3" t="n"/>
-      <c r="T546" s="3" t="n"/>
-      <c r="U546" s="3" t="n"/>
-      <c r="V546" s="3" t="n"/>
-      <c r="W546" s="3" t="n"/>
-      <c r="X546" s="3" t="n"/>
-      <c r="Y546" s="3" t="n"/>
-      <c r="Z546" s="3" t="n"/>
-      <c r="AA546" s="3" t="n"/>
-      <c r="AB546" s="3" t="n"/>
-      <c r="AC546" s="3" t="n"/>
-      <c r="AD546" s="3" t="n"/>
-      <c r="AE546" s="3" t="n"/>
-      <c r="AF546" s="3" t="n"/>
-      <c r="AG546" s="3" t="n"/>
-      <c r="AH546" s="3" t="n"/>
-      <c r="AI546" s="3" t="n"/>
-      <c r="AJ546" s="3" t="n"/>
-      <c r="AK546" s="3" t="n"/>
-      <c r="AL546" s="3" t="n"/>
-      <c r="AM546" s="3" t="n"/>
-      <c r="AN546" s="3" t="n"/>
-      <c r="AO546" s="3" t="n"/>
-      <c r="AP546" s="3" t="n"/>
-      <c r="AQ546" s="3" t="n"/>
-      <c r="AR546" s="3" t="n"/>
-      <c r="AS546" s="3" t="n"/>
-      <c r="AT546" s="3" t="n"/>
-      <c r="AU546" s="3" t="n"/>
-    </row>
+    <row r="538" ht="13.2" customHeight="1"/>
+    <row r="539" ht="13.2" customHeight="1"/>
+    <row r="540" ht="13.2" customHeight="1"/>
+    <row r="541" ht="13.2" customHeight="1"/>
+    <row r="542" ht="13.2" customHeight="1"/>
+    <row r="543" ht="13.2" customHeight="1"/>
+    <row r="544" ht="13.2" customHeight="1"/>
+    <row r="545" ht="13.2" customHeight="1"/>
+    <row r="546" ht="13.2" customHeight="1"/>
     <row r="547" ht="13.2" customHeight="1"/>
     <row r="548" ht="13.2" customHeight="1"/>
     <row r="549" ht="13.2" customHeight="1"/>

--- a/resourses/testdata/excel_file/Tracking_number.xlsx
+++ b/resourses/testdata/excel_file/Tracking_number.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU537"/>
+  <dimension ref="A1:AU531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18:Y241"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016831</t>
+          <t>SPBD241100016799</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016803</t>
+          <t>SPBD241100016801</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016805</t>
+          <t>SPBD241100016802</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016818</t>
+          <t>SPBD241100016804</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016819</t>
+          <t>SPBD241100016806</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016824</t>
+          <t>SPBD241100016810</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016799</t>
+          <t>SPBD241100016814</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016801</t>
+          <t>SPBD241100016820</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016802</t>
+          <t>SPBD241100016821</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016804</t>
+          <t>SPBD241100016829</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016806</t>
+          <t>SPBD241100016830</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016810</t>
+          <t>SPBD241100016832</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016814</t>
+          <t>SPBD241100016795</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016820</t>
+          <t>SPBD241100016798</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016821</t>
+          <t>SPBD241100016807</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016829</t>
+          <t>SPBD241100016813</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016830</t>
+          <t>SPBD241100016815</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016832</t>
+          <t>SPBD241100016817</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016795</t>
+          <t>SPBD241100016823</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016798</t>
+          <t>SPBD241100016825</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016807</t>
+          <t>SPBD241100016826</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016813</t>
+          <t>SPBD241100016827</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016815</t>
+          <t>SPBD241100016834</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -4150,12 +4150,12 @@
     <row r="26" ht="13.2" customHeight="1" thickBot="1">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016817</t>
+          <t>SPBD241100017224</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -4299,12 +4299,12 @@
     <row r="27" ht="13.2" customHeight="1" thickBot="1">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016823</t>
+          <t>SPBD241100017225</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -4448,12 +4448,12 @@
     <row r="28" ht="13.2" customHeight="1" thickBot="1">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016825</t>
+          <t>SPBD241100017236</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -4597,12 +4597,12 @@
     <row r="29" ht="13.2" customHeight="1" thickBot="1">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016826</t>
+          <t>SPBD241100017242</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -4746,12 +4746,12 @@
     <row r="30" ht="13.2" customHeight="1" thickBot="1">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016827</t>
+          <t>SPBD241100017245</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -4895,12 +4895,12 @@
     <row r="31" ht="13.2" customHeight="1" thickBot="1">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016834</t>
+          <t>SPBD241100017222</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017224</t>
+          <t>SPBD241100017228</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017225</t>
+          <t>SPBD241100017233</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017236</t>
+          <t>SPBD241100017237</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017242</t>
+          <t>SPBD241100017248</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017245</t>
+          <t>SPBD241100017215</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017222</t>
+          <t>SPBD241100017217</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017228</t>
+          <t>SPBD241100017218</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017233</t>
+          <t>SPBD241100017219</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017237</t>
+          <t>SPBD241100017226</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017248</t>
+          <t>SPBD241100017232</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017215</t>
+          <t>SPBD241100017235</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017217</t>
+          <t>SPBD241100017239</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017218</t>
+          <t>SPBD241100017246</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017219</t>
+          <t>SPBD241100017247</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -7135,7 +7135,7 @@
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017226</t>
+          <t>SPBD241100017249</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017232</t>
+          <t>SPBD241100017216</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017235</t>
+          <t>SPBD241100017223</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017239</t>
+          <t>SPBD241100017230</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017246</t>
+          <t>SPBD241100017238</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017247</t>
+          <t>SPBD241100017240</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017249</t>
+          <t>SPBD241100017220</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -8178,7 +8178,7 @@
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017216</t>
+          <t>SPBD241100017221</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -8327,7 +8327,7 @@
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017223</t>
+          <t>SPBD241100017227</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017230</t>
+          <t>SPBD241100017229</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -8625,7 +8625,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017238</t>
+          <t>SPBD241100017234</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -8774,7 +8774,7 @@
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017240</t>
+          <t>SPBD241100017241</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017220</t>
+          <t>SPBD241100017244</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -9072,7 +9072,7 @@
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017221</t>
+          <t>SPBD241100017252</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017227</t>
+          <t>SPBD241100017213</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -9370,7 +9370,7 @@
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017229</t>
+          <t>SPBD241100017214</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -9519,7 +9519,7 @@
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017234</t>
+          <t>SPBD241100017231</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -9668,7 +9668,7 @@
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017241</t>
+          <t>SPBD241100017243</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017244</t>
+          <t>SPBD241100017250</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -9966,7 +9966,7 @@
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017252</t>
+          <t>SPBD241100017251</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -10110,12 +10110,12 @@
     <row r="66" ht="13.2" customHeight="1" thickBot="1">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017213</t>
+          <t>SPBD241100019897</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -10259,12 +10259,12 @@
     <row r="67" ht="13.2" customHeight="1" thickBot="1">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017214</t>
+          <t>SPBD241100019899</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -10408,12 +10408,12 @@
     <row r="68" ht="13.2" customHeight="1" thickBot="1">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017231</t>
+          <t>SPBD241100019903</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -10557,12 +10557,12 @@
     <row r="69" ht="13.2" customHeight="1" thickBot="1">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017243</t>
+          <t>SPBD241100019916</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -10706,12 +10706,12 @@
     <row r="70" ht="13.2" customHeight="1" thickBot="1">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017250</t>
+          <t>SPBD241100019893</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -10855,12 +10855,12 @@
     <row r="71" ht="13.2" customHeight="1" thickBot="1">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017251</t>
+          <t>SPBD241100019895</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -11009,7 +11009,7 @@
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019897</t>
+          <t>SPBD241100019904</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -11158,7 +11158,7 @@
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019899</t>
+          <t>SPBD241100019910</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019903</t>
+          <t>SPBD241100019915</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019916</t>
+          <t>SPBD241100019919</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -11605,7 +11605,7 @@
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019893</t>
+          <t>SPBD241100019920</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -11754,7 +11754,7 @@
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019895</t>
+          <t>SPBD241100019923</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019904</t>
+          <t>SPBD241100019887</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -12052,7 +12052,7 @@
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019910</t>
+          <t>SPBD241100019888</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -12201,7 +12201,7 @@
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019915</t>
+          <t>SPBD241100019892</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019919</t>
+          <t>SPBD241100019900</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -12499,7 +12499,7 @@
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019920</t>
+          <t>SPBD241100019902</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -12648,7 +12648,7 @@
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019923</t>
+          <t>SPBD241100019905</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -12797,7 +12797,7 @@
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019887</t>
+          <t>SPBD241100019906</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -12946,7 +12946,7 @@
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019888</t>
+          <t>SPBD241100019908</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
@@ -13095,7 +13095,7 @@
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019892</t>
+          <t>SPBD241100019911</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -13244,7 +13244,7 @@
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019900</t>
+          <t>SPBD241100019921</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019902</t>
+          <t>SPBD241100019925</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -13542,7 +13542,7 @@
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019905</t>
+          <t>SPBD241100019886</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
@@ -13691,7 +13691,7 @@
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019906</t>
+          <t>SPBD241100019890</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -13840,7 +13840,7 @@
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019908</t>
+          <t>SPBD241100019894</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
@@ -13989,7 +13989,7 @@
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019911</t>
+          <t>SPBD241100019901</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -14138,7 +14138,7 @@
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019921</t>
+          <t>SPBD241100019907</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
@@ -14287,7 +14287,7 @@
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019925</t>
+          <t>SPBD241100019909</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019886</t>
+          <t>SPBD241100019913</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -14585,7 +14585,7 @@
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019890</t>
+          <t>SPBD241100019918</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -14734,7 +14734,7 @@
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019894</t>
+          <t>SPBD241100019924</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019901</t>
+          <t>SPBD241100019891</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -15032,7 +15032,7 @@
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019907</t>
+          <t>SPBD241100019912</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
@@ -15181,7 +15181,7 @@
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019909</t>
+          <t>SPBD241100019917</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -15330,7 +15330,7 @@
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019913</t>
+          <t>SPBD241100019889</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
@@ -15479,7 +15479,7 @@
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019918</t>
+          <t>SPBD241100019896</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019924</t>
+          <t>SPBD241100019898</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
@@ -15777,7 +15777,7 @@
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019891</t>
+          <t>SPBD241100019914</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019912</t>
+          <t>SPBD241100019922</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
@@ -16070,12 +16070,12 @@
     <row r="106" ht="13.2" customHeight="1" thickBot="1">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019917</t>
+          <t>SPBD241100020298</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -16219,12 +16219,12 @@
     <row r="107" ht="13.2" customHeight="1" thickBot="1">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019889</t>
+          <t>SPBD241100020303</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
@@ -16368,12 +16368,12 @@
     <row r="108" ht="13.2" customHeight="1" thickBot="1">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019896</t>
+          <t>SPBD241100020292</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -16517,12 +16517,12 @@
     <row r="109" ht="13.2" customHeight="1" thickBot="1">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019898</t>
+          <t>SPBD241100020297</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
@@ -16666,12 +16666,12 @@
     <row r="110" ht="13.2" customHeight="1" thickBot="1">
       <c r="A110" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019914</t>
+          <t>SPBD241100020299</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -16815,12 +16815,12 @@
     <row r="111" ht="13.2" customHeight="1" thickBot="1">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019922</t>
+          <t>SPBD241100020302</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
@@ -16969,7 +16969,7 @@
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020298</t>
+          <t>SPBD241100020304</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -17118,7 +17118,7 @@
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020303</t>
+          <t>SPBD241100020309</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
@@ -17267,7 +17267,7 @@
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020292</t>
+          <t>SPBD241100020278</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020297</t>
+          <t>SPBD241100020280</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -17565,7 +17565,7 @@
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020299</t>
+          <t>SPBD241100020286</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -17714,7 +17714,7 @@
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020302</t>
+          <t>SPBD241100020294</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
@@ -17863,7 +17863,7 @@
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020304</t>
+          <t>SPBD241100020301</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
@@ -18012,7 +18012,7 @@
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020309</t>
+          <t>SPBD241100020310</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
@@ -18161,7 +18161,7 @@
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020278</t>
+          <t>SPBD241100020311</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -18310,7 +18310,7 @@
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020280</t>
+          <t>SPBD241100020276</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
@@ -18459,7 +18459,7 @@
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020286</t>
+          <t>SPBD241100020285</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020294</t>
+          <t>SPBD241100020288</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
@@ -18757,7 +18757,7 @@
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020301</t>
+          <t>SPBD241100020290</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -18906,7 +18906,7 @@
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020310</t>
+          <t>SPBD241100020308</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
@@ -19055,7 +19055,7 @@
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020311</t>
+          <t>SPBD241100020312</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -19204,7 +19204,7 @@
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020276</t>
+          <t>SPBD241100020313</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
@@ -19353,7 +19353,7 @@
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020285</t>
+          <t>SPBD241100020314</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
@@ -19502,7 +19502,7 @@
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020288</t>
+          <t>SPBD241100020315</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
@@ -19651,7 +19651,7 @@
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020290</t>
+          <t>SPBD241100020277</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
@@ -19800,7 +19800,7 @@
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020308</t>
+          <t>SPBD241100020281</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
@@ -19949,7 +19949,7 @@
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020312</t>
+          <t>SPBD241100020284</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -20098,7 +20098,7 @@
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020313</t>
+          <t>SPBD241100020287</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
@@ -20247,7 +20247,7 @@
       </c>
       <c r="B134" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020314</t>
+          <t>SPBD241100020291</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -20396,7 +20396,7 @@
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020315</t>
+          <t>SPBD241100020296</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
@@ -20545,7 +20545,7 @@
       </c>
       <c r="B136" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020277</t>
+          <t>SPBD241100020279</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -20694,7 +20694,7 @@
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020281</t>
+          <t>SPBD241100020282</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
@@ -20843,7 +20843,7 @@
       </c>
       <c r="B138" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020284</t>
+          <t>SPBD241100020283</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -20992,7 +20992,7 @@
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020287</t>
+          <t>SPBD241100020289</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
@@ -21141,7 +21141,7 @@
       </c>
       <c r="B140" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020291</t>
+          <t>SPBD241100020293</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -21290,7 +21290,7 @@
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020296</t>
+          <t>SPBD241100020295</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
@@ -21439,7 +21439,7 @@
       </c>
       <c r="B142" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020279</t>
+          <t>SPBD241100020300</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -21588,7 +21588,7 @@
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020282</t>
+          <t>SPBD241100020305</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
@@ -21737,7 +21737,7 @@
       </c>
       <c r="B144" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020283</t>
+          <t>SPBD241100020306</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -21886,7 +21886,7 @@
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020289</t>
+          <t>SPBD241100020307</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
@@ -22030,12 +22030,12 @@
     <row r="146" ht="13.2" customHeight="1" thickBot="1">
       <c r="A146" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B146" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020293</t>
+          <t>SPBD241100021257</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -22179,12 +22179,12 @@
     <row r="147" ht="13.2" customHeight="1" thickBot="1">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020295</t>
+          <t>SPBD241100021258</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
@@ -22328,12 +22328,12 @@
     <row r="148" ht="13.2" customHeight="1" thickBot="1">
       <c r="A148" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B148" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020300</t>
+          <t>SPBD241100021262</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -22477,12 +22477,12 @@
     <row r="149" ht="13.2" customHeight="1" thickBot="1">
       <c r="A149" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020305</t>
+          <t>SPBD241100021267</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
@@ -22626,12 +22626,12 @@
     <row r="150" ht="13.2" customHeight="1" thickBot="1">
       <c r="A150" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B150" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020306</t>
+          <t>SPBD241100021280</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -22775,12 +22775,12 @@
     <row r="151" ht="13.2" customHeight="1" thickBot="1">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020307</t>
+          <t>SPBD241100021287</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
@@ -22929,7 +22929,7 @@
       </c>
       <c r="B152" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021257</t>
+          <t>SPBD241100021289</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -23078,7 +23078,7 @@
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021258</t>
+          <t>SPBD241100021260</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
@@ -23227,7 +23227,7 @@
       </c>
       <c r="B154" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021262</t>
+          <t>SPBD241100021261</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
@@ -23376,7 +23376,7 @@
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021267</t>
+          <t>SPBD241100021265</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
@@ -23525,7 +23525,7 @@
       </c>
       <c r="B156" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021280</t>
+          <t>SPBD241100021270</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
@@ -23674,7 +23674,7 @@
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021287</t>
+          <t>SPBD241100021272</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
@@ -23823,7 +23823,7 @@
       </c>
       <c r="B158" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021289</t>
+          <t>SPBD241100021273</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
@@ -23972,7 +23972,7 @@
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021260</t>
+          <t>SPBD241100021278</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
@@ -24121,7 +24121,7 @@
       </c>
       <c r="B160" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021261</t>
+          <t>SPBD241100021282</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
@@ -24270,7 +24270,7 @@
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021265</t>
+          <t>SPBD241100021290</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
@@ -24419,7 +24419,7 @@
       </c>
       <c r="B162" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021270</t>
+          <t>SPBD241100021291</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
@@ -24568,7 +24568,7 @@
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021272</t>
+          <t>SPBD241100021253</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
@@ -24717,7 +24717,7 @@
       </c>
       <c r="B164" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021273</t>
+          <t>SPBD241100021274</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
@@ -24866,7 +24866,7 @@
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021278</t>
+          <t>SPBD241100021276</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
@@ -25015,7 +25015,7 @@
       </c>
       <c r="B166" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021282</t>
+          <t>SPBD241100021277</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
@@ -25164,7 +25164,7 @@
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021290</t>
+          <t>SPBD241100021283</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
@@ -25313,7 +25313,7 @@
       </c>
       <c r="B168" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021291</t>
+          <t>SPBD241100021285</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
@@ -25462,7 +25462,7 @@
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021253</t>
+          <t>SPBD241100021286</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
@@ -25611,7 +25611,7 @@
       </c>
       <c r="B170" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021274</t>
+          <t>SPBD241100021288</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
@@ -25760,7 +25760,7 @@
       </c>
       <c r="B171" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021276</t>
+          <t>SPBD241100021255</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
@@ -25909,7 +25909,7 @@
       </c>
       <c r="B172" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021277</t>
+          <t>SPBD241100021264</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -26058,7 +26058,7 @@
       </c>
       <c r="B173" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021283</t>
+          <t>SPBD241100021266</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
@@ -26207,7 +26207,7 @@
       </c>
       <c r="B174" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021285</t>
+          <t>SPBD241100021269</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -26356,7 +26356,7 @@
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021286</t>
+          <t>SPBD241100021279</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
@@ -26505,7 +26505,7 @@
       </c>
       <c r="B176" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021288</t>
+          <t>SPBD241100021281</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
@@ -26654,7 +26654,7 @@
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021255</t>
+          <t>SPBD241100021252</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
@@ -26803,7 +26803,7 @@
       </c>
       <c r="B178" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021264</t>
+          <t>SPBD241100021254</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -26952,7 +26952,7 @@
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021266</t>
+          <t>SPBD241100021263</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
@@ -27101,7 +27101,7 @@
       </c>
       <c r="B180" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021269</t>
+          <t>SPBD241100021275</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -27250,7 +27250,7 @@
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021279</t>
+          <t>SPBD241100021256</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
@@ -27399,7 +27399,7 @@
       </c>
       <c r="B182" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021281</t>
+          <t>SPBD241100021259</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
@@ -27548,7 +27548,7 @@
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021252</t>
+          <t>SPBD241100021268</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
@@ -27697,7 +27697,7 @@
       </c>
       <c r="B184" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021254</t>
+          <t>SPBD241100021271</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
@@ -27846,7 +27846,7 @@
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021263</t>
+          <t>SPBD241100021284</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
@@ -27990,12 +27990,12 @@
     <row r="186" ht="13.2" customHeight="1" thickBot="1">
       <c r="A186" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B186" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021275</t>
+          <t>SPBD241100021782</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -28139,12 +28139,12 @@
     <row r="187" ht="13.2" customHeight="1" thickBot="1">
       <c r="A187" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B187" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021256</t>
+          <t>SPBD241100021784</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
@@ -28288,12 +28288,12 @@
     <row r="188" ht="13.2" customHeight="1" thickBot="1">
       <c r="A188" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B188" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021259</t>
+          <t>SPBD241100021809</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
@@ -28437,12 +28437,12 @@
     <row r="189" ht="13.2" customHeight="1" thickBot="1">
       <c r="A189" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B189" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021268</t>
+          <t>SPBD241100021814</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
@@ -28586,12 +28586,12 @@
     <row r="190" ht="13.2" customHeight="1" thickBot="1">
       <c r="A190" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B190" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021271</t>
+          <t>SPBD241100021786</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
@@ -28735,12 +28735,12 @@
     <row r="191" ht="13.2" customHeight="1" thickBot="1">
       <c r="A191" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021284</t>
+          <t>SPBD241100021787</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
@@ -28889,7 +28889,7 @@
       </c>
       <c r="B192" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021782</t>
+          <t>SPBD241100021791</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
@@ -29038,7 +29038,7 @@
       </c>
       <c r="B193" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021784</t>
+          <t>SPBD241100021793</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
@@ -29187,7 +29187,7 @@
       </c>
       <c r="B194" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021809</t>
+          <t>SPBD241100021796</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
@@ -29336,7 +29336,7 @@
       </c>
       <c r="B195" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021814</t>
+          <t>SPBD241100021797</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
@@ -29485,7 +29485,7 @@
       </c>
       <c r="B196" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021786</t>
+          <t>SPBD241100021800</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
@@ -29634,7 +29634,7 @@
       </c>
       <c r="B197" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021787</t>
+          <t>SPBD241100021802</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
@@ -29783,7 +29783,7 @@
       </c>
       <c r="B198" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021791</t>
+          <t>SPBD241100021806</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
@@ -29932,7 +29932,7 @@
       </c>
       <c r="B199" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021793</t>
+          <t>SPBD241100021808</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
@@ -30081,7 +30081,7 @@
       </c>
       <c r="B200" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021796</t>
+          <t>SPBD241100021810</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
@@ -30230,7 +30230,7 @@
       </c>
       <c r="B201" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021797</t>
+          <t>SPBD241100021813</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
@@ -30379,7 +30379,7 @@
       </c>
       <c r="B202" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021800</t>
+          <t>SPBD241100021816</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
@@ -30528,7 +30528,7 @@
       </c>
       <c r="B203" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021802</t>
+          <t>SPBD241100021788</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
@@ -30677,7 +30677,7 @@
       </c>
       <c r="B204" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021806</t>
+          <t>SPBD241100021789</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
@@ -30826,7 +30826,7 @@
       </c>
       <c r="B205" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021808</t>
+          <t>SPBD241100021790</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
@@ -30975,7 +30975,7 @@
       </c>
       <c r="B206" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021810</t>
+          <t>SPBD241100021795</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
@@ -31124,7 +31124,7 @@
       </c>
       <c r="B207" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021813</t>
+          <t>SPBD241100021805</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
@@ -31273,7 +31273,7 @@
       </c>
       <c r="B208" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021816</t>
+          <t>SPBD241100021817</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
@@ -31422,7 +31422,7 @@
       </c>
       <c r="B209" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021788</t>
+          <t>SPBD241100021783</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
@@ -31571,7 +31571,7 @@
       </c>
       <c r="B210" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021789</t>
+          <t>SPBD241100021785</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
@@ -31720,7 +31720,7 @@
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021790</t>
+          <t>SPBD241100021799</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
@@ -31869,7 +31869,7 @@
       </c>
       <c r="B212" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021795</t>
+          <t>SPBD241100021801</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
@@ -32018,7 +32018,7 @@
       </c>
       <c r="B213" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021805</t>
+          <t>SPBD241100021803</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
@@ -32167,7 +32167,7 @@
       </c>
       <c r="B214" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021817</t>
+          <t>SPBD241100021804</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
@@ -32316,7 +32316,7 @@
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021783</t>
+          <t>SPBD241100021812</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
@@ -32465,7 +32465,7 @@
       </c>
       <c r="B216" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021785</t>
+          <t>SPBD241100021781</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
@@ -32614,7 +32614,7 @@
       </c>
       <c r="B217" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021799</t>
+          <t>SPBD241100021792</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
@@ -32763,7 +32763,7 @@
       </c>
       <c r="B218" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021801</t>
+          <t>SPBD241100021794</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
@@ -32912,7 +32912,7 @@
       </c>
       <c r="B219" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021803</t>
+          <t>SPBD241100021807</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
@@ -33061,7 +33061,7 @@
       </c>
       <c r="B220" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021804</t>
+          <t>SPBD241100021815</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
@@ -33210,7 +33210,7 @@
       </c>
       <c r="B221" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021812</t>
+          <t>SPBD241100021818</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
@@ -33359,7 +33359,7 @@
       </c>
       <c r="B222" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021781</t>
+          <t>SPBD241100021780</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
@@ -33508,7 +33508,7 @@
       </c>
       <c r="B223" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021792</t>
+          <t>SPBD241100021798</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr">
@@ -33657,7 +33657,7 @@
       </c>
       <c r="B224" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021794</t>
+          <t>SPBD241100021811</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
@@ -33799,131 +33799,31 @@
       <c r="AU224" s="3" t="n"/>
     </row>
     <row r="225" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A225" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B225" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021807</t>
-        </is>
-      </c>
-      <c r="C225" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D225" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E225" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F225" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G225" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H225" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I225" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J225" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K225" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L225" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M225" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N225" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O225" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P225" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q225" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R225" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S225" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T225" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U225" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V225" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W225" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X225" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y225" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A225" s="3" t="n"/>
+      <c r="B225" s="3" t="n"/>
+      <c r="C225" s="3" t="n"/>
+      <c r="D225" s="3" t="n"/>
+      <c r="E225" s="3" t="n"/>
+      <c r="F225" s="3" t="n"/>
+      <c r="G225" s="3" t="n"/>
+      <c r="H225" s="3" t="n"/>
+      <c r="I225" s="3" t="n"/>
+      <c r="J225" s="3" t="n"/>
+      <c r="K225" s="3" t="n"/>
+      <c r="L225" s="3" t="n"/>
+      <c r="M225" s="3" t="n"/>
+      <c r="N225" s="3" t="n"/>
+      <c r="O225" s="3" t="n"/>
+      <c r="P225" s="3" t="n"/>
+      <c r="Q225" s="3" t="n"/>
+      <c r="R225" s="3" t="n"/>
+      <c r="S225" s="3" t="n"/>
+      <c r="T225" s="3" t="n"/>
+      <c r="U225" s="3" t="n"/>
+      <c r="V225" s="3" t="n"/>
+      <c r="W225" s="3" t="n"/>
+      <c r="X225" s="3" t="n"/>
+      <c r="Y225" s="3" t="n"/>
       <c r="Z225" s="3" t="n"/>
       <c r="AA225" s="3" t="n"/>
       <c r="AB225" s="3" t="n"/>
@@ -33948,131 +33848,31 @@
       <c r="AU225" s="3" t="n"/>
     </row>
     <row r="226" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A226" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B226" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021815</t>
-        </is>
-      </c>
-      <c r="C226" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D226" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E226" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F226" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G226" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H226" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I226" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J226" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K226" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L226" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M226" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N226" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O226" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P226" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q226" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R226" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S226" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T226" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U226" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V226" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W226" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X226" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y226" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A226" s="3" t="n"/>
+      <c r="B226" s="3" t="n"/>
+      <c r="C226" s="3" t="n"/>
+      <c r="D226" s="3" t="n"/>
+      <c r="E226" s="3" t="n"/>
+      <c r="F226" s="3" t="n"/>
+      <c r="G226" s="3" t="n"/>
+      <c r="H226" s="3" t="n"/>
+      <c r="I226" s="3" t="n"/>
+      <c r="J226" s="3" t="n"/>
+      <c r="K226" s="3" t="n"/>
+      <c r="L226" s="3" t="n"/>
+      <c r="M226" s="3" t="n"/>
+      <c r="N226" s="3" t="n"/>
+      <c r="O226" s="3" t="n"/>
+      <c r="P226" s="3" t="n"/>
+      <c r="Q226" s="3" t="n"/>
+      <c r="R226" s="3" t="n"/>
+      <c r="S226" s="3" t="n"/>
+      <c r="T226" s="3" t="n"/>
+      <c r="U226" s="3" t="n"/>
+      <c r="V226" s="3" t="n"/>
+      <c r="W226" s="3" t="n"/>
+      <c r="X226" s="3" t="n"/>
+      <c r="Y226" s="3" t="n"/>
       <c r="Z226" s="3" t="n"/>
       <c r="AA226" s="3" t="n"/>
       <c r="AB226" s="3" t="n"/>
@@ -34097,131 +33897,31 @@
       <c r="AU226" s="3" t="n"/>
     </row>
     <row r="227" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A227" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B227" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021818</t>
-        </is>
-      </c>
-      <c r="C227" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D227" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E227" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F227" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G227" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H227" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I227" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J227" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K227" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L227" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M227" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N227" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O227" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P227" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q227" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R227" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S227" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T227" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U227" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V227" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W227" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X227" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y227" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A227" s="3" t="n"/>
+      <c r="B227" s="3" t="n"/>
+      <c r="C227" s="3" t="n"/>
+      <c r="D227" s="3" t="n"/>
+      <c r="E227" s="3" t="n"/>
+      <c r="F227" s="3" t="n"/>
+      <c r="G227" s="3" t="n"/>
+      <c r="H227" s="3" t="n"/>
+      <c r="I227" s="3" t="n"/>
+      <c r="J227" s="3" t="n"/>
+      <c r="K227" s="3" t="n"/>
+      <c r="L227" s="3" t="n"/>
+      <c r="M227" s="3" t="n"/>
+      <c r="N227" s="3" t="n"/>
+      <c r="O227" s="3" t="n"/>
+      <c r="P227" s="3" t="n"/>
+      <c r="Q227" s="3" t="n"/>
+      <c r="R227" s="3" t="n"/>
+      <c r="S227" s="3" t="n"/>
+      <c r="T227" s="3" t="n"/>
+      <c r="U227" s="3" t="n"/>
+      <c r="V227" s="3" t="n"/>
+      <c r="W227" s="3" t="n"/>
+      <c r="X227" s="3" t="n"/>
+      <c r="Y227" s="3" t="n"/>
       <c r="Z227" s="3" t="n"/>
       <c r="AA227" s="3" t="n"/>
       <c r="AB227" s="3" t="n"/>
@@ -34246,131 +33946,31 @@
       <c r="AU227" s="3" t="n"/>
     </row>
     <row r="228" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A228" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B228" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021780</t>
-        </is>
-      </c>
-      <c r="C228" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D228" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E228" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F228" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G228" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H228" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I228" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J228" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K228" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L228" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M228" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N228" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O228" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P228" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q228" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R228" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S228" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T228" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U228" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V228" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W228" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X228" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y228" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A228" s="3" t="n"/>
+      <c r="B228" s="3" t="n"/>
+      <c r="C228" s="3" t="n"/>
+      <c r="D228" s="3" t="n"/>
+      <c r="E228" s="3" t="n"/>
+      <c r="F228" s="3" t="n"/>
+      <c r="G228" s="3" t="n"/>
+      <c r="H228" s="3" t="n"/>
+      <c r="I228" s="3" t="n"/>
+      <c r="J228" s="3" t="n"/>
+      <c r="K228" s="3" t="n"/>
+      <c r="L228" s="3" t="n"/>
+      <c r="M228" s="3" t="n"/>
+      <c r="N228" s="3" t="n"/>
+      <c r="O228" s="3" t="n"/>
+      <c r="P228" s="3" t="n"/>
+      <c r="Q228" s="3" t="n"/>
+      <c r="R228" s="3" t="n"/>
+      <c r="S228" s="3" t="n"/>
+      <c r="T228" s="3" t="n"/>
+      <c r="U228" s="3" t="n"/>
+      <c r="V228" s="3" t="n"/>
+      <c r="W228" s="3" t="n"/>
+      <c r="X228" s="3" t="n"/>
+      <c r="Y228" s="3" t="n"/>
       <c r="Z228" s="3" t="n"/>
       <c r="AA228" s="3" t="n"/>
       <c r="AB228" s="3" t="n"/>
@@ -34395,131 +33995,31 @@
       <c r="AU228" s="3" t="n"/>
     </row>
     <row r="229" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A229" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B229" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021798</t>
-        </is>
-      </c>
-      <c r="C229" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D229" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E229" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F229" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G229" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H229" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I229" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J229" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K229" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L229" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M229" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N229" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O229" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P229" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q229" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R229" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S229" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T229" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U229" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V229" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W229" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X229" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y229" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A229" s="3" t="n"/>
+      <c r="B229" s="3" t="n"/>
+      <c r="C229" s="3" t="n"/>
+      <c r="D229" s="3" t="n"/>
+      <c r="E229" s="3" t="n"/>
+      <c r="F229" s="3" t="n"/>
+      <c r="G229" s="3" t="n"/>
+      <c r="H229" s="3" t="n"/>
+      <c r="I229" s="3" t="n"/>
+      <c r="J229" s="3" t="n"/>
+      <c r="K229" s="3" t="n"/>
+      <c r="L229" s="3" t="n"/>
+      <c r="M229" s="3" t="n"/>
+      <c r="N229" s="3" t="n"/>
+      <c r="O229" s="3" t="n"/>
+      <c r="P229" s="3" t="n"/>
+      <c r="Q229" s="3" t="n"/>
+      <c r="R229" s="3" t="n"/>
+      <c r="S229" s="3" t="n"/>
+      <c r="T229" s="3" t="n"/>
+      <c r="U229" s="3" t="n"/>
+      <c r="V229" s="3" t="n"/>
+      <c r="W229" s="3" t="n"/>
+      <c r="X229" s="3" t="n"/>
+      <c r="Y229" s="3" t="n"/>
       <c r="Z229" s="3" t="n"/>
       <c r="AA229" s="3" t="n"/>
       <c r="AB229" s="3" t="n"/>
@@ -34544,131 +34044,31 @@
       <c r="AU229" s="3" t="n"/>
     </row>
     <row r="230" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A230" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B230" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021811</t>
-        </is>
-      </c>
-      <c r="C230" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D230" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E230" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F230" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G230" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H230" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I230" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J230" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K230" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L230" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M230" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N230" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O230" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P230" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q230" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R230" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S230" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T230" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U230" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V230" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W230" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X230" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y230" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A230" s="3" t="n"/>
+      <c r="B230" s="3" t="n"/>
+      <c r="C230" s="3" t="n"/>
+      <c r="D230" s="3" t="n"/>
+      <c r="E230" s="3" t="n"/>
+      <c r="F230" s="3" t="n"/>
+      <c r="G230" s="3" t="n"/>
+      <c r="H230" s="3" t="n"/>
+      <c r="I230" s="3" t="n"/>
+      <c r="J230" s="3" t="n"/>
+      <c r="K230" s="3" t="n"/>
+      <c r="L230" s="3" t="n"/>
+      <c r="M230" s="3" t="n"/>
+      <c r="N230" s="3" t="n"/>
+      <c r="O230" s="3" t="n"/>
+      <c r="P230" s="3" t="n"/>
+      <c r="Q230" s="3" t="n"/>
+      <c r="R230" s="3" t="n"/>
+      <c r="S230" s="3" t="n"/>
+      <c r="T230" s="3" t="n"/>
+      <c r="U230" s="3" t="n"/>
+      <c r="V230" s="3" t="n"/>
+      <c r="W230" s="3" t="n"/>
+      <c r="X230" s="3" t="n"/>
+      <c r="Y230" s="3" t="n"/>
       <c r="Z230" s="3" t="n"/>
       <c r="AA230" s="3" t="n"/>
       <c r="AB230" s="3" t="n"/>
@@ -49441,300 +48841,12 @@
       <c r="AT531" s="3" t="n"/>
       <c r="AU531" s="3" t="n"/>
     </row>
-    <row r="532" ht="13.2" customHeight="1">
-      <c r="A532" s="3" t="n"/>
-      <c r="B532" s="3" t="n"/>
-      <c r="C532" s="3" t="n"/>
-      <c r="D532" s="3" t="n"/>
-      <c r="E532" s="3" t="n"/>
-      <c r="F532" s="3" t="n"/>
-      <c r="G532" s="3" t="n"/>
-      <c r="H532" s="3" t="n"/>
-      <c r="I532" s="3" t="n"/>
-      <c r="J532" s="3" t="n"/>
-      <c r="K532" s="3" t="n"/>
-      <c r="L532" s="3" t="n"/>
-      <c r="M532" s="3" t="n"/>
-      <c r="N532" s="3" t="n"/>
-      <c r="O532" s="3" t="n"/>
-      <c r="P532" s="3" t="n"/>
-      <c r="Q532" s="3" t="n"/>
-      <c r="R532" s="3" t="n"/>
-      <c r="S532" s="3" t="n"/>
-      <c r="T532" s="3" t="n"/>
-      <c r="U532" s="3" t="n"/>
-      <c r="V532" s="3" t="n"/>
-      <c r="W532" s="3" t="n"/>
-      <c r="X532" s="3" t="n"/>
-      <c r="Y532" s="3" t="n"/>
-      <c r="Z532" s="3" t="n"/>
-      <c r="AA532" s="3" t="n"/>
-      <c r="AB532" s="3" t="n"/>
-      <c r="AC532" s="3" t="n"/>
-      <c r="AD532" s="3" t="n"/>
-      <c r="AE532" s="3" t="n"/>
-      <c r="AF532" s="3" t="n"/>
-      <c r="AG532" s="3" t="n"/>
-      <c r="AH532" s="3" t="n"/>
-      <c r="AI532" s="3" t="n"/>
-      <c r="AJ532" s="3" t="n"/>
-      <c r="AK532" s="3" t="n"/>
-      <c r="AL532" s="3" t="n"/>
-      <c r="AM532" s="3" t="n"/>
-      <c r="AN532" s="3" t="n"/>
-      <c r="AO532" s="3" t="n"/>
-      <c r="AP532" s="3" t="n"/>
-      <c r="AQ532" s="3" t="n"/>
-      <c r="AR532" s="3" t="n"/>
-      <c r="AS532" s="3" t="n"/>
-      <c r="AT532" s="3" t="n"/>
-      <c r="AU532" s="3" t="n"/>
-    </row>
-    <row r="533" ht="13.2" customHeight="1">
-      <c r="A533" s="3" t="n"/>
-      <c r="B533" s="3" t="n"/>
-      <c r="C533" s="3" t="n"/>
-      <c r="D533" s="3" t="n"/>
-      <c r="E533" s="3" t="n"/>
-      <c r="F533" s="3" t="n"/>
-      <c r="G533" s="3" t="n"/>
-      <c r="H533" s="3" t="n"/>
-      <c r="I533" s="3" t="n"/>
-      <c r="J533" s="3" t="n"/>
-      <c r="K533" s="3" t="n"/>
-      <c r="L533" s="3" t="n"/>
-      <c r="M533" s="3" t="n"/>
-      <c r="N533" s="3" t="n"/>
-      <c r="O533" s="3" t="n"/>
-      <c r="P533" s="3" t="n"/>
-      <c r="Q533" s="3" t="n"/>
-      <c r="R533" s="3" t="n"/>
-      <c r="S533" s="3" t="n"/>
-      <c r="T533" s="3" t="n"/>
-      <c r="U533" s="3" t="n"/>
-      <c r="V533" s="3" t="n"/>
-      <c r="W533" s="3" t="n"/>
-      <c r="X533" s="3" t="n"/>
-      <c r="Y533" s="3" t="n"/>
-      <c r="Z533" s="3" t="n"/>
-      <c r="AA533" s="3" t="n"/>
-      <c r="AB533" s="3" t="n"/>
-      <c r="AC533" s="3" t="n"/>
-      <c r="AD533" s="3" t="n"/>
-      <c r="AE533" s="3" t="n"/>
-      <c r="AF533" s="3" t="n"/>
-      <c r="AG533" s="3" t="n"/>
-      <c r="AH533" s="3" t="n"/>
-      <c r="AI533" s="3" t="n"/>
-      <c r="AJ533" s="3" t="n"/>
-      <c r="AK533" s="3" t="n"/>
-      <c r="AL533" s="3" t="n"/>
-      <c r="AM533" s="3" t="n"/>
-      <c r="AN533" s="3" t="n"/>
-      <c r="AO533" s="3" t="n"/>
-      <c r="AP533" s="3" t="n"/>
-      <c r="AQ533" s="3" t="n"/>
-      <c r="AR533" s="3" t="n"/>
-      <c r="AS533" s="3" t="n"/>
-      <c r="AT533" s="3" t="n"/>
-      <c r="AU533" s="3" t="n"/>
-    </row>
-    <row r="534" ht="13.2" customHeight="1">
-      <c r="A534" s="3" t="n"/>
-      <c r="B534" s="3" t="n"/>
-      <c r="C534" s="3" t="n"/>
-      <c r="D534" s="3" t="n"/>
-      <c r="E534" s="3" t="n"/>
-      <c r="F534" s="3" t="n"/>
-      <c r="G534" s="3" t="n"/>
-      <c r="H534" s="3" t="n"/>
-      <c r="I534" s="3" t="n"/>
-      <c r="J534" s="3" t="n"/>
-      <c r="K534" s="3" t="n"/>
-      <c r="L534" s="3" t="n"/>
-      <c r="M534" s="3" t="n"/>
-      <c r="N534" s="3" t="n"/>
-      <c r="O534" s="3" t="n"/>
-      <c r="P534" s="3" t="n"/>
-      <c r="Q534" s="3" t="n"/>
-      <c r="R534" s="3" t="n"/>
-      <c r="S534" s="3" t="n"/>
-      <c r="T534" s="3" t="n"/>
-      <c r="U534" s="3" t="n"/>
-      <c r="V534" s="3" t="n"/>
-      <c r="W534" s="3" t="n"/>
-      <c r="X534" s="3" t="n"/>
-      <c r="Y534" s="3" t="n"/>
-      <c r="Z534" s="3" t="n"/>
-      <c r="AA534" s="3" t="n"/>
-      <c r="AB534" s="3" t="n"/>
-      <c r="AC534" s="3" t="n"/>
-      <c r="AD534" s="3" t="n"/>
-      <c r="AE534" s="3" t="n"/>
-      <c r="AF534" s="3" t="n"/>
-      <c r="AG534" s="3" t="n"/>
-      <c r="AH534" s="3" t="n"/>
-      <c r="AI534" s="3" t="n"/>
-      <c r="AJ534" s="3" t="n"/>
-      <c r="AK534" s="3" t="n"/>
-      <c r="AL534" s="3" t="n"/>
-      <c r="AM534" s="3" t="n"/>
-      <c r="AN534" s="3" t="n"/>
-      <c r="AO534" s="3" t="n"/>
-      <c r="AP534" s="3" t="n"/>
-      <c r="AQ534" s="3" t="n"/>
-      <c r="AR534" s="3" t="n"/>
-      <c r="AS534" s="3" t="n"/>
-      <c r="AT534" s="3" t="n"/>
-      <c r="AU534" s="3" t="n"/>
-    </row>
-    <row r="535" ht="13.2" customHeight="1">
-      <c r="A535" s="3" t="n"/>
-      <c r="B535" s="3" t="n"/>
-      <c r="C535" s="3" t="n"/>
-      <c r="D535" s="3" t="n"/>
-      <c r="E535" s="3" t="n"/>
-      <c r="F535" s="3" t="n"/>
-      <c r="G535" s="3" t="n"/>
-      <c r="H535" s="3" t="n"/>
-      <c r="I535" s="3" t="n"/>
-      <c r="J535" s="3" t="n"/>
-      <c r="K535" s="3" t="n"/>
-      <c r="L535" s="3" t="n"/>
-      <c r="M535" s="3" t="n"/>
-      <c r="N535" s="3" t="n"/>
-      <c r="O535" s="3" t="n"/>
-      <c r="P535" s="3" t="n"/>
-      <c r="Q535" s="3" t="n"/>
-      <c r="R535" s="3" t="n"/>
-      <c r="S535" s="3" t="n"/>
-      <c r="T535" s="3" t="n"/>
-      <c r="U535" s="3" t="n"/>
-      <c r="V535" s="3" t="n"/>
-      <c r="W535" s="3" t="n"/>
-      <c r="X535" s="3" t="n"/>
-      <c r="Y535" s="3" t="n"/>
-      <c r="Z535" s="3" t="n"/>
-      <c r="AA535" s="3" t="n"/>
-      <c r="AB535" s="3" t="n"/>
-      <c r="AC535" s="3" t="n"/>
-      <c r="AD535" s="3" t="n"/>
-      <c r="AE535" s="3" t="n"/>
-      <c r="AF535" s="3" t="n"/>
-      <c r="AG535" s="3" t="n"/>
-      <c r="AH535" s="3" t="n"/>
-      <c r="AI535" s="3" t="n"/>
-      <c r="AJ535" s="3" t="n"/>
-      <c r="AK535" s="3" t="n"/>
-      <c r="AL535" s="3" t="n"/>
-      <c r="AM535" s="3" t="n"/>
-      <c r="AN535" s="3" t="n"/>
-      <c r="AO535" s="3" t="n"/>
-      <c r="AP535" s="3" t="n"/>
-      <c r="AQ535" s="3" t="n"/>
-      <c r="AR535" s="3" t="n"/>
-      <c r="AS535" s="3" t="n"/>
-      <c r="AT535" s="3" t="n"/>
-      <c r="AU535" s="3" t="n"/>
-    </row>
-    <row r="536" ht="13.2" customHeight="1">
-      <c r="A536" s="3" t="n"/>
-      <c r="B536" s="3" t="n"/>
-      <c r="C536" s="3" t="n"/>
-      <c r="D536" s="3" t="n"/>
-      <c r="E536" s="3" t="n"/>
-      <c r="F536" s="3" t="n"/>
-      <c r="G536" s="3" t="n"/>
-      <c r="H536" s="3" t="n"/>
-      <c r="I536" s="3" t="n"/>
-      <c r="J536" s="3" t="n"/>
-      <c r="K536" s="3" t="n"/>
-      <c r="L536" s="3" t="n"/>
-      <c r="M536" s="3" t="n"/>
-      <c r="N536" s="3" t="n"/>
-      <c r="O536" s="3" t="n"/>
-      <c r="P536" s="3" t="n"/>
-      <c r="Q536" s="3" t="n"/>
-      <c r="R536" s="3" t="n"/>
-      <c r="S536" s="3" t="n"/>
-      <c r="T536" s="3" t="n"/>
-      <c r="U536" s="3" t="n"/>
-      <c r="V536" s="3" t="n"/>
-      <c r="W536" s="3" t="n"/>
-      <c r="X536" s="3" t="n"/>
-      <c r="Y536" s="3" t="n"/>
-      <c r="Z536" s="3" t="n"/>
-      <c r="AA536" s="3" t="n"/>
-      <c r="AB536" s="3" t="n"/>
-      <c r="AC536" s="3" t="n"/>
-      <c r="AD536" s="3" t="n"/>
-      <c r="AE536" s="3" t="n"/>
-      <c r="AF536" s="3" t="n"/>
-      <c r="AG536" s="3" t="n"/>
-      <c r="AH536" s="3" t="n"/>
-      <c r="AI536" s="3" t="n"/>
-      <c r="AJ536" s="3" t="n"/>
-      <c r="AK536" s="3" t="n"/>
-      <c r="AL536" s="3" t="n"/>
-      <c r="AM536" s="3" t="n"/>
-      <c r="AN536" s="3" t="n"/>
-      <c r="AO536" s="3" t="n"/>
-      <c r="AP536" s="3" t="n"/>
-      <c r="AQ536" s="3" t="n"/>
-      <c r="AR536" s="3" t="n"/>
-      <c r="AS536" s="3" t="n"/>
-      <c r="AT536" s="3" t="n"/>
-      <c r="AU536" s="3" t="n"/>
-    </row>
-    <row r="537" ht="13.2" customHeight="1">
-      <c r="A537" s="3" t="n"/>
-      <c r="B537" s="3" t="n"/>
-      <c r="C537" s="3" t="n"/>
-      <c r="D537" s="3" t="n"/>
-      <c r="E537" s="3" t="n"/>
-      <c r="F537" s="3" t="n"/>
-      <c r="G537" s="3" t="n"/>
-      <c r="H537" s="3" t="n"/>
-      <c r="I537" s="3" t="n"/>
-      <c r="J537" s="3" t="n"/>
-      <c r="K537" s="3" t="n"/>
-      <c r="L537" s="3" t="n"/>
-      <c r="M537" s="3" t="n"/>
-      <c r="N537" s="3" t="n"/>
-      <c r="O537" s="3" t="n"/>
-      <c r="P537" s="3" t="n"/>
-      <c r="Q537" s="3" t="n"/>
-      <c r="R537" s="3" t="n"/>
-      <c r="S537" s="3" t="n"/>
-      <c r="T537" s="3" t="n"/>
-      <c r="U537" s="3" t="n"/>
-      <c r="V537" s="3" t="n"/>
-      <c r="W537" s="3" t="n"/>
-      <c r="X537" s="3" t="n"/>
-      <c r="Y537" s="3" t="n"/>
-      <c r="Z537" s="3" t="n"/>
-      <c r="AA537" s="3" t="n"/>
-      <c r="AB537" s="3" t="n"/>
-      <c r="AC537" s="3" t="n"/>
-      <c r="AD537" s="3" t="n"/>
-      <c r="AE537" s="3" t="n"/>
-      <c r="AF537" s="3" t="n"/>
-      <c r="AG537" s="3" t="n"/>
-      <c r="AH537" s="3" t="n"/>
-      <c r="AI537" s="3" t="n"/>
-      <c r="AJ537" s="3" t="n"/>
-      <c r="AK537" s="3" t="n"/>
-      <c r="AL537" s="3" t="n"/>
-      <c r="AM537" s="3" t="n"/>
-      <c r="AN537" s="3" t="n"/>
-      <c r="AO537" s="3" t="n"/>
-      <c r="AP537" s="3" t="n"/>
-      <c r="AQ537" s="3" t="n"/>
-      <c r="AR537" s="3" t="n"/>
-      <c r="AS537" s="3" t="n"/>
-      <c r="AT537" s="3" t="n"/>
-      <c r="AU537" s="3" t="n"/>
-    </row>
+    <row r="532" ht="13.2" customHeight="1"/>
+    <row r="533" ht="13.2" customHeight="1"/>
+    <row r="534" ht="13.2" customHeight="1"/>
+    <row r="535" ht="13.2" customHeight="1"/>
+    <row r="536" ht="13.2" customHeight="1"/>
+    <row r="537" ht="13.2" customHeight="1"/>
     <row r="538" ht="13.2" customHeight="1"/>
     <row r="539" ht="13.2" customHeight="1"/>
     <row r="540" ht="13.2" customHeight="1"/>
@@ -49790,7 +48902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU240"/>
+  <dimension ref="A1:AU238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
@@ -49959,7 +49071,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016860</t>
+          <t>SPCD241100016848</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -50086,7 +49198,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016882</t>
+          <t>SPCD241100016849</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -50213,7 +49325,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016848</t>
+          <t>SPCD241100016861</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -50340,7 +49452,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016849</t>
+          <t>SPCD241100016868</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -50467,7 +49579,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016861</t>
+          <t>SPCD241100016877</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -50594,7 +49706,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016868</t>
+          <t>SPCD241100016880</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -50721,7 +49833,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016877</t>
+          <t>SPCD241100016847</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -50848,7 +49960,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016880</t>
+          <t>SPCD241100016850</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -50975,7 +50087,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016847</t>
+          <t>SPCD241100016851</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -51102,7 +50214,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016850</t>
+          <t>SPCD241100016854</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -51229,7 +50341,7 @@
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016851</t>
+          <t>SPCD241100016863</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -51356,7 +50468,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016854</t>
+          <t>SPCD241100016872</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -51483,7 +50595,7 @@
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016863</t>
+          <t>SPCD241100016881</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -51610,7 +50722,7 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016872</t>
+          <t>SPCD241100016885</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -51737,7 +50849,7 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016881</t>
+          <t>SPCD241100016853</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -51864,7 +50976,7 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016885</t>
+          <t>SPCD241100016856</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -51991,7 +51103,7 @@
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016853</t>
+          <t>SPCD241100016857</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -52118,7 +51230,7 @@
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016856</t>
+          <t>SPCD241100016865</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -52245,7 +51357,7 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016857</t>
+          <t>SPCD241100016867</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -52372,7 +51484,7 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016865</t>
+          <t>SPCD241100016869</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -52499,7 +51611,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016867</t>
+          <t>SPCD241100016870</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -52626,7 +51738,7 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016869</t>
+          <t>SPCD241100016871</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -52753,7 +51865,7 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016870</t>
+          <t>SPCD241100016876</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -52880,7 +51992,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016871</t>
+          <t>SPCD241100016878</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -53007,7 +52119,7 @@
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016876</t>
+          <t>SPCD241100016883</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -53134,7 +52246,7 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016878</t>
+          <t>SPCD241100016884</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -53261,7 +52373,7 @@
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016883</t>
+          <t>SPCD241100016855</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -53388,7 +52500,7 @@
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016884</t>
+          <t>SPCD241100016858</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -53515,7 +52627,7 @@
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016855</t>
+          <t>SPCD241100016859</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -53642,7 +52754,7 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016858</t>
+          <t>SPCD241100016862</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -53769,7 +52881,7 @@
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016859</t>
+          <t>SPCD241100016864</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -53896,7 +53008,7 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016862</t>
+          <t>SPCD241100016866</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -54023,7 +53135,7 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016864</t>
+          <t>SPCD241100016873</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -54150,7 +53262,7 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016866</t>
+          <t>SPCD241100016879</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -54277,7 +53389,7 @@
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016873</t>
+          <t>SPCD241100016846</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -54404,7 +53516,7 @@
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016879</t>
+          <t>SPCD241100016874</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -54531,7 +53643,7 @@
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016846</t>
+          <t>SPCD241100016875</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -54653,12 +53765,12 @@
     <row r="39" ht="66.59999999999999" customHeight="1" thickBot="1">
       <c r="A39" s="10" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016874</t>
+          <t>SPCD241100017172</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -54780,12 +53892,12 @@
     <row r="40" ht="66.59999999999999" customHeight="1" thickBot="1">
       <c r="A40" s="10" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100016875</t>
+          <t>SPCD241100017173</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -54912,7 +54024,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017172</t>
+          <t>SPCD241100017180</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -55039,7 +54151,7 @@
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017173</t>
+          <t>SPCD241100017186</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -55166,7 +54278,7 @@
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017180</t>
+          <t>SPCD241100017192</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -55293,7 +54405,7 @@
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017186</t>
+          <t>SPCD241100017207</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -55420,7 +54532,7 @@
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017192</t>
+          <t>SPCD241100017177</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -55547,7 +54659,7 @@
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017207</t>
+          <t>SPCD241100017188</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -55674,7 +54786,7 @@
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017177</t>
+          <t>SPCD241100017194</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -55801,7 +54913,7 @@
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017188</t>
+          <t>SPCD241100017195</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -55928,7 +55040,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017194</t>
+          <t>SPCD241100017198</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -56055,7 +55167,7 @@
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017195</t>
+          <t>SPCD241100017206</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -56182,7 +55294,7 @@
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017198</t>
+          <t>SPCD241100017209</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -56309,7 +55421,7 @@
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017206</t>
+          <t>SPCD241100017174</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -56436,7 +55548,7 @@
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017209</t>
+          <t>SPCD241100017175</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -56563,7 +55675,7 @@
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017174</t>
+          <t>SPCD241100017176</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -56690,7 +55802,7 @@
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017175</t>
+          <t>SPCD241100017179</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -56817,7 +55929,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017176</t>
+          <t>SPCD241100017189</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -56944,7 +56056,7 @@
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017179</t>
+          <t>SPCD241100017193</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -57071,7 +56183,7 @@
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017189</t>
+          <t>SPCD241100017197</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -57198,7 +56310,7 @@
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017193</t>
+          <t>SPCD241100017201</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -57325,7 +56437,7 @@
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017197</t>
+          <t>SPCD241100017204</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -57452,7 +56564,7 @@
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017201</t>
+          <t>SPCD241100017178</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -57579,7 +56691,7 @@
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017204</t>
+          <t>SPCD241100017181</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -57706,7 +56818,7 @@
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017178</t>
+          <t>SPCD241100017182</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -57833,7 +56945,7 @@
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017181</t>
+          <t>SPCD241100017185</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -57960,7 +57072,7 @@
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017182</t>
+          <t>SPCD241100017187</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -58087,7 +57199,7 @@
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017185</t>
+          <t>SPCD241100017191</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -58214,7 +57326,7 @@
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017187</t>
+          <t>SPCD241100017210</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -58341,7 +57453,7 @@
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017191</t>
+          <t>SPCD241100017199</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -58468,7 +57580,7 @@
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017210</t>
+          <t>SPCD241100017202</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -58595,7 +57707,7 @@
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017199</t>
+          <t>SPCD241100017205</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -58722,7 +57834,7 @@
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017202</t>
+          <t>SPCD241100017208</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -58849,7 +57961,7 @@
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017205</t>
+          <t>SPCD241100017183</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -58976,7 +58088,7 @@
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017208</t>
+          <t>SPCD241100017184</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -59103,7 +58215,7 @@
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017183</t>
+          <t>SPCD241100017190</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -59230,7 +58342,7 @@
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017184</t>
+          <t>SPCD241100017196</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -59357,7 +58469,7 @@
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017190</t>
+          <t>SPCD241100017200</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -59484,7 +58596,7 @@
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017196</t>
+          <t>SPCD241100017203</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -59611,7 +58723,7 @@
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017200</t>
+          <t>SPCD241100017211</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -59733,12 +58845,12 @@
     <row r="79" ht="66.59999999999999" customHeight="1" thickBot="1">
       <c r="A79" s="10" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017203</t>
+          <t>SPCD241100019940</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -59860,12 +58972,12 @@
     <row r="80" ht="66.59999999999999" customHeight="1" thickBot="1">
       <c r="A80" s="10" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100017211</t>
+          <t>SPCD241100019942</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -59992,7 +59104,7 @@
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019940</t>
+          <t>SPCD241100019949</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -60119,7 +59231,7 @@
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019942</t>
+          <t>SPCD241100019950</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -60246,7 +59358,7 @@
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019949</t>
+          <t>SPCD241100019927</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -60373,7 +59485,7 @@
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019950</t>
+          <t>SPCD241100019934</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -60500,7 +59612,7 @@
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019927</t>
+          <t>SPCD241100019935</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
@@ -60627,7 +59739,7 @@
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019934</t>
+          <t>SPCD241100019936</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -60754,7 +59866,7 @@
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019935</t>
+          <t>SPCD241100019937</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
@@ -60881,7 +59993,7 @@
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019936</t>
+          <t>SPCD241100019938</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -61008,7 +60120,7 @@
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019937</t>
+          <t>SPCD241100019941</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
@@ -61135,7 +60247,7 @@
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019938</t>
+          <t>SPCD241100019943</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -61262,7 +60374,7 @@
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019941</t>
+          <t>SPCD241100019944</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
@@ -61389,7 +60501,7 @@
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019943</t>
+          <t>SPCD241100019952</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -61516,7 +60628,7 @@
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019944</t>
+          <t>SPCD241100019954</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
@@ -61643,7 +60755,7 @@
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019952</t>
+          <t>SPCD241100019958</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -61770,7 +60882,7 @@
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019954</t>
+          <t>SPCD241100019959</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -61897,7 +61009,7 @@
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019958</t>
+          <t>SPCD241100019961</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -62024,7 +61136,7 @@
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019959</t>
+          <t>SPCD241100019963</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -62151,7 +61263,7 @@
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019961</t>
+          <t>SPCD241100019929</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -62278,7 +61390,7 @@
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019963</t>
+          <t>SPCD241100019939</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
@@ -62405,7 +61517,7 @@
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019929</t>
+          <t>SPCD241100019951</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -62532,7 +61644,7 @@
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019939</t>
+          <t>SPCD241100019953</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
@@ -62659,7 +61771,7 @@
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019951</t>
+          <t>SPCD241100019930</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -62786,7 +61898,7 @@
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019953</t>
+          <t>SPCD241100019931</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
@@ -62913,7 +62025,7 @@
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019930</t>
+          <t>SPCD241100019933</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
@@ -63040,7 +62152,7 @@
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019931</t>
+          <t>SPCD241100019946</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
@@ -63167,7 +62279,7 @@
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019933</t>
+          <t>SPCD241100019956</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -63294,7 +62406,7 @@
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019946</t>
+          <t>SPCD241100019926</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
@@ -63421,7 +62533,7 @@
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019956</t>
+          <t>SPCD241100019945</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -63548,7 +62660,7 @@
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019926</t>
+          <t>SPCD241100019947</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
@@ -63675,7 +62787,7 @@
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019945</t>
+          <t>SPCD241100019957</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -63802,7 +62914,7 @@
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019947</t>
+          <t>SPCD241100019960</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
@@ -63929,7 +63041,7 @@
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019957</t>
+          <t>SPCD241100019928</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -64056,7 +63168,7 @@
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019960</t>
+          <t>SPCD241100019932</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
@@ -64183,7 +63295,7 @@
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019928</t>
+          <t>SPCD241100019948</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -64310,7 +63422,7 @@
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019932</t>
+          <t>SPCD241100019955</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -64437,7 +63549,7 @@
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019948</t>
+          <t>SPCD241100019962</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -64564,7 +63676,7 @@
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019955</t>
+          <t>SPCD241100019964</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
@@ -64691,7 +63803,7 @@
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019962</t>
+          <t>SPCD241100019965</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
@@ -64813,12 +63925,12 @@
     <row r="119" ht="66.59999999999999" customHeight="1" thickBot="1">
       <c r="A119" s="10" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019964</t>
+          <t>SPCD241100020316</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
@@ -64940,12 +64052,12 @@
     <row r="120" ht="66.59999999999999" customHeight="1" thickBot="1">
       <c r="A120" s="10" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100019965</t>
+          <t>SPCD241100020322</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -65072,7 +64184,7 @@
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020316</t>
+          <t>SPCD241100020334</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
@@ -65199,7 +64311,7 @@
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020322</t>
+          <t>SPCD241100020317</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -65326,7 +64438,7 @@
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020334</t>
+          <t>SPCD241100020319</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
@@ -65453,7 +64565,7 @@
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020317</t>
+          <t>SPCD241100020321</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -65580,7 +64692,7 @@
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020319</t>
+          <t>SPCD241100020330</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
@@ -65707,7 +64819,7 @@
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020321</t>
+          <t>SPCD241100020332</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -65834,7 +64946,7 @@
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020330</t>
+          <t>SPCD241100020336</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
@@ -65961,7 +65073,7 @@
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020332</t>
+          <t>SPCD241100020318</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
@@ -66088,7 +65200,7 @@
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020336</t>
+          <t>SPCD241100020324</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
@@ -66215,7 +65327,7 @@
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020318</t>
+          <t>SPCD241100020325</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
@@ -66342,7 +65454,7 @@
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020324</t>
+          <t>SPCD241100020331</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
@@ -66469,7 +65581,7 @@
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020325</t>
+          <t>SPCD241100020333</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -66596,7 +65708,7 @@
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020331</t>
+          <t>SPCD241100020337</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
@@ -66723,7 +65835,7 @@
       </c>
       <c r="B134" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020333</t>
+          <t>SPCD241100020341</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -66850,7 +65962,7 @@
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020337</t>
+          <t>SPCD241100020320</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
@@ -66977,7 +66089,7 @@
       </c>
       <c r="B136" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020341</t>
+          <t>SPCD241100020326</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -67104,7 +66216,7 @@
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020320</t>
+          <t>SPCD241100020327</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
@@ -67231,7 +66343,7 @@
       </c>
       <c r="B138" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020326</t>
+          <t>SPCD241100020344</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -67358,7 +66470,7 @@
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020327</t>
+          <t>SPCD241100020345</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
@@ -67485,7 +66597,7 @@
       </c>
       <c r="B140" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020344</t>
+          <t>SPCD241100020355</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -67612,7 +66724,7 @@
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020345</t>
+          <t>SPCD241100020328</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
@@ -67739,7 +66851,7 @@
       </c>
       <c r="B142" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020355</t>
+          <t>SPCD241100020329</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -67866,7 +66978,7 @@
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020328</t>
+          <t>SPCD241100020338</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
@@ -67993,7 +67105,7 @@
       </c>
       <c r="B144" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020329</t>
+          <t>SPCD241100020339</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -68120,7 +67232,7 @@
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020338</t>
+          <t>SPCD241100020342</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
@@ -68247,7 +67359,7 @@
       </c>
       <c r="B146" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020339</t>
+          <t>SPCD241100020346</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -68374,7 +67486,7 @@
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020342</t>
+          <t>SPCD241100020350</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
@@ -68501,7 +67613,7 @@
       </c>
       <c r="B148" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020346</t>
+          <t>SPCD241100020351</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -68628,7 +67740,7 @@
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020350</t>
+          <t>SPCD241100020352</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
@@ -68755,7 +67867,7 @@
       </c>
       <c r="B150" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020351</t>
+          <t>SPCD241100020354</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -68882,7 +67994,7 @@
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020352</t>
+          <t>SPCD241100020323</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
@@ -69009,7 +68121,7 @@
       </c>
       <c r="B152" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020354</t>
+          <t>SPCD241100020335</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -69136,7 +68248,7 @@
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020323</t>
+          <t>SPCD241100020340</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
@@ -69263,7 +68375,7 @@
       </c>
       <c r="B154" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020335</t>
+          <t>SPCD241100020343</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
@@ -69390,7 +68502,7 @@
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020340</t>
+          <t>SPCD241100020347</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
@@ -69517,7 +68629,7 @@
       </c>
       <c r="B156" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020343</t>
+          <t>SPCD241100020348</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
@@ -69644,7 +68756,7 @@
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020347</t>
+          <t>SPCD241100020349</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
@@ -69771,7 +68883,7 @@
       </c>
       <c r="B158" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020348</t>
+          <t>SPCD241100020353</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
@@ -69893,12 +69005,12 @@
     <row r="159" ht="66.59999999999999" customHeight="1" thickBot="1">
       <c r="A159" s="10" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020349</t>
+          <t>SPCD241100021292</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
@@ -70020,12 +69132,12 @@
     <row r="160" ht="66.59999999999999" customHeight="1" thickBot="1">
       <c r="A160" s="10" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B160" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100020353</t>
+          <t>SPCD241100021309</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
@@ -70152,7 +69264,7 @@
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021292</t>
+          <t>SPCD241100021314</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
@@ -70279,7 +69391,7 @@
       </c>
       <c r="B162" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021309</t>
+          <t>SPCD241100021322</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
@@ -70406,7 +69518,7 @@
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021314</t>
+          <t>SPCD241100021330</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
@@ -70533,7 +69645,7 @@
       </c>
       <c r="B164" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021322</t>
+          <t>SPCD241100021293</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
@@ -70660,7 +69772,7 @@
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021330</t>
+          <t>SPCD241100021305</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
@@ -70787,7 +69899,7 @@
       </c>
       <c r="B166" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021293</t>
+          <t>SPCD241100021308</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
@@ -70914,7 +70026,7 @@
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021305</t>
+          <t>SPCD241100021313</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
@@ -71041,7 +70153,7 @@
       </c>
       <c r="B168" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021308</t>
+          <t>SPCD241100021318</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
@@ -71168,7 +70280,7 @@
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021313</t>
+          <t>SPCD241100021326</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
@@ -71295,7 +70407,7 @@
       </c>
       <c r="B170" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021318</t>
+          <t>SPCD241100021327</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
@@ -71422,7 +70534,7 @@
       </c>
       <c r="B171" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021326</t>
+          <t>SPCD241100021328</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
@@ -71549,7 +70661,7 @@
       </c>
       <c r="B172" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021327</t>
+          <t>SPCD241100021295</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -71676,7 +70788,7 @@
       </c>
       <c r="B173" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021328</t>
+          <t>SPCD241100021297</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
@@ -71803,7 +70915,7 @@
       </c>
       <c r="B174" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021295</t>
+          <t>SPCD241100021303</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -71930,7 +71042,7 @@
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021297</t>
+          <t>SPCD241100021307</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
@@ -72057,7 +71169,7 @@
       </c>
       <c r="B176" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021303</t>
+          <t>SPCD241100021316</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
@@ -72184,7 +71296,7 @@
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021307</t>
+          <t>SPCD241100021317</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
@@ -72311,7 +71423,7 @@
       </c>
       <c r="B178" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021316</t>
+          <t>SPCD241100021319</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -72438,7 +71550,7 @@
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021317</t>
+          <t>SPCD241100021324</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
@@ -72565,7 +71677,7 @@
       </c>
       <c r="B180" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021319</t>
+          <t>SPCD241100021296</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -72692,7 +71804,7 @@
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021324</t>
+          <t>SPCD241100021298</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
@@ -72819,7 +71931,7 @@
       </c>
       <c r="B182" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021296</t>
+          <t>SPCD241100021302</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
@@ -72946,7 +72058,7 @@
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021298</t>
+          <t>SPCD241100021304</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
@@ -73073,7 +72185,7 @@
       </c>
       <c r="B184" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021302</t>
+          <t>SPCD241100021323</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
@@ -73200,7 +72312,7 @@
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021304</t>
+          <t>SPCD241100021329</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
@@ -73327,7 +72439,7 @@
       </c>
       <c r="B186" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021323</t>
+          <t>SPCD241100021331</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -73454,7 +72566,7 @@
       </c>
       <c r="B187" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021329</t>
+          <t>SPCD241100021294</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
@@ -73581,7 +72693,7 @@
       </c>
       <c r="B188" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021331</t>
+          <t>SPCD241100021299</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
@@ -73708,7 +72820,7 @@
       </c>
       <c r="B189" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021294</t>
+          <t>SPCD241100021300</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
@@ -73835,7 +72947,7 @@
       </c>
       <c r="B190" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021299</t>
+          <t>SPCD241100021301</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
@@ -73962,7 +73074,7 @@
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021300</t>
+          <t>SPCD241100021315</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
@@ -74089,7 +73201,7 @@
       </c>
       <c r="B192" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021301</t>
+          <t>SPCD241100021321</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
@@ -74216,7 +73328,7 @@
       </c>
       <c r="B193" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021315</t>
+          <t>SPCD241100021325</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
@@ -74343,7 +73455,7 @@
       </c>
       <c r="B194" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021321</t>
+          <t>SPCD241100021306</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
@@ -74470,7 +73582,7 @@
       </c>
       <c r="B195" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021325</t>
+          <t>SPCD241100021310</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
@@ -74597,7 +73709,7 @@
       </c>
       <c r="B196" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021306</t>
+          <t>SPCD241100021311</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
@@ -74724,7 +73836,7 @@
       </c>
       <c r="B197" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021310</t>
+          <t>SPCD241100021312</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
@@ -74851,7 +73963,7 @@
       </c>
       <c r="B198" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021311</t>
+          <t>SPCD241100021320</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
@@ -74973,12 +74085,12 @@
     <row r="199" ht="66.59999999999999" customHeight="1" thickBot="1">
       <c r="A199" s="10" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B199" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021312</t>
+          <t>SPCD241100021843</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
@@ -75100,12 +74212,12 @@
     <row r="200" ht="66.59999999999999" customHeight="1" thickBot="1">
       <c r="A200" s="10" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B200" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021320</t>
+          <t>SPCD241100021860</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
@@ -75232,7 +74344,7 @@
       </c>
       <c r="B201" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021843</t>
+          <t>SPCD241100021826</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
@@ -75359,7 +74471,7 @@
       </c>
       <c r="B202" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021860</t>
+          <t>SPCD241100021839</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
@@ -75486,7 +74598,7 @@
       </c>
       <c r="B203" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021826</t>
+          <t>SPCD241100021841</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
@@ -75613,7 +74725,7 @@
       </c>
       <c r="B204" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021839</t>
+          <t>SPCD241100021838</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
@@ -75740,7 +74852,7 @@
       </c>
       <c r="B205" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021841</t>
+          <t>SPCD241100021844</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
@@ -75867,7 +74979,7 @@
       </c>
       <c r="B206" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021838</t>
+          <t>SPCD241100021847</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
@@ -75994,7 +75106,7 @@
       </c>
       <c r="B207" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021844</t>
+          <t>SPCD241100021848</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
@@ -76121,7 +75233,7 @@
       </c>
       <c r="B208" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021847</t>
+          <t>SPCD241100021851</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
@@ -76248,7 +75360,7 @@
       </c>
       <c r="B209" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021848</t>
+          <t>SPCD241100021854</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
@@ -76375,7 +75487,7 @@
       </c>
       <c r="B210" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021851</t>
+          <t>SPCD241100021833</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
@@ -76502,7 +75614,7 @@
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021854</t>
+          <t>SPCD241100021836</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
@@ -76629,7 +75741,7 @@
       </c>
       <c r="B212" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021833</t>
+          <t>SPCD241100021837</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
@@ -76756,7 +75868,7 @@
       </c>
       <c r="B213" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021836</t>
+          <t>SPCD241100021821</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
@@ -76883,7 +75995,7 @@
       </c>
       <c r="B214" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021837</t>
+          <t>SPCD241100021845</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
@@ -77010,7 +76122,7 @@
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021821</t>
+          <t>SPCD241100021846</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
@@ -77137,7 +76249,7 @@
       </c>
       <c r="B216" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021845</t>
+          <t>SPCD241100021850</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
@@ -77264,7 +76376,7 @@
       </c>
       <c r="B217" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021846</t>
+          <t>SPCD241100021859</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
@@ -77391,7 +76503,7 @@
       </c>
       <c r="B218" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021850</t>
+          <t>SPCD241100021822</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
@@ -77518,7 +76630,7 @@
       </c>
       <c r="B219" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021859</t>
+          <t>SPCD241100021823</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
@@ -77645,7 +76757,7 @@
       </c>
       <c r="B220" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021822</t>
+          <t>SPCD241100021829</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
@@ -77772,7 +76884,7 @@
       </c>
       <c r="B221" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021823</t>
+          <t>SPCD241100021830</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
@@ -77899,7 +77011,7 @@
       </c>
       <c r="B222" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021829</t>
+          <t>SPCD241100021831</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
@@ -78026,7 +77138,7 @@
       </c>
       <c r="B223" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021830</t>
+          <t>SPCD241100021852</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr">
@@ -78153,7 +77265,7 @@
       </c>
       <c r="B224" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021831</t>
+          <t>SPCD241100021857</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
@@ -78280,7 +77392,7 @@
       </c>
       <c r="B225" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021852</t>
+          <t>SPCD241100021824</t>
         </is>
       </c>
       <c r="C225" s="3" t="inlineStr">
@@ -78407,7 +77519,7 @@
       </c>
       <c r="B226" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021857</t>
+          <t>SPCD241100021835</t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr">
@@ -78534,7 +77646,7 @@
       </c>
       <c r="B227" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021824</t>
+          <t>SPCD241100021849</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr">
@@ -78661,7 +77773,7 @@
       </c>
       <c r="B228" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021835</t>
+          <t>SPCD241100021853</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
@@ -78788,7 +77900,7 @@
       </c>
       <c r="B229" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021849</t>
+          <t>SPCD241100021855</t>
         </is>
       </c>
       <c r="C229" s="3" t="inlineStr">
@@ -78915,7 +78027,7 @@
       </c>
       <c r="B230" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021853</t>
+          <t>SPCD241100021825</t>
         </is>
       </c>
       <c r="C230" s="3" t="inlineStr">
@@ -79042,7 +78154,7 @@
       </c>
       <c r="B231" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021855</t>
+          <t>SPCD241100021827</t>
         </is>
       </c>
       <c r="C231" s="3" t="inlineStr">
@@ -79169,7 +78281,7 @@
       </c>
       <c r="B232" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021825</t>
+          <t>SPCD241100021828</t>
         </is>
       </c>
       <c r="C232" s="3" t="inlineStr">
@@ -79296,7 +78408,7 @@
       </c>
       <c r="B233" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021827</t>
+          <t>SPCD241100021832</t>
         </is>
       </c>
       <c r="C233" s="3" t="inlineStr">
@@ -79423,7 +78535,7 @@
       </c>
       <c r="B234" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021828</t>
+          <t>SPCD241100021834</t>
         </is>
       </c>
       <c r="C234" s="3" t="inlineStr">
@@ -79550,7 +78662,7 @@
       </c>
       <c r="B235" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021832</t>
+          <t>SPCD241100021840</t>
         </is>
       </c>
       <c r="C235" s="3" t="inlineStr">
@@ -79677,7 +78789,7 @@
       </c>
       <c r="B236" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021834</t>
+          <t>SPCD241100021842</t>
         </is>
       </c>
       <c r="C236" s="3" t="inlineStr">
@@ -79804,7 +78916,7 @@
       </c>
       <c r="B237" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021840</t>
+          <t>SPCD241100021856</t>
         </is>
       </c>
       <c r="C237" s="3" t="inlineStr">
@@ -79931,7 +79043,7 @@
       </c>
       <c r="B238" s="4" t="inlineStr">
         <is>
-          <t>SPCD241100021842</t>
+          <t>SPCD241100021858</t>
         </is>
       </c>
       <c r="C238" s="3" t="inlineStr">
@@ -80050,260 +79162,8 @@
         </is>
       </c>
     </row>
-    <row r="239" ht="66.59999999999999" customHeight="1" thickBot="1">
-      <c r="A239" s="10" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B239" s="4" t="inlineStr">
-        <is>
-          <t>SPCD241100021856</t>
-        </is>
-      </c>
-      <c r="C239" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a (0633906216)</t>
-        </is>
-      </c>
-      <c r="D239" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E239" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F239" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G239" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H239" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I239" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J239" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K239" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L239" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M239" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N239" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O239" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P239" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q239" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R239" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S239" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T239" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U239" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V239" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W239" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X239" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y239" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-    </row>
-    <row r="240" ht="66.59999999999999" customHeight="1" thickBot="1">
-      <c r="A240" s="10" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B240" s="4" t="inlineStr">
-        <is>
-          <t>SPCD241100021858</t>
-        </is>
-      </c>
-      <c r="C240" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a (0633906216)</t>
-        </is>
-      </c>
-      <c r="D240" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E240" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F240" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G240" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H240" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I240" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J240" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K240" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L240" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M240" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N240" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O240" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P240" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q240" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R240" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S240" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T240" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U240" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V240" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W240" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X240" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y240" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-    </row>
+    <row r="239" ht="66.59999999999999" customHeight="1" thickBot="1"/>
+    <row r="240" ht="66.59999999999999" customHeight="1" thickBot="1"/>
     <row r="241" ht="66.59999999999999" customHeight="1" thickBot="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resourses/testdata/excel_file/Tracking_number.xlsx
+++ b/resourses/testdata/excel_file/Tracking_number.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU531"/>
+  <dimension ref="A1:AU528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18:Y241"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016799</t>
+          <t>SPBD241100016804</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016801</t>
+          <t>SPBD241100016806</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016802</t>
+          <t>SPBD241100016810</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016804</t>
+          <t>SPBD241100016814</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016806</t>
+          <t>SPBD241100016820</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016810</t>
+          <t>SPBD241100016821</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016814</t>
+          <t>SPBD241100016829</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016820</t>
+          <t>SPBD241100016830</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016821</t>
+          <t>SPBD241100016832</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016829</t>
+          <t>SPBD241100016795</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016830</t>
+          <t>SPBD241100016798</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016832</t>
+          <t>SPBD241100016807</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016795</t>
+          <t>SPBD241100016813</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016798</t>
+          <t>SPBD241100016815</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016807</t>
+          <t>SPBD241100016817</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016813</t>
+          <t>SPBD241100016823</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016815</t>
+          <t>SPBD241100016825</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016817</t>
+          <t>SPBD241100016826</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016823</t>
+          <t>SPBD241100016827</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016825</t>
+          <t>SPBD241100016834</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -3703,12 +3703,12 @@
     <row r="23" ht="13.2" customHeight="1" thickBot="1">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016826</t>
+          <t>SPBD241100017224</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -3852,12 +3852,12 @@
     <row r="24" ht="13.2" customHeight="1" thickBot="1">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016827</t>
+          <t>SPBD241100017225</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -4001,12 +4001,12 @@
     <row r="25" ht="13.2" customHeight="1" thickBot="1">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016834</t>
+          <t>SPBD241100017236</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017224</t>
+          <t>SPBD241100017242</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017225</t>
+          <t>SPBD241100017245</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017236</t>
+          <t>SPBD241100017222</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017242</t>
+          <t>SPBD241100017228</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017245</t>
+          <t>SPBD241100017233</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017222</t>
+          <t>SPBD241100017237</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017228</t>
+          <t>SPBD241100017248</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017233</t>
+          <t>SPBD241100017215</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017237</t>
+          <t>SPBD241100017217</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017248</t>
+          <t>SPBD241100017218</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017215</t>
+          <t>SPBD241100017219</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017217</t>
+          <t>SPBD241100017226</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017218</t>
+          <t>SPBD241100017232</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017219</t>
+          <t>SPBD241100017235</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017226</t>
+          <t>SPBD241100017239</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017232</t>
+          <t>SPBD241100017246</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017235</t>
+          <t>SPBD241100017247</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017239</t>
+          <t>SPBD241100017249</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017246</t>
+          <t>SPBD241100017216</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017247</t>
+          <t>SPBD241100017223</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -7135,7 +7135,7 @@
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017249</t>
+          <t>SPBD241100017230</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017216</t>
+          <t>SPBD241100017238</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017223</t>
+          <t>SPBD241100017240</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017230</t>
+          <t>SPBD241100017220</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017238</t>
+          <t>SPBD241100017221</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017240</t>
+          <t>SPBD241100017227</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017220</t>
+          <t>SPBD241100017229</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -8178,7 +8178,7 @@
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017221</t>
+          <t>SPBD241100017234</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -8327,7 +8327,7 @@
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017227</t>
+          <t>SPBD241100017241</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017229</t>
+          <t>SPBD241100017244</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -8625,7 +8625,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017234</t>
+          <t>SPBD241100017252</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -8774,7 +8774,7 @@
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017241</t>
+          <t>SPBD241100017213</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017244</t>
+          <t>SPBD241100017214</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -9072,7 +9072,7 @@
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017252</t>
+          <t>SPBD241100017231</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017213</t>
+          <t>SPBD241100017243</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -9370,7 +9370,7 @@
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017214</t>
+          <t>SPBD241100017250</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -9519,7 +9519,7 @@
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017231</t>
+          <t>SPBD241100017251</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -9663,12 +9663,12 @@
     <row r="63" ht="13.2" customHeight="1" thickBot="1">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017243</t>
+          <t>SPBD241100019897</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -9812,12 +9812,12 @@
     <row r="64" ht="13.2" customHeight="1" thickBot="1">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017250</t>
+          <t>SPBD241100019899</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -9961,12 +9961,12 @@
     <row r="65" ht="13.2" customHeight="1" thickBot="1">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017251</t>
+          <t>SPBD241100019903</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019897</t>
+          <t>SPBD241100019916</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019899</t>
+          <t>SPBD241100019893</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -10413,7 +10413,7 @@
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019903</t>
+          <t>SPBD241100019895</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -10562,7 +10562,7 @@
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019916</t>
+          <t>SPBD241100019904</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019893</t>
+          <t>SPBD241100019910</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -10860,7 +10860,7 @@
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019895</t>
+          <t>SPBD241100019915</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -11009,7 +11009,7 @@
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019904</t>
+          <t>SPBD241100019919</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -11158,7 +11158,7 @@
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019910</t>
+          <t>SPBD241100019920</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019915</t>
+          <t>SPBD241100019923</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019919</t>
+          <t>SPBD241100019887</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -11605,7 +11605,7 @@
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019920</t>
+          <t>SPBD241100019888</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -11754,7 +11754,7 @@
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019923</t>
+          <t>SPBD241100019892</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019887</t>
+          <t>SPBD241100019900</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -12052,7 +12052,7 @@
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019888</t>
+          <t>SPBD241100019902</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -12201,7 +12201,7 @@
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019892</t>
+          <t>SPBD241100019905</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019900</t>
+          <t>SPBD241100019906</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -12499,7 +12499,7 @@
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019902</t>
+          <t>SPBD241100019908</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -12648,7 +12648,7 @@
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019905</t>
+          <t>SPBD241100019911</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -12797,7 +12797,7 @@
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019906</t>
+          <t>SPBD241100019921</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -12946,7 +12946,7 @@
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019908</t>
+          <t>SPBD241100019925</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
@@ -13095,7 +13095,7 @@
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019911</t>
+          <t>SPBD241100019886</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -13244,7 +13244,7 @@
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019921</t>
+          <t>SPBD241100019890</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019925</t>
+          <t>SPBD241100019894</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -13542,7 +13542,7 @@
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019886</t>
+          <t>SPBD241100019901</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
@@ -13691,7 +13691,7 @@
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019890</t>
+          <t>SPBD241100019907</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -13840,7 +13840,7 @@
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019894</t>
+          <t>SPBD241100019909</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
@@ -13989,7 +13989,7 @@
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019901</t>
+          <t>SPBD241100019913</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -14138,7 +14138,7 @@
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019907</t>
+          <t>SPBD241100019918</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
@@ -14287,7 +14287,7 @@
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019909</t>
+          <t>SPBD241100019924</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019913</t>
+          <t>SPBD241100019891</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -14585,7 +14585,7 @@
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019918</t>
+          <t>SPBD241100019912</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -14734,7 +14734,7 @@
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019924</t>
+          <t>SPBD241100019917</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019891</t>
+          <t>SPBD241100019889</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -15032,7 +15032,7 @@
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019912</t>
+          <t>SPBD241100019896</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
@@ -15181,7 +15181,7 @@
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019917</t>
+          <t>SPBD241100019898</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -15330,7 +15330,7 @@
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019889</t>
+          <t>SPBD241100019914</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
@@ -15479,7 +15479,7 @@
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019896</t>
+          <t>SPBD241100019922</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -15623,12 +15623,12 @@
     <row r="103" ht="13.2" customHeight="1" thickBot="1">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019898</t>
+          <t>SPBD241100020298</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
@@ -15772,12 +15772,12 @@
     <row r="104" ht="13.2" customHeight="1" thickBot="1">
       <c r="A104" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019914</t>
+          <t>SPBD241100020303</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
@@ -15921,12 +15921,12 @@
     <row r="105" ht="13.2" customHeight="1" thickBot="1">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019922</t>
+          <t>SPBD241100020292</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
@@ -16075,7 +16075,7 @@
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020298</t>
+          <t>SPBD241100020297</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -16224,7 +16224,7 @@
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020303</t>
+          <t>SPBD241100020299</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020292</t>
+          <t>SPBD241100020302</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -16522,7 +16522,7 @@
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020297</t>
+          <t>SPBD241100020304</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
@@ -16671,7 +16671,7 @@
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020299</t>
+          <t>SPBD241100020309</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -16820,7 +16820,7 @@
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020302</t>
+          <t>SPBD241100020278</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
@@ -16969,7 +16969,7 @@
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020304</t>
+          <t>SPBD241100020280</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -17118,7 +17118,7 @@
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020309</t>
+          <t>SPBD241100020286</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
@@ -17267,7 +17267,7 @@
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020278</t>
+          <t>SPBD241100020294</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020280</t>
+          <t>SPBD241100020301</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -17565,7 +17565,7 @@
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020286</t>
+          <t>SPBD241100020310</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -17714,7 +17714,7 @@
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020294</t>
+          <t>SPBD241100020311</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
@@ -17863,7 +17863,7 @@
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020301</t>
+          <t>SPBD241100020276</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
@@ -18012,7 +18012,7 @@
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020310</t>
+          <t>SPBD241100020285</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
@@ -18161,7 +18161,7 @@
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020311</t>
+          <t>SPBD241100020288</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -18310,7 +18310,7 @@
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020276</t>
+          <t>SPBD241100020290</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
@@ -18459,7 +18459,7 @@
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020285</t>
+          <t>SPBD241100020308</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020288</t>
+          <t>SPBD241100020312</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
@@ -18757,7 +18757,7 @@
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020290</t>
+          <t>SPBD241100020313</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -18906,7 +18906,7 @@
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020308</t>
+          <t>SPBD241100020314</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
@@ -19055,7 +19055,7 @@
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020312</t>
+          <t>SPBD241100020315</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -19204,7 +19204,7 @@
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020313</t>
+          <t>SPBD241100020277</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
@@ -19353,7 +19353,7 @@
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020314</t>
+          <t>SPBD241100020281</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
@@ -19502,7 +19502,7 @@
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020315</t>
+          <t>SPBD241100020284</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
@@ -19651,7 +19651,7 @@
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020277</t>
+          <t>SPBD241100020287</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
@@ -19800,7 +19800,7 @@
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020281</t>
+          <t>SPBD241100020291</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
@@ -19949,7 +19949,7 @@
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020284</t>
+          <t>SPBD241100020296</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -20098,7 +20098,7 @@
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020287</t>
+          <t>SPBD241100020279</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
@@ -20247,7 +20247,7 @@
       </c>
       <c r="B134" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020291</t>
+          <t>SPBD241100020282</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -20396,7 +20396,7 @@
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020296</t>
+          <t>SPBD241100020283</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
@@ -20545,7 +20545,7 @@
       </c>
       <c r="B136" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020279</t>
+          <t>SPBD241100020289</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -20694,7 +20694,7 @@
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020282</t>
+          <t>SPBD241100020293</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
@@ -20843,7 +20843,7 @@
       </c>
       <c r="B138" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020283</t>
+          <t>SPBD241100020295</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -20992,7 +20992,7 @@
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020289</t>
+          <t>SPBD241100020300</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
@@ -21141,7 +21141,7 @@
       </c>
       <c r="B140" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020293</t>
+          <t>SPBD241100020305</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -21290,7 +21290,7 @@
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020295</t>
+          <t>SPBD241100020306</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
@@ -21439,7 +21439,7 @@
       </c>
       <c r="B142" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020300</t>
+          <t>SPBD241100020307</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -21583,12 +21583,12 @@
     <row r="143" ht="13.2" customHeight="1" thickBot="1">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020305</t>
+          <t>SPBD241100021257</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
@@ -21732,12 +21732,12 @@
     <row r="144" ht="13.2" customHeight="1" thickBot="1">
       <c r="A144" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B144" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020306</t>
+          <t>SPBD241100021258</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -21881,12 +21881,12 @@
     <row r="145" ht="13.2" customHeight="1" thickBot="1">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020307</t>
+          <t>SPBD241100021262</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
@@ -22035,7 +22035,7 @@
       </c>
       <c r="B146" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021257</t>
+          <t>SPBD241100021267</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -22184,7 +22184,7 @@
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021258</t>
+          <t>SPBD241100021280</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
@@ -22333,7 +22333,7 @@
       </c>
       <c r="B148" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021262</t>
+          <t>SPBD241100021287</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021267</t>
+          <t>SPBD241100021289</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
@@ -22631,7 +22631,7 @@
       </c>
       <c r="B150" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021280</t>
+          <t>SPBD241100021260</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021287</t>
+          <t>SPBD241100021261</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
@@ -22929,7 +22929,7 @@
       </c>
       <c r="B152" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021289</t>
+          <t>SPBD241100021265</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -23078,7 +23078,7 @@
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021260</t>
+          <t>SPBD241100021270</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
@@ -23227,7 +23227,7 @@
       </c>
       <c r="B154" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021261</t>
+          <t>SPBD241100021272</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
@@ -23376,7 +23376,7 @@
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021265</t>
+          <t>SPBD241100021273</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
@@ -23525,7 +23525,7 @@
       </c>
       <c r="B156" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021270</t>
+          <t>SPBD241100021278</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
@@ -23674,7 +23674,7 @@
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021272</t>
+          <t>SPBD241100021282</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
@@ -23823,7 +23823,7 @@
       </c>
       <c r="B158" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021273</t>
+          <t>SPBD241100021290</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
@@ -23972,7 +23972,7 @@
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021278</t>
+          <t>SPBD241100021291</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
@@ -24121,7 +24121,7 @@
       </c>
       <c r="B160" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021282</t>
+          <t>SPBD241100021253</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
@@ -24270,7 +24270,7 @@
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021290</t>
+          <t>SPBD241100021274</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
@@ -24419,7 +24419,7 @@
       </c>
       <c r="B162" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021291</t>
+          <t>SPBD241100021276</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
@@ -24568,7 +24568,7 @@
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021253</t>
+          <t>SPBD241100021277</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
@@ -24717,7 +24717,7 @@
       </c>
       <c r="B164" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021274</t>
+          <t>SPBD241100021283</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
@@ -24866,7 +24866,7 @@
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021276</t>
+          <t>SPBD241100021285</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
@@ -25015,7 +25015,7 @@
       </c>
       <c r="B166" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021277</t>
+          <t>SPBD241100021286</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
@@ -25164,7 +25164,7 @@
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021283</t>
+          <t>SPBD241100021288</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
@@ -25313,7 +25313,7 @@
       </c>
       <c r="B168" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021285</t>
+          <t>SPBD241100021255</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
@@ -25462,7 +25462,7 @@
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021286</t>
+          <t>SPBD241100021264</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
@@ -25611,7 +25611,7 @@
       </c>
       <c r="B170" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021288</t>
+          <t>SPBD241100021266</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
@@ -25760,7 +25760,7 @@
       </c>
       <c r="B171" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021255</t>
+          <t>SPBD241100021269</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
@@ -25909,7 +25909,7 @@
       </c>
       <c r="B172" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021264</t>
+          <t>SPBD241100021279</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -26058,7 +26058,7 @@
       </c>
       <c r="B173" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021266</t>
+          <t>SPBD241100021281</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
@@ -26207,7 +26207,7 @@
       </c>
       <c r="B174" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021269</t>
+          <t>SPBD241100021252</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -26356,7 +26356,7 @@
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021279</t>
+          <t>SPBD241100021254</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
@@ -26505,7 +26505,7 @@
       </c>
       <c r="B176" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021281</t>
+          <t>SPBD241100021263</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
@@ -26654,7 +26654,7 @@
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021252</t>
+          <t>SPBD241100021275</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
@@ -26803,7 +26803,7 @@
       </c>
       <c r="B178" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021254</t>
+          <t>SPBD241100021256</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -26952,7 +26952,7 @@
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021263</t>
+          <t>SPBD241100021259</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
@@ -27101,7 +27101,7 @@
       </c>
       <c r="B180" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021275</t>
+          <t>SPBD241100021268</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -27250,7 +27250,7 @@
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021256</t>
+          <t>SPBD241100021271</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
@@ -27399,7 +27399,7 @@
       </c>
       <c r="B182" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021259</t>
+          <t>SPBD241100021284</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
@@ -27543,12 +27543,12 @@
     <row r="183" ht="13.2" customHeight="1" thickBot="1">
       <c r="A183" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021268</t>
+          <t>SPBD241100021782</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
@@ -27692,12 +27692,12 @@
     <row r="184" ht="13.2" customHeight="1" thickBot="1">
       <c r="A184" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B184" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021271</t>
+          <t>SPBD241100021784</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
@@ -27841,12 +27841,12 @@
     <row r="185" ht="13.2" customHeight="1" thickBot="1">
       <c r="A185" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021284</t>
+          <t>SPBD241100021809</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
@@ -27995,7 +27995,7 @@
       </c>
       <c r="B186" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021782</t>
+          <t>SPBD241100021814</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -28144,7 +28144,7 @@
       </c>
       <c r="B187" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021784</t>
+          <t>SPBD241100021786</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
@@ -28293,7 +28293,7 @@
       </c>
       <c r="B188" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021809</t>
+          <t>SPBD241100021787</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
@@ -28442,7 +28442,7 @@
       </c>
       <c r="B189" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021814</t>
+          <t>SPBD241100021791</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
@@ -28591,7 +28591,7 @@
       </c>
       <c r="B190" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021786</t>
+          <t>SPBD241100021793</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
@@ -28740,7 +28740,7 @@
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021787</t>
+          <t>SPBD241100021796</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
@@ -28889,7 +28889,7 @@
       </c>
       <c r="B192" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021791</t>
+          <t>SPBD241100021797</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
@@ -29038,7 +29038,7 @@
       </c>
       <c r="B193" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021793</t>
+          <t>SPBD241100021800</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
@@ -29187,7 +29187,7 @@
       </c>
       <c r="B194" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021796</t>
+          <t>SPBD241100021802</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
@@ -29336,7 +29336,7 @@
       </c>
       <c r="B195" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021797</t>
+          <t>SPBD241100021806</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
@@ -29485,7 +29485,7 @@
       </c>
       <c r="B196" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021800</t>
+          <t>SPBD241100021808</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
@@ -29634,7 +29634,7 @@
       </c>
       <c r="B197" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021802</t>
+          <t>SPBD241100021810</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
@@ -29783,7 +29783,7 @@
       </c>
       <c r="B198" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021806</t>
+          <t>SPBD241100021813</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
@@ -29932,7 +29932,7 @@
       </c>
       <c r="B199" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021808</t>
+          <t>SPBD241100021816</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
@@ -30081,7 +30081,7 @@
       </c>
       <c r="B200" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021810</t>
+          <t>SPBD241100021788</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
@@ -30230,7 +30230,7 @@
       </c>
       <c r="B201" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021813</t>
+          <t>SPBD241100021789</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
@@ -30379,7 +30379,7 @@
       </c>
       <c r="B202" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021816</t>
+          <t>SPBD241100021790</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
@@ -30528,7 +30528,7 @@
       </c>
       <c r="B203" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021788</t>
+          <t>SPBD241100021795</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
@@ -30677,7 +30677,7 @@
       </c>
       <c r="B204" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021789</t>
+          <t>SPBD241100021805</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
@@ -30826,7 +30826,7 @@
       </c>
       <c r="B205" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021790</t>
+          <t>SPBD241100021817</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
@@ -30975,7 +30975,7 @@
       </c>
       <c r="B206" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021795</t>
+          <t>SPBD241100021783</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
@@ -31124,7 +31124,7 @@
       </c>
       <c r="B207" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021805</t>
+          <t>SPBD241100021785</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
@@ -31273,7 +31273,7 @@
       </c>
       <c r="B208" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021817</t>
+          <t>SPBD241100021799</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
@@ -31422,7 +31422,7 @@
       </c>
       <c r="B209" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021783</t>
+          <t>SPBD241100021801</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
@@ -31571,7 +31571,7 @@
       </c>
       <c r="B210" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021785</t>
+          <t>SPBD241100021803</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
@@ -31720,7 +31720,7 @@
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021799</t>
+          <t>SPBD241100021804</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
@@ -31869,7 +31869,7 @@
       </c>
       <c r="B212" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021801</t>
+          <t>SPBD241100021812</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
@@ -32018,7 +32018,7 @@
       </c>
       <c r="B213" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021803</t>
+          <t>SPBD241100021781</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
@@ -32167,7 +32167,7 @@
       </c>
       <c r="B214" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021804</t>
+          <t>SPBD241100021792</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
@@ -32316,7 +32316,7 @@
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021812</t>
+          <t>SPBD241100021794</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
@@ -32465,7 +32465,7 @@
       </c>
       <c r="B216" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021781</t>
+          <t>SPBD241100021807</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
@@ -32614,7 +32614,7 @@
       </c>
       <c r="B217" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021792</t>
+          <t>SPBD241100021815</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
@@ -32763,7 +32763,7 @@
       </c>
       <c r="B218" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021794</t>
+          <t>SPBD241100021818</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
@@ -32912,7 +32912,7 @@
       </c>
       <c r="B219" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021807</t>
+          <t>SPBD241100021780</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
@@ -33061,7 +33061,7 @@
       </c>
       <c r="B220" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021815</t>
+          <t>SPBD241100021798</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
@@ -33210,7 +33210,7 @@
       </c>
       <c r="B221" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021818</t>
+          <t>SPBD241100021811</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
@@ -33352,131 +33352,31 @@
       <c r="AU221" s="3" t="n"/>
     </row>
     <row r="222" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A222" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B222" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021780</t>
-        </is>
-      </c>
-      <c r="C222" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D222" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E222" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F222" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G222" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H222" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I222" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J222" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K222" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L222" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M222" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N222" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O222" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P222" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q222" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R222" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S222" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T222" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U222" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V222" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W222" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X222" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y222" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A222" s="3" t="n"/>
+      <c r="B222" s="3" t="n"/>
+      <c r="C222" s="3" t="n"/>
+      <c r="D222" s="3" t="n"/>
+      <c r="E222" s="3" t="n"/>
+      <c r="F222" s="3" t="n"/>
+      <c r="G222" s="3" t="n"/>
+      <c r="H222" s="3" t="n"/>
+      <c r="I222" s="3" t="n"/>
+      <c r="J222" s="3" t="n"/>
+      <c r="K222" s="3" t="n"/>
+      <c r="L222" s="3" t="n"/>
+      <c r="M222" s="3" t="n"/>
+      <c r="N222" s="3" t="n"/>
+      <c r="O222" s="3" t="n"/>
+      <c r="P222" s="3" t="n"/>
+      <c r="Q222" s="3" t="n"/>
+      <c r="R222" s="3" t="n"/>
+      <c r="S222" s="3" t="n"/>
+      <c r="T222" s="3" t="n"/>
+      <c r="U222" s="3" t="n"/>
+      <c r="V222" s="3" t="n"/>
+      <c r="W222" s="3" t="n"/>
+      <c r="X222" s="3" t="n"/>
+      <c r="Y222" s="3" t="n"/>
       <c r="Z222" s="3" t="n"/>
       <c r="AA222" s="3" t="n"/>
       <c r="AB222" s="3" t="n"/>
@@ -33501,131 +33401,31 @@
       <c r="AU222" s="3" t="n"/>
     </row>
     <row r="223" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A223" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B223" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021798</t>
-        </is>
-      </c>
-      <c r="C223" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D223" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E223" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F223" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G223" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H223" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I223" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J223" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K223" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L223" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M223" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N223" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O223" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P223" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q223" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R223" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S223" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T223" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U223" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V223" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W223" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X223" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y223" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A223" s="3" t="n"/>
+      <c r="B223" s="3" t="n"/>
+      <c r="C223" s="3" t="n"/>
+      <c r="D223" s="3" t="n"/>
+      <c r="E223" s="3" t="n"/>
+      <c r="F223" s="3" t="n"/>
+      <c r="G223" s="3" t="n"/>
+      <c r="H223" s="3" t="n"/>
+      <c r="I223" s="3" t="n"/>
+      <c r="J223" s="3" t="n"/>
+      <c r="K223" s="3" t="n"/>
+      <c r="L223" s="3" t="n"/>
+      <c r="M223" s="3" t="n"/>
+      <c r="N223" s="3" t="n"/>
+      <c r="O223" s="3" t="n"/>
+      <c r="P223" s="3" t="n"/>
+      <c r="Q223" s="3" t="n"/>
+      <c r="R223" s="3" t="n"/>
+      <c r="S223" s="3" t="n"/>
+      <c r="T223" s="3" t="n"/>
+      <c r="U223" s="3" t="n"/>
+      <c r="V223" s="3" t="n"/>
+      <c r="W223" s="3" t="n"/>
+      <c r="X223" s="3" t="n"/>
+      <c r="Y223" s="3" t="n"/>
       <c r="Z223" s="3" t="n"/>
       <c r="AA223" s="3" t="n"/>
       <c r="AB223" s="3" t="n"/>
@@ -33650,131 +33450,31 @@
       <c r="AU223" s="3" t="n"/>
     </row>
     <row r="224" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A224" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B224" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021811</t>
-        </is>
-      </c>
-      <c r="C224" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D224" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E224" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F224" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G224" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H224" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I224" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J224" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K224" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L224" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M224" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N224" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O224" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P224" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q224" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R224" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S224" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T224" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U224" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V224" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W224" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X224" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y224" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A224" s="3" t="n"/>
+      <c r="B224" s="3" t="n"/>
+      <c r="C224" s="3" t="n"/>
+      <c r="D224" s="3" t="n"/>
+      <c r="E224" s="3" t="n"/>
+      <c r="F224" s="3" t="n"/>
+      <c r="G224" s="3" t="n"/>
+      <c r="H224" s="3" t="n"/>
+      <c r="I224" s="3" t="n"/>
+      <c r="J224" s="3" t="n"/>
+      <c r="K224" s="3" t="n"/>
+      <c r="L224" s="3" t="n"/>
+      <c r="M224" s="3" t="n"/>
+      <c r="N224" s="3" t="n"/>
+      <c r="O224" s="3" t="n"/>
+      <c r="P224" s="3" t="n"/>
+      <c r="Q224" s="3" t="n"/>
+      <c r="R224" s="3" t="n"/>
+      <c r="S224" s="3" t="n"/>
+      <c r="T224" s="3" t="n"/>
+      <c r="U224" s="3" t="n"/>
+      <c r="V224" s="3" t="n"/>
+      <c r="W224" s="3" t="n"/>
+      <c r="X224" s="3" t="n"/>
+      <c r="Y224" s="3" t="n"/>
       <c r="Z224" s="3" t="n"/>
       <c r="AA224" s="3" t="n"/>
       <c r="AB224" s="3" t="n"/>
@@ -48694,153 +48394,9 @@
       <c r="AT528" s="3" t="n"/>
       <c r="AU528" s="3" t="n"/>
     </row>
-    <row r="529" ht="13.2" customHeight="1">
-      <c r="A529" s="3" t="n"/>
-      <c r="B529" s="3" t="n"/>
-      <c r="C529" s="3" t="n"/>
-      <c r="D529" s="3" t="n"/>
-      <c r="E529" s="3" t="n"/>
-      <c r="F529" s="3" t="n"/>
-      <c r="G529" s="3" t="n"/>
-      <c r="H529" s="3" t="n"/>
-      <c r="I529" s="3" t="n"/>
-      <c r="J529" s="3" t="n"/>
-      <c r="K529" s="3" t="n"/>
-      <c r="L529" s="3" t="n"/>
-      <c r="M529" s="3" t="n"/>
-      <c r="N529" s="3" t="n"/>
-      <c r="O529" s="3" t="n"/>
-      <c r="P529" s="3" t="n"/>
-      <c r="Q529" s="3" t="n"/>
-      <c r="R529" s="3" t="n"/>
-      <c r="S529" s="3" t="n"/>
-      <c r="T529" s="3" t="n"/>
-      <c r="U529" s="3" t="n"/>
-      <c r="V529" s="3" t="n"/>
-      <c r="W529" s="3" t="n"/>
-      <c r="X529" s="3" t="n"/>
-      <c r="Y529" s="3" t="n"/>
-      <c r="Z529" s="3" t="n"/>
-      <c r="AA529" s="3" t="n"/>
-      <c r="AB529" s="3" t="n"/>
-      <c r="AC529" s="3" t="n"/>
-      <c r="AD529" s="3" t="n"/>
-      <c r="AE529" s="3" t="n"/>
-      <c r="AF529" s="3" t="n"/>
-      <c r="AG529" s="3" t="n"/>
-      <c r="AH529" s="3" t="n"/>
-      <c r="AI529" s="3" t="n"/>
-      <c r="AJ529" s="3" t="n"/>
-      <c r="AK529" s="3" t="n"/>
-      <c r="AL529" s="3" t="n"/>
-      <c r="AM529" s="3" t="n"/>
-      <c r="AN529" s="3" t="n"/>
-      <c r="AO529" s="3" t="n"/>
-      <c r="AP529" s="3" t="n"/>
-      <c r="AQ529" s="3" t="n"/>
-      <c r="AR529" s="3" t="n"/>
-      <c r="AS529" s="3" t="n"/>
-      <c r="AT529" s="3" t="n"/>
-      <c r="AU529" s="3" t="n"/>
-    </row>
-    <row r="530" ht="13.2" customHeight="1">
-      <c r="A530" s="3" t="n"/>
-      <c r="B530" s="3" t="n"/>
-      <c r="C530" s="3" t="n"/>
-      <c r="D530" s="3" t="n"/>
-      <c r="E530" s="3" t="n"/>
-      <c r="F530" s="3" t="n"/>
-      <c r="G530" s="3" t="n"/>
-      <c r="H530" s="3" t="n"/>
-      <c r="I530" s="3" t="n"/>
-      <c r="J530" s="3" t="n"/>
-      <c r="K530" s="3" t="n"/>
-      <c r="L530" s="3" t="n"/>
-      <c r="M530" s="3" t="n"/>
-      <c r="N530" s="3" t="n"/>
-      <c r="O530" s="3" t="n"/>
-      <c r="P530" s="3" t="n"/>
-      <c r="Q530" s="3" t="n"/>
-      <c r="R530" s="3" t="n"/>
-      <c r="S530" s="3" t="n"/>
-      <c r="T530" s="3" t="n"/>
-      <c r="U530" s="3" t="n"/>
-      <c r="V530" s="3" t="n"/>
-      <c r="W530" s="3" t="n"/>
-      <c r="X530" s="3" t="n"/>
-      <c r="Y530" s="3" t="n"/>
-      <c r="Z530" s="3" t="n"/>
-      <c r="AA530" s="3" t="n"/>
-      <c r="AB530" s="3" t="n"/>
-      <c r="AC530" s="3" t="n"/>
-      <c r="AD530" s="3" t="n"/>
-      <c r="AE530" s="3" t="n"/>
-      <c r="AF530" s="3" t="n"/>
-      <c r="AG530" s="3" t="n"/>
-      <c r="AH530" s="3" t="n"/>
-      <c r="AI530" s="3" t="n"/>
-      <c r="AJ530" s="3" t="n"/>
-      <c r="AK530" s="3" t="n"/>
-      <c r="AL530" s="3" t="n"/>
-      <c r="AM530" s="3" t="n"/>
-      <c r="AN530" s="3" t="n"/>
-      <c r="AO530" s="3" t="n"/>
-      <c r="AP530" s="3" t="n"/>
-      <c r="AQ530" s="3" t="n"/>
-      <c r="AR530" s="3" t="n"/>
-      <c r="AS530" s="3" t="n"/>
-      <c r="AT530" s="3" t="n"/>
-      <c r="AU530" s="3" t="n"/>
-    </row>
-    <row r="531" ht="13.2" customHeight="1">
-      <c r="A531" s="3" t="n"/>
-      <c r="B531" s="3" t="n"/>
-      <c r="C531" s="3" t="n"/>
-      <c r="D531" s="3" t="n"/>
-      <c r="E531" s="3" t="n"/>
-      <c r="F531" s="3" t="n"/>
-      <c r="G531" s="3" t="n"/>
-      <c r="H531" s="3" t="n"/>
-      <c r="I531" s="3" t="n"/>
-      <c r="J531" s="3" t="n"/>
-      <c r="K531" s="3" t="n"/>
-      <c r="L531" s="3" t="n"/>
-      <c r="M531" s="3" t="n"/>
-      <c r="N531" s="3" t="n"/>
-      <c r="O531" s="3" t="n"/>
-      <c r="P531" s="3" t="n"/>
-      <c r="Q531" s="3" t="n"/>
-      <c r="R531" s="3" t="n"/>
-      <c r="S531" s="3" t="n"/>
-      <c r="T531" s="3" t="n"/>
-      <c r="U531" s="3" t="n"/>
-      <c r="V531" s="3" t="n"/>
-      <c r="W531" s="3" t="n"/>
-      <c r="X531" s="3" t="n"/>
-      <c r="Y531" s="3" t="n"/>
-      <c r="Z531" s="3" t="n"/>
-      <c r="AA531" s="3" t="n"/>
-      <c r="AB531" s="3" t="n"/>
-      <c r="AC531" s="3" t="n"/>
-      <c r="AD531" s="3" t="n"/>
-      <c r="AE531" s="3" t="n"/>
-      <c r="AF531" s="3" t="n"/>
-      <c r="AG531" s="3" t="n"/>
-      <c r="AH531" s="3" t="n"/>
-      <c r="AI531" s="3" t="n"/>
-      <c r="AJ531" s="3" t="n"/>
-      <c r="AK531" s="3" t="n"/>
-      <c r="AL531" s="3" t="n"/>
-      <c r="AM531" s="3" t="n"/>
-      <c r="AN531" s="3" t="n"/>
-      <c r="AO531" s="3" t="n"/>
-      <c r="AP531" s="3" t="n"/>
-      <c r="AQ531" s="3" t="n"/>
-      <c r="AR531" s="3" t="n"/>
-      <c r="AS531" s="3" t="n"/>
-      <c r="AT531" s="3" t="n"/>
-      <c r="AU531" s="3" t="n"/>
-    </row>
+    <row r="529" ht="13.2" customHeight="1"/>
+    <row r="530" ht="13.2" customHeight="1"/>
+    <row r="531" ht="13.2" customHeight="1"/>
     <row r="532" ht="13.2" customHeight="1"/>
     <row r="533" ht="13.2" customHeight="1"/>
     <row r="534" ht="13.2" customHeight="1"/>

--- a/resourses/testdata/excel_file/Tracking_number.xlsx
+++ b/resourses/testdata/excel_file/Tracking_number.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU528"/>
+  <dimension ref="A1:AU526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18:Y241"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016804</t>
+          <t>SPBD241100016810</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016806</t>
+          <t>SPBD241100016814</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016810</t>
+          <t>SPBD241100016820</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016814</t>
+          <t>SPBD241100016821</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016820</t>
+          <t>SPBD241100016829</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016821</t>
+          <t>SPBD241100016830</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016829</t>
+          <t>SPBD241100016832</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016830</t>
+          <t>SPBD241100016795</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016832</t>
+          <t>SPBD241100016798</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016795</t>
+          <t>SPBD241100016807</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016798</t>
+          <t>SPBD241100016813</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016807</t>
+          <t>SPBD241100016815</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016813</t>
+          <t>SPBD241100016817</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016815</t>
+          <t>SPBD241100016823</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016817</t>
+          <t>SPBD241100016825</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016823</t>
+          <t>SPBD241100016826</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016825</t>
+          <t>SPBD241100016827</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016826</t>
+          <t>SPBD241100016834</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -3405,12 +3405,12 @@
     <row r="21" ht="13.2" customHeight="1" thickBot="1">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016827</t>
+          <t>SPBD241100017224</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -3554,12 +3554,12 @@
     <row r="22" ht="13.2" customHeight="1" thickBot="1">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016834</t>
+          <t>SPBD241100017225</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017224</t>
+          <t>SPBD241100017236</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017225</t>
+          <t>SPBD241100017242</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017236</t>
+          <t>SPBD241100017245</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017242</t>
+          <t>SPBD241100017222</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017245</t>
+          <t>SPBD241100017228</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017222</t>
+          <t>SPBD241100017233</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017228</t>
+          <t>SPBD241100017237</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017233</t>
+          <t>SPBD241100017248</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017237</t>
+          <t>SPBD241100017215</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017248</t>
+          <t>SPBD241100017217</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017215</t>
+          <t>SPBD241100017218</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017217</t>
+          <t>SPBD241100017219</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017218</t>
+          <t>SPBD241100017226</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017219</t>
+          <t>SPBD241100017232</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017226</t>
+          <t>SPBD241100017235</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017232</t>
+          <t>SPBD241100017239</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017235</t>
+          <t>SPBD241100017246</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017239</t>
+          <t>SPBD241100017247</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017246</t>
+          <t>SPBD241100017249</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017247</t>
+          <t>SPBD241100017216</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017249</t>
+          <t>SPBD241100017223</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017216</t>
+          <t>SPBD241100017230</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017223</t>
+          <t>SPBD241100017238</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -7135,7 +7135,7 @@
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017230</t>
+          <t>SPBD241100017240</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017238</t>
+          <t>SPBD241100017220</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017240</t>
+          <t>SPBD241100017221</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017220</t>
+          <t>SPBD241100017227</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017221</t>
+          <t>SPBD241100017229</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017227</t>
+          <t>SPBD241100017234</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017229</t>
+          <t>SPBD241100017241</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -8178,7 +8178,7 @@
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017234</t>
+          <t>SPBD241100017244</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -8327,7 +8327,7 @@
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017241</t>
+          <t>SPBD241100017252</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017244</t>
+          <t>SPBD241100017213</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -8625,7 +8625,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017252</t>
+          <t>SPBD241100017214</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -8774,7 +8774,7 @@
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017213</t>
+          <t>SPBD241100017231</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017214</t>
+          <t>SPBD241100017243</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -9072,7 +9072,7 @@
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017231</t>
+          <t>SPBD241100017250</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017243</t>
+          <t>SPBD241100017251</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -9365,12 +9365,12 @@
     <row r="61" ht="13.2" customHeight="1" thickBot="1">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017250</t>
+          <t>SPBD241100019897</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -9514,12 +9514,12 @@
     <row r="62" ht="13.2" customHeight="1" thickBot="1">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017251</t>
+          <t>SPBD241100019899</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -9668,7 +9668,7 @@
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019897</t>
+          <t>SPBD241100019903</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019899</t>
+          <t>SPBD241100019916</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -9966,7 +9966,7 @@
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019903</t>
+          <t>SPBD241100019893</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019916</t>
+          <t>SPBD241100019895</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019893</t>
+          <t>SPBD241100019904</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -10413,7 +10413,7 @@
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019895</t>
+          <t>SPBD241100019910</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -10562,7 +10562,7 @@
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019904</t>
+          <t>SPBD241100019915</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019910</t>
+          <t>SPBD241100019919</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -10860,7 +10860,7 @@
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019915</t>
+          <t>SPBD241100019920</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -11009,7 +11009,7 @@
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019919</t>
+          <t>SPBD241100019923</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -11158,7 +11158,7 @@
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019920</t>
+          <t>SPBD241100019887</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019923</t>
+          <t>SPBD241100019888</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019887</t>
+          <t>SPBD241100019892</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -11605,7 +11605,7 @@
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019888</t>
+          <t>SPBD241100019900</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -11754,7 +11754,7 @@
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019892</t>
+          <t>SPBD241100019902</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019900</t>
+          <t>SPBD241100019905</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -12052,7 +12052,7 @@
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019902</t>
+          <t>SPBD241100019906</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -12201,7 +12201,7 @@
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019905</t>
+          <t>SPBD241100019908</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019906</t>
+          <t>SPBD241100019911</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -12499,7 +12499,7 @@
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019908</t>
+          <t>SPBD241100019921</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -12648,7 +12648,7 @@
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019911</t>
+          <t>SPBD241100019925</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -12797,7 +12797,7 @@
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019921</t>
+          <t>SPBD241100019886</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -12946,7 +12946,7 @@
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019925</t>
+          <t>SPBD241100019890</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
@@ -13095,7 +13095,7 @@
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019886</t>
+          <t>SPBD241100019894</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -13244,7 +13244,7 @@
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019890</t>
+          <t>SPBD241100019901</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019894</t>
+          <t>SPBD241100019907</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -13542,7 +13542,7 @@
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019901</t>
+          <t>SPBD241100019909</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
@@ -13691,7 +13691,7 @@
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019907</t>
+          <t>SPBD241100019913</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -13840,7 +13840,7 @@
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019909</t>
+          <t>SPBD241100019918</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
@@ -13989,7 +13989,7 @@
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019913</t>
+          <t>SPBD241100019924</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -14138,7 +14138,7 @@
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019918</t>
+          <t>SPBD241100019891</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
@@ -14287,7 +14287,7 @@
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019924</t>
+          <t>SPBD241100019912</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019891</t>
+          <t>SPBD241100019917</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -14585,7 +14585,7 @@
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019912</t>
+          <t>SPBD241100019889</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -14734,7 +14734,7 @@
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019917</t>
+          <t>SPBD241100019896</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019889</t>
+          <t>SPBD241100019898</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -15032,7 +15032,7 @@
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019896</t>
+          <t>SPBD241100019914</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
@@ -15181,7 +15181,7 @@
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019898</t>
+          <t>SPBD241100019922</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -15325,12 +15325,12 @@
     <row r="101" ht="13.2" customHeight="1" thickBot="1">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019914</t>
+          <t>SPBD241100020298</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
@@ -15474,12 +15474,12 @@
     <row r="102" ht="13.2" customHeight="1" thickBot="1">
       <c r="A102" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019922</t>
+          <t>SPBD241100020303</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020298</t>
+          <t>SPBD241100020292</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
@@ -15777,7 +15777,7 @@
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020303</t>
+          <t>SPBD241100020297</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020292</t>
+          <t>SPBD241100020299</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
@@ -16075,7 +16075,7 @@
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020297</t>
+          <t>SPBD241100020302</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -16224,7 +16224,7 @@
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020299</t>
+          <t>SPBD241100020304</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020302</t>
+          <t>SPBD241100020309</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -16522,7 +16522,7 @@
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020304</t>
+          <t>SPBD241100020278</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
@@ -16671,7 +16671,7 @@
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020309</t>
+          <t>SPBD241100020280</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -16820,7 +16820,7 @@
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020278</t>
+          <t>SPBD241100020286</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
@@ -16969,7 +16969,7 @@
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020280</t>
+          <t>SPBD241100020294</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -17118,7 +17118,7 @@
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020286</t>
+          <t>SPBD241100020301</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
@@ -17267,7 +17267,7 @@
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020294</t>
+          <t>SPBD241100020310</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020301</t>
+          <t>SPBD241100020311</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -17565,7 +17565,7 @@
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020310</t>
+          <t>SPBD241100020276</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -17714,7 +17714,7 @@
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020311</t>
+          <t>SPBD241100020285</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
@@ -17863,7 +17863,7 @@
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020276</t>
+          <t>SPBD241100020288</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
@@ -18012,7 +18012,7 @@
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020285</t>
+          <t>SPBD241100020290</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
@@ -18161,7 +18161,7 @@
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020288</t>
+          <t>SPBD241100020308</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -18310,7 +18310,7 @@
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020290</t>
+          <t>SPBD241100020312</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
@@ -18459,7 +18459,7 @@
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020308</t>
+          <t>SPBD241100020313</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020312</t>
+          <t>SPBD241100020314</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
@@ -18757,7 +18757,7 @@
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020313</t>
+          <t>SPBD241100020315</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -18906,7 +18906,7 @@
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020314</t>
+          <t>SPBD241100020277</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
@@ -19055,7 +19055,7 @@
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020315</t>
+          <t>SPBD241100020281</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -19204,7 +19204,7 @@
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020277</t>
+          <t>SPBD241100020284</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
@@ -19353,7 +19353,7 @@
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020281</t>
+          <t>SPBD241100020287</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
@@ -19502,7 +19502,7 @@
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020284</t>
+          <t>SPBD241100020291</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
@@ -19651,7 +19651,7 @@
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020287</t>
+          <t>SPBD241100020296</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
@@ -19800,7 +19800,7 @@
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020291</t>
+          <t>SPBD241100020279</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
@@ -19949,7 +19949,7 @@
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020296</t>
+          <t>SPBD241100020282</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -20098,7 +20098,7 @@
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020279</t>
+          <t>SPBD241100020283</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
@@ -20247,7 +20247,7 @@
       </c>
       <c r="B134" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020282</t>
+          <t>SPBD241100020289</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -20396,7 +20396,7 @@
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020283</t>
+          <t>SPBD241100020293</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
@@ -20545,7 +20545,7 @@
       </c>
       <c r="B136" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020289</t>
+          <t>SPBD241100020295</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -20694,7 +20694,7 @@
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020293</t>
+          <t>SPBD241100020300</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
@@ -20843,7 +20843,7 @@
       </c>
       <c r="B138" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020295</t>
+          <t>SPBD241100020305</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -20992,7 +20992,7 @@
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020300</t>
+          <t>SPBD241100020306</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
@@ -21141,7 +21141,7 @@
       </c>
       <c r="B140" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020305</t>
+          <t>SPBD241100020307</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -21285,12 +21285,12 @@
     <row r="141" ht="13.2" customHeight="1" thickBot="1">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020306</t>
+          <t>SPBD241100021257</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
@@ -21434,12 +21434,12 @@
     <row r="142" ht="13.2" customHeight="1" thickBot="1">
       <c r="A142" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B142" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020307</t>
+          <t>SPBD241100021258</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -21588,7 +21588,7 @@
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021257</t>
+          <t>SPBD241100021262</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
@@ -21737,7 +21737,7 @@
       </c>
       <c r="B144" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021258</t>
+          <t>SPBD241100021267</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -21886,7 +21886,7 @@
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021262</t>
+          <t>SPBD241100021280</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
@@ -22035,7 +22035,7 @@
       </c>
       <c r="B146" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021267</t>
+          <t>SPBD241100021287</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -22184,7 +22184,7 @@
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021280</t>
+          <t>SPBD241100021289</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
@@ -22333,7 +22333,7 @@
       </c>
       <c r="B148" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021287</t>
+          <t>SPBD241100021260</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021289</t>
+          <t>SPBD241100021261</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
@@ -22631,7 +22631,7 @@
       </c>
       <c r="B150" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021260</t>
+          <t>SPBD241100021265</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021261</t>
+          <t>SPBD241100021270</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
@@ -22929,7 +22929,7 @@
       </c>
       <c r="B152" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021265</t>
+          <t>SPBD241100021272</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -23078,7 +23078,7 @@
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021270</t>
+          <t>SPBD241100021273</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
@@ -23227,7 +23227,7 @@
       </c>
       <c r="B154" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021272</t>
+          <t>SPBD241100021278</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
@@ -23376,7 +23376,7 @@
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021273</t>
+          <t>SPBD241100021282</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
@@ -23525,7 +23525,7 @@
       </c>
       <c r="B156" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021278</t>
+          <t>SPBD241100021290</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
@@ -23674,7 +23674,7 @@
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021282</t>
+          <t>SPBD241100021291</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
@@ -23823,7 +23823,7 @@
       </c>
       <c r="B158" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021290</t>
+          <t>SPBD241100021253</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
@@ -23972,7 +23972,7 @@
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021291</t>
+          <t>SPBD241100021274</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
@@ -24121,7 +24121,7 @@
       </c>
       <c r="B160" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021253</t>
+          <t>SPBD241100021276</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
@@ -24270,7 +24270,7 @@
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021274</t>
+          <t>SPBD241100021277</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
@@ -24419,7 +24419,7 @@
       </c>
       <c r="B162" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021276</t>
+          <t>SPBD241100021283</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
@@ -24568,7 +24568,7 @@
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021277</t>
+          <t>SPBD241100021285</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
@@ -24717,7 +24717,7 @@
       </c>
       <c r="B164" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021283</t>
+          <t>SPBD241100021286</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
@@ -24866,7 +24866,7 @@
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021285</t>
+          <t>SPBD241100021288</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
@@ -25015,7 +25015,7 @@
       </c>
       <c r="B166" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021286</t>
+          <t>SPBD241100021255</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
@@ -25164,7 +25164,7 @@
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021288</t>
+          <t>SPBD241100021264</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
@@ -25313,7 +25313,7 @@
       </c>
       <c r="B168" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021255</t>
+          <t>SPBD241100021266</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
@@ -25462,7 +25462,7 @@
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021264</t>
+          <t>SPBD241100021269</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
@@ -25611,7 +25611,7 @@
       </c>
       <c r="B170" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021266</t>
+          <t>SPBD241100021279</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
@@ -25760,7 +25760,7 @@
       </c>
       <c r="B171" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021269</t>
+          <t>SPBD241100021281</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
@@ -25909,7 +25909,7 @@
       </c>
       <c r="B172" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021279</t>
+          <t>SPBD241100021252</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -26058,7 +26058,7 @@
       </c>
       <c r="B173" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021281</t>
+          <t>SPBD241100021254</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
@@ -26207,7 +26207,7 @@
       </c>
       <c r="B174" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021252</t>
+          <t>SPBD241100021263</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -26356,7 +26356,7 @@
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021254</t>
+          <t>SPBD241100021275</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
@@ -26505,7 +26505,7 @@
       </c>
       <c r="B176" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021263</t>
+          <t>SPBD241100021256</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
@@ -26654,7 +26654,7 @@
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021275</t>
+          <t>SPBD241100021259</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
@@ -26803,7 +26803,7 @@
       </c>
       <c r="B178" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021256</t>
+          <t>SPBD241100021268</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -26952,7 +26952,7 @@
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021259</t>
+          <t>SPBD241100021271</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
@@ -27101,7 +27101,7 @@
       </c>
       <c r="B180" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021268</t>
+          <t>SPBD241100021284</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -27245,12 +27245,12 @@
     <row r="181" ht="13.2" customHeight="1" thickBot="1">
       <c r="A181" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021271</t>
+          <t>SPBD241100021782</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
@@ -27394,12 +27394,12 @@
     <row r="182" ht="13.2" customHeight="1" thickBot="1">
       <c r="A182" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B182" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021284</t>
+          <t>SPBD241100021784</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
@@ -27548,7 +27548,7 @@
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021782</t>
+          <t>SPBD241100021809</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
@@ -27697,7 +27697,7 @@
       </c>
       <c r="B184" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021784</t>
+          <t>SPBD241100021814</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
@@ -27846,7 +27846,7 @@
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021809</t>
+          <t>SPBD241100021786</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
@@ -27995,7 +27995,7 @@
       </c>
       <c r="B186" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021814</t>
+          <t>SPBD241100021787</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -28144,7 +28144,7 @@
       </c>
       <c r="B187" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021786</t>
+          <t>SPBD241100021791</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
@@ -28293,7 +28293,7 @@
       </c>
       <c r="B188" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021787</t>
+          <t>SPBD241100021793</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
@@ -28442,7 +28442,7 @@
       </c>
       <c r="B189" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021791</t>
+          <t>SPBD241100021796</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
@@ -28591,7 +28591,7 @@
       </c>
       <c r="B190" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021793</t>
+          <t>SPBD241100021797</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
@@ -28740,7 +28740,7 @@
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021796</t>
+          <t>SPBD241100021800</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
@@ -28889,7 +28889,7 @@
       </c>
       <c r="B192" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021797</t>
+          <t>SPBD241100021802</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
@@ -29038,7 +29038,7 @@
       </c>
       <c r="B193" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021800</t>
+          <t>SPBD241100021806</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
@@ -29187,7 +29187,7 @@
       </c>
       <c r="B194" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021802</t>
+          <t>SPBD241100021808</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
@@ -29336,7 +29336,7 @@
       </c>
       <c r="B195" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021806</t>
+          <t>SPBD241100021810</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
@@ -29485,7 +29485,7 @@
       </c>
       <c r="B196" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021808</t>
+          <t>SPBD241100021813</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
@@ -29634,7 +29634,7 @@
       </c>
       <c r="B197" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021810</t>
+          <t>SPBD241100021816</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
@@ -29783,7 +29783,7 @@
       </c>
       <c r="B198" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021813</t>
+          <t>SPBD241100021788</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
@@ -29932,7 +29932,7 @@
       </c>
       <c r="B199" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021816</t>
+          <t>SPBD241100021789</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
@@ -30081,7 +30081,7 @@
       </c>
       <c r="B200" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021788</t>
+          <t>SPBD241100021790</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
@@ -30230,7 +30230,7 @@
       </c>
       <c r="B201" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021789</t>
+          <t>SPBD241100021795</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
@@ -30379,7 +30379,7 @@
       </c>
       <c r="B202" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021790</t>
+          <t>SPBD241100021805</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
@@ -30528,7 +30528,7 @@
       </c>
       <c r="B203" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021795</t>
+          <t>SPBD241100021817</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
@@ -30677,7 +30677,7 @@
       </c>
       <c r="B204" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021805</t>
+          <t>SPBD241100021783</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
@@ -30826,7 +30826,7 @@
       </c>
       <c r="B205" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021817</t>
+          <t>SPBD241100021785</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
@@ -30975,7 +30975,7 @@
       </c>
       <c r="B206" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021783</t>
+          <t>SPBD241100021799</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
@@ -31124,7 +31124,7 @@
       </c>
       <c r="B207" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021785</t>
+          <t>SPBD241100021801</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
@@ -31273,7 +31273,7 @@
       </c>
       <c r="B208" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021799</t>
+          <t>SPBD241100021803</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
@@ -31422,7 +31422,7 @@
       </c>
       <c r="B209" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021801</t>
+          <t>SPBD241100021804</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
@@ -31571,7 +31571,7 @@
       </c>
       <c r="B210" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021803</t>
+          <t>SPBD241100021812</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
@@ -31720,7 +31720,7 @@
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021804</t>
+          <t>SPBD241100021781</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
@@ -31869,7 +31869,7 @@
       </c>
       <c r="B212" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021812</t>
+          <t>SPBD241100021792</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
@@ -32018,7 +32018,7 @@
       </c>
       <c r="B213" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021781</t>
+          <t>SPBD241100021794</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
@@ -32167,7 +32167,7 @@
       </c>
       <c r="B214" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021792</t>
+          <t>SPBD241100021807</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
@@ -32316,7 +32316,7 @@
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021794</t>
+          <t>SPBD241100021815</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
@@ -32465,7 +32465,7 @@
       </c>
       <c r="B216" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021807</t>
+          <t>SPBD241100021818</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
@@ -32614,7 +32614,7 @@
       </c>
       <c r="B217" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021815</t>
+          <t>SPBD241100021780</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
@@ -32763,7 +32763,7 @@
       </c>
       <c r="B218" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021818</t>
+          <t>SPBD241100021798</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
@@ -32912,7 +32912,7 @@
       </c>
       <c r="B219" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021780</t>
+          <t>SPBD241100021811</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
@@ -33054,131 +33054,31 @@
       <c r="AU219" s="3" t="n"/>
     </row>
     <row r="220" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A220" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B220" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021798</t>
-        </is>
-      </c>
-      <c r="C220" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D220" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E220" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F220" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G220" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H220" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I220" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J220" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K220" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L220" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M220" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N220" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O220" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P220" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q220" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R220" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S220" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T220" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U220" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V220" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W220" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X220" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y220" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A220" s="3" t="n"/>
+      <c r="B220" s="3" t="n"/>
+      <c r="C220" s="3" t="n"/>
+      <c r="D220" s="3" t="n"/>
+      <c r="E220" s="3" t="n"/>
+      <c r="F220" s="3" t="n"/>
+      <c r="G220" s="3" t="n"/>
+      <c r="H220" s="3" t="n"/>
+      <c r="I220" s="3" t="n"/>
+      <c r="J220" s="3" t="n"/>
+      <c r="K220" s="3" t="n"/>
+      <c r="L220" s="3" t="n"/>
+      <c r="M220" s="3" t="n"/>
+      <c r="N220" s="3" t="n"/>
+      <c r="O220" s="3" t="n"/>
+      <c r="P220" s="3" t="n"/>
+      <c r="Q220" s="3" t="n"/>
+      <c r="R220" s="3" t="n"/>
+      <c r="S220" s="3" t="n"/>
+      <c r="T220" s="3" t="n"/>
+      <c r="U220" s="3" t="n"/>
+      <c r="V220" s="3" t="n"/>
+      <c r="W220" s="3" t="n"/>
+      <c r="X220" s="3" t="n"/>
+      <c r="Y220" s="3" t="n"/>
       <c r="Z220" s="3" t="n"/>
       <c r="AA220" s="3" t="n"/>
       <c r="AB220" s="3" t="n"/>
@@ -33203,131 +33103,31 @@
       <c r="AU220" s="3" t="n"/>
     </row>
     <row r="221" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A221" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B221" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021811</t>
-        </is>
-      </c>
-      <c r="C221" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D221" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E221" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F221" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G221" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H221" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I221" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J221" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K221" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L221" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M221" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N221" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O221" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P221" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q221" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R221" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S221" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T221" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U221" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V221" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W221" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X221" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y221" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A221" s="3" t="n"/>
+      <c r="B221" s="3" t="n"/>
+      <c r="C221" s="3" t="n"/>
+      <c r="D221" s="3" t="n"/>
+      <c r="E221" s="3" t="n"/>
+      <c r="F221" s="3" t="n"/>
+      <c r="G221" s="3" t="n"/>
+      <c r="H221" s="3" t="n"/>
+      <c r="I221" s="3" t="n"/>
+      <c r="J221" s="3" t="n"/>
+      <c r="K221" s="3" t="n"/>
+      <c r="L221" s="3" t="n"/>
+      <c r="M221" s="3" t="n"/>
+      <c r="N221" s="3" t="n"/>
+      <c r="O221" s="3" t="n"/>
+      <c r="P221" s="3" t="n"/>
+      <c r="Q221" s="3" t="n"/>
+      <c r="R221" s="3" t="n"/>
+      <c r="S221" s="3" t="n"/>
+      <c r="T221" s="3" t="n"/>
+      <c r="U221" s="3" t="n"/>
+      <c r="V221" s="3" t="n"/>
+      <c r="W221" s="3" t="n"/>
+      <c r="X221" s="3" t="n"/>
+      <c r="Y221" s="3" t="n"/>
       <c r="Z221" s="3" t="n"/>
       <c r="AA221" s="3" t="n"/>
       <c r="AB221" s="3" t="n"/>
@@ -48296,104 +48096,8 @@
       <c r="AT526" s="3" t="n"/>
       <c r="AU526" s="3" t="n"/>
     </row>
-    <row r="527" ht="13.2" customHeight="1">
-      <c r="A527" s="3" t="n"/>
-      <c r="B527" s="3" t="n"/>
-      <c r="C527" s="3" t="n"/>
-      <c r="D527" s="3" t="n"/>
-      <c r="E527" s="3" t="n"/>
-      <c r="F527" s="3" t="n"/>
-      <c r="G527" s="3" t="n"/>
-      <c r="H527" s="3" t="n"/>
-      <c r="I527" s="3" t="n"/>
-      <c r="J527" s="3" t="n"/>
-      <c r="K527" s="3" t="n"/>
-      <c r="L527" s="3" t="n"/>
-      <c r="M527" s="3" t="n"/>
-      <c r="N527" s="3" t="n"/>
-      <c r="O527" s="3" t="n"/>
-      <c r="P527" s="3" t="n"/>
-      <c r="Q527" s="3" t="n"/>
-      <c r="R527" s="3" t="n"/>
-      <c r="S527" s="3" t="n"/>
-      <c r="T527" s="3" t="n"/>
-      <c r="U527" s="3" t="n"/>
-      <c r="V527" s="3" t="n"/>
-      <c r="W527" s="3" t="n"/>
-      <c r="X527" s="3" t="n"/>
-      <c r="Y527" s="3" t="n"/>
-      <c r="Z527" s="3" t="n"/>
-      <c r="AA527" s="3" t="n"/>
-      <c r="AB527" s="3" t="n"/>
-      <c r="AC527" s="3" t="n"/>
-      <c r="AD527" s="3" t="n"/>
-      <c r="AE527" s="3" t="n"/>
-      <c r="AF527" s="3" t="n"/>
-      <c r="AG527" s="3" t="n"/>
-      <c r="AH527" s="3" t="n"/>
-      <c r="AI527" s="3" t="n"/>
-      <c r="AJ527" s="3" t="n"/>
-      <c r="AK527" s="3" t="n"/>
-      <c r="AL527" s="3" t="n"/>
-      <c r="AM527" s="3" t="n"/>
-      <c r="AN527" s="3" t="n"/>
-      <c r="AO527" s="3" t="n"/>
-      <c r="AP527" s="3" t="n"/>
-      <c r="AQ527" s="3" t="n"/>
-      <c r="AR527" s="3" t="n"/>
-      <c r="AS527" s="3" t="n"/>
-      <c r="AT527" s="3" t="n"/>
-      <c r="AU527" s="3" t="n"/>
-    </row>
-    <row r="528" ht="13.2" customHeight="1">
-      <c r="A528" s="3" t="n"/>
-      <c r="B528" s="3" t="n"/>
-      <c r="C528" s="3" t="n"/>
-      <c r="D528" s="3" t="n"/>
-      <c r="E528" s="3" t="n"/>
-      <c r="F528" s="3" t="n"/>
-      <c r="G528" s="3" t="n"/>
-      <c r="H528" s="3" t="n"/>
-      <c r="I528" s="3" t="n"/>
-      <c r="J528" s="3" t="n"/>
-      <c r="K528" s="3" t="n"/>
-      <c r="L528" s="3" t="n"/>
-      <c r="M528" s="3" t="n"/>
-      <c r="N528" s="3" t="n"/>
-      <c r="O528" s="3" t="n"/>
-      <c r="P528" s="3" t="n"/>
-      <c r="Q528" s="3" t="n"/>
-      <c r="R528" s="3" t="n"/>
-      <c r="S528" s="3" t="n"/>
-      <c r="T528" s="3" t="n"/>
-      <c r="U528" s="3" t="n"/>
-      <c r="V528" s="3" t="n"/>
-      <c r="W528" s="3" t="n"/>
-      <c r="X528" s="3" t="n"/>
-      <c r="Y528" s="3" t="n"/>
-      <c r="Z528" s="3" t="n"/>
-      <c r="AA528" s="3" t="n"/>
-      <c r="AB528" s="3" t="n"/>
-      <c r="AC528" s="3" t="n"/>
-      <c r="AD528" s="3" t="n"/>
-      <c r="AE528" s="3" t="n"/>
-      <c r="AF528" s="3" t="n"/>
-      <c r="AG528" s="3" t="n"/>
-      <c r="AH528" s="3" t="n"/>
-      <c r="AI528" s="3" t="n"/>
-      <c r="AJ528" s="3" t="n"/>
-      <c r="AK528" s="3" t="n"/>
-      <c r="AL528" s="3" t="n"/>
-      <c r="AM528" s="3" t="n"/>
-      <c r="AN528" s="3" t="n"/>
-      <c r="AO528" s="3" t="n"/>
-      <c r="AP528" s="3" t="n"/>
-      <c r="AQ528" s="3" t="n"/>
-      <c r="AR528" s="3" t="n"/>
-      <c r="AS528" s="3" t="n"/>
-      <c r="AT528" s="3" t="n"/>
-      <c r="AU528" s="3" t="n"/>
-    </row>
+    <row r="527" ht="13.2" customHeight="1"/>
+    <row r="528" ht="13.2" customHeight="1"/>
     <row r="529" ht="13.2" customHeight="1"/>
     <row r="530" ht="13.2" customHeight="1"/>
     <row r="531" ht="13.2" customHeight="1"/>

--- a/resourses/testdata/excel_file/Tracking_number.xlsx
+++ b/resourses/testdata/excel_file/Tracking_number.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU526"/>
+  <dimension ref="A1:AU525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18:Y241"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016810</t>
+          <t>SPBD241100016814</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016814</t>
+          <t>SPBD241100016820</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016820</t>
+          <t>SPBD241100016821</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016821</t>
+          <t>SPBD241100016829</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016829</t>
+          <t>SPBD241100016830</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016830</t>
+          <t>SPBD241100016832</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016832</t>
+          <t>SPBD241100016795</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016795</t>
+          <t>SPBD241100016798</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016798</t>
+          <t>SPBD241100016807</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016807</t>
+          <t>SPBD241100016813</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016813</t>
+          <t>SPBD241100016815</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016815</t>
+          <t>SPBD241100016817</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016817</t>
+          <t>SPBD241100016823</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016823</t>
+          <t>SPBD241100016825</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016825</t>
+          <t>SPBD241100016826</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016826</t>
+          <t>SPBD241100016827</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016827</t>
+          <t>SPBD241100016834</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -3256,12 +3256,12 @@
     <row r="20" ht="13.2" customHeight="1" thickBot="1">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016834</t>
+          <t>SPBD241100017224</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017224</t>
+          <t>SPBD241100017225</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017225</t>
+          <t>SPBD241100017236</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017236</t>
+          <t>SPBD241100017242</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017242</t>
+          <t>SPBD241100017245</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017245</t>
+          <t>SPBD241100017222</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017222</t>
+          <t>SPBD241100017228</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017228</t>
+          <t>SPBD241100017233</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017233</t>
+          <t>SPBD241100017237</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017237</t>
+          <t>SPBD241100017248</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017248</t>
+          <t>SPBD241100017215</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017215</t>
+          <t>SPBD241100017217</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017217</t>
+          <t>SPBD241100017218</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017218</t>
+          <t>SPBD241100017219</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017219</t>
+          <t>SPBD241100017226</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017226</t>
+          <t>SPBD241100017232</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017232</t>
+          <t>SPBD241100017235</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017235</t>
+          <t>SPBD241100017239</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017239</t>
+          <t>SPBD241100017246</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017246</t>
+          <t>SPBD241100017247</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017247</t>
+          <t>SPBD241100017249</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017249</t>
+          <t>SPBD241100017216</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017216</t>
+          <t>SPBD241100017223</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017223</t>
+          <t>SPBD241100017230</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017230</t>
+          <t>SPBD241100017238</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017238</t>
+          <t>SPBD241100017240</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -7135,7 +7135,7 @@
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017240</t>
+          <t>SPBD241100017220</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017220</t>
+          <t>SPBD241100017221</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017221</t>
+          <t>SPBD241100017227</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017227</t>
+          <t>SPBD241100017229</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017229</t>
+          <t>SPBD241100017234</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017234</t>
+          <t>SPBD241100017241</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017241</t>
+          <t>SPBD241100017244</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -8178,7 +8178,7 @@
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017244</t>
+          <t>SPBD241100017252</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -8327,7 +8327,7 @@
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017252</t>
+          <t>SPBD241100017213</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017213</t>
+          <t>SPBD241100017214</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -8625,7 +8625,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017214</t>
+          <t>SPBD241100017231</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -8774,7 +8774,7 @@
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017231</t>
+          <t>SPBD241100017243</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017243</t>
+          <t>SPBD241100017250</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -9072,7 +9072,7 @@
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017250</t>
+          <t>SPBD241100017251</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -9216,12 +9216,12 @@
     <row r="60" ht="13.2" customHeight="1" thickBot="1">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017251</t>
+          <t>SPBD241100019897</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -9370,7 +9370,7 @@
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019897</t>
+          <t>SPBD241100019899</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -9519,7 +9519,7 @@
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019899</t>
+          <t>SPBD241100019903</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -9668,7 +9668,7 @@
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019903</t>
+          <t>SPBD241100019916</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019916</t>
+          <t>SPBD241100019893</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -9966,7 +9966,7 @@
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019893</t>
+          <t>SPBD241100019895</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019895</t>
+          <t>SPBD241100019904</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019904</t>
+          <t>SPBD241100019910</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -10413,7 +10413,7 @@
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019910</t>
+          <t>SPBD241100019915</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -10562,7 +10562,7 @@
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019915</t>
+          <t>SPBD241100019919</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019919</t>
+          <t>SPBD241100019920</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -10860,7 +10860,7 @@
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019920</t>
+          <t>SPBD241100019923</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -11009,7 +11009,7 @@
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019923</t>
+          <t>SPBD241100019887</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -11158,7 +11158,7 @@
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019887</t>
+          <t>SPBD241100019888</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019888</t>
+          <t>SPBD241100019892</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019892</t>
+          <t>SPBD241100019900</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -11605,7 +11605,7 @@
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019900</t>
+          <t>SPBD241100019902</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -11754,7 +11754,7 @@
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019902</t>
+          <t>SPBD241100019905</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019905</t>
+          <t>SPBD241100019906</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -12052,7 +12052,7 @@
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019906</t>
+          <t>SPBD241100019908</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -12201,7 +12201,7 @@
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019908</t>
+          <t>SPBD241100019911</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019911</t>
+          <t>SPBD241100019921</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -12499,7 +12499,7 @@
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019921</t>
+          <t>SPBD241100019925</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -12648,7 +12648,7 @@
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019925</t>
+          <t>SPBD241100019886</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -12797,7 +12797,7 @@
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019886</t>
+          <t>SPBD241100019890</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -12946,7 +12946,7 @@
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019890</t>
+          <t>SPBD241100019894</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
@@ -13095,7 +13095,7 @@
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019894</t>
+          <t>SPBD241100019901</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -13244,7 +13244,7 @@
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019901</t>
+          <t>SPBD241100019907</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019907</t>
+          <t>SPBD241100019909</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -13542,7 +13542,7 @@
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019909</t>
+          <t>SPBD241100019913</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
@@ -13691,7 +13691,7 @@
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019913</t>
+          <t>SPBD241100019918</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -13840,7 +13840,7 @@
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019918</t>
+          <t>SPBD241100019924</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
@@ -13989,7 +13989,7 @@
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019924</t>
+          <t>SPBD241100019891</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -14138,7 +14138,7 @@
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019891</t>
+          <t>SPBD241100019912</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
@@ -14287,7 +14287,7 @@
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019912</t>
+          <t>SPBD241100019917</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019917</t>
+          <t>SPBD241100019889</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -14585,7 +14585,7 @@
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019889</t>
+          <t>SPBD241100019896</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -14734,7 +14734,7 @@
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019896</t>
+          <t>SPBD241100019898</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019898</t>
+          <t>SPBD241100019914</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -15032,7 +15032,7 @@
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019914</t>
+          <t>SPBD241100019922</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
@@ -15176,12 +15176,12 @@
     <row r="100" ht="13.2" customHeight="1" thickBot="1">
       <c r="A100" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019922</t>
+          <t>SPBD241100020298</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -15330,7 +15330,7 @@
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020298</t>
+          <t>SPBD241100020303</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
@@ -15479,7 +15479,7 @@
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020303</t>
+          <t>SPBD241100020292</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020292</t>
+          <t>SPBD241100020297</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
@@ -15777,7 +15777,7 @@
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020297</t>
+          <t>SPBD241100020299</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020299</t>
+          <t>SPBD241100020302</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
@@ -16075,7 +16075,7 @@
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020302</t>
+          <t>SPBD241100020304</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -16224,7 +16224,7 @@
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020304</t>
+          <t>SPBD241100020309</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020309</t>
+          <t>SPBD241100020278</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -16522,7 +16522,7 @@
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020278</t>
+          <t>SPBD241100020280</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
@@ -16671,7 +16671,7 @@
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020280</t>
+          <t>SPBD241100020286</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -16820,7 +16820,7 @@
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020286</t>
+          <t>SPBD241100020294</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
@@ -16969,7 +16969,7 @@
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020294</t>
+          <t>SPBD241100020301</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -17118,7 +17118,7 @@
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020301</t>
+          <t>SPBD241100020310</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
@@ -17267,7 +17267,7 @@
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020310</t>
+          <t>SPBD241100020311</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020311</t>
+          <t>SPBD241100020276</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -17565,7 +17565,7 @@
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020276</t>
+          <t>SPBD241100020285</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -17714,7 +17714,7 @@
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020285</t>
+          <t>SPBD241100020288</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
@@ -17863,7 +17863,7 @@
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020288</t>
+          <t>SPBD241100020290</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
@@ -18012,7 +18012,7 @@
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020290</t>
+          <t>SPBD241100020308</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
@@ -18161,7 +18161,7 @@
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020308</t>
+          <t>SPBD241100020312</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -18310,7 +18310,7 @@
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020312</t>
+          <t>SPBD241100020313</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
@@ -18459,7 +18459,7 @@
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020313</t>
+          <t>SPBD241100020314</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020314</t>
+          <t>SPBD241100020315</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
@@ -18757,7 +18757,7 @@
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020315</t>
+          <t>SPBD241100020277</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -18906,7 +18906,7 @@
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020277</t>
+          <t>SPBD241100020281</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
@@ -19055,7 +19055,7 @@
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020281</t>
+          <t>SPBD241100020284</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -19204,7 +19204,7 @@
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020284</t>
+          <t>SPBD241100020287</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
@@ -19353,7 +19353,7 @@
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020287</t>
+          <t>SPBD241100020291</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
@@ -19502,7 +19502,7 @@
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020291</t>
+          <t>SPBD241100020296</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
@@ -19651,7 +19651,7 @@
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020296</t>
+          <t>SPBD241100020279</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
@@ -19800,7 +19800,7 @@
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020279</t>
+          <t>SPBD241100020282</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
@@ -19949,7 +19949,7 @@
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020282</t>
+          <t>SPBD241100020283</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -20098,7 +20098,7 @@
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020283</t>
+          <t>SPBD241100020289</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
@@ -20247,7 +20247,7 @@
       </c>
       <c r="B134" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020289</t>
+          <t>SPBD241100020293</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -20396,7 +20396,7 @@
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020293</t>
+          <t>SPBD241100020295</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
@@ -20545,7 +20545,7 @@
       </c>
       <c r="B136" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020295</t>
+          <t>SPBD241100020300</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -20694,7 +20694,7 @@
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020300</t>
+          <t>SPBD241100020305</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
@@ -20843,7 +20843,7 @@
       </c>
       <c r="B138" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020305</t>
+          <t>SPBD241100020306</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -20992,7 +20992,7 @@
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020306</t>
+          <t>SPBD241100020307</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
@@ -21136,12 +21136,12 @@
     <row r="140" ht="13.2" customHeight="1" thickBot="1">
       <c r="A140" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B140" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020307</t>
+          <t>SPBD241100021257</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -21290,7 +21290,7 @@
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021257</t>
+          <t>SPBD241100021258</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
@@ -21439,7 +21439,7 @@
       </c>
       <c r="B142" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021258</t>
+          <t>SPBD241100021262</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -21588,7 +21588,7 @@
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021262</t>
+          <t>SPBD241100021267</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
@@ -21737,7 +21737,7 @@
       </c>
       <c r="B144" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021267</t>
+          <t>SPBD241100021280</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -21886,7 +21886,7 @@
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021280</t>
+          <t>SPBD241100021287</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
@@ -22035,7 +22035,7 @@
       </c>
       <c r="B146" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021287</t>
+          <t>SPBD241100021289</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -22184,7 +22184,7 @@
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021289</t>
+          <t>SPBD241100021260</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
@@ -22333,7 +22333,7 @@
       </c>
       <c r="B148" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021260</t>
+          <t>SPBD241100021261</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021261</t>
+          <t>SPBD241100021265</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
@@ -22631,7 +22631,7 @@
       </c>
       <c r="B150" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021265</t>
+          <t>SPBD241100021270</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021270</t>
+          <t>SPBD241100021272</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
@@ -22929,7 +22929,7 @@
       </c>
       <c r="B152" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021272</t>
+          <t>SPBD241100021273</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -23078,7 +23078,7 @@
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021273</t>
+          <t>SPBD241100021278</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
@@ -23227,7 +23227,7 @@
       </c>
       <c r="B154" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021278</t>
+          <t>SPBD241100021282</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
@@ -23376,7 +23376,7 @@
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021282</t>
+          <t>SPBD241100021290</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
@@ -23525,7 +23525,7 @@
       </c>
       <c r="B156" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021290</t>
+          <t>SPBD241100021291</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
@@ -23674,7 +23674,7 @@
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021291</t>
+          <t>SPBD241100021253</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
@@ -23823,7 +23823,7 @@
       </c>
       <c r="B158" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021253</t>
+          <t>SPBD241100021274</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
@@ -23972,7 +23972,7 @@
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021274</t>
+          <t>SPBD241100021276</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
@@ -24121,7 +24121,7 @@
       </c>
       <c r="B160" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021276</t>
+          <t>SPBD241100021277</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
@@ -24270,7 +24270,7 @@
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021277</t>
+          <t>SPBD241100021283</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
@@ -24419,7 +24419,7 @@
       </c>
       <c r="B162" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021283</t>
+          <t>SPBD241100021285</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
@@ -24568,7 +24568,7 @@
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021285</t>
+          <t>SPBD241100021286</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
@@ -24717,7 +24717,7 @@
       </c>
       <c r="B164" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021286</t>
+          <t>SPBD241100021288</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
@@ -24866,7 +24866,7 @@
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021288</t>
+          <t>SPBD241100021255</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
@@ -25015,7 +25015,7 @@
       </c>
       <c r="B166" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021255</t>
+          <t>SPBD241100021264</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
@@ -25164,7 +25164,7 @@
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021264</t>
+          <t>SPBD241100021266</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
@@ -25313,7 +25313,7 @@
       </c>
       <c r="B168" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021266</t>
+          <t>SPBD241100021269</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
@@ -25462,7 +25462,7 @@
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021269</t>
+          <t>SPBD241100021279</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
@@ -25611,7 +25611,7 @@
       </c>
       <c r="B170" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021279</t>
+          <t>SPBD241100021281</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
@@ -25760,7 +25760,7 @@
       </c>
       <c r="B171" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021281</t>
+          <t>SPBD241100021252</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
@@ -25909,7 +25909,7 @@
       </c>
       <c r="B172" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021252</t>
+          <t>SPBD241100021254</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -26058,7 +26058,7 @@
       </c>
       <c r="B173" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021254</t>
+          <t>SPBD241100021263</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
@@ -26207,7 +26207,7 @@
       </c>
       <c r="B174" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021263</t>
+          <t>SPBD241100021275</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -26356,7 +26356,7 @@
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021275</t>
+          <t>SPBD241100021256</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
@@ -26505,7 +26505,7 @@
       </c>
       <c r="B176" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021256</t>
+          <t>SPBD241100021259</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
@@ -26654,7 +26654,7 @@
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021259</t>
+          <t>SPBD241100021268</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
@@ -26803,7 +26803,7 @@
       </c>
       <c r="B178" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021268</t>
+          <t>SPBD241100021271</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -26952,7 +26952,7 @@
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021271</t>
+          <t>SPBD241100021284</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
@@ -27096,12 +27096,12 @@
     <row r="180" ht="13.2" customHeight="1" thickBot="1">
       <c r="A180" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B180" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021284</t>
+          <t>SPBD241100021782</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -27250,7 +27250,7 @@
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021782</t>
+          <t>SPBD241100021784</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
@@ -27399,7 +27399,7 @@
       </c>
       <c r="B182" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021784</t>
+          <t>SPBD241100021809</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
@@ -27548,7 +27548,7 @@
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021809</t>
+          <t>SPBD241100021814</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
@@ -27697,7 +27697,7 @@
       </c>
       <c r="B184" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021814</t>
+          <t>SPBD241100021786</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
@@ -27846,7 +27846,7 @@
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021786</t>
+          <t>SPBD241100021787</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
@@ -27995,7 +27995,7 @@
       </c>
       <c r="B186" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021787</t>
+          <t>SPBD241100021791</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -28144,7 +28144,7 @@
       </c>
       <c r="B187" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021791</t>
+          <t>SPBD241100021793</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
@@ -28293,7 +28293,7 @@
       </c>
       <c r="B188" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021793</t>
+          <t>SPBD241100021796</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
@@ -28442,7 +28442,7 @@
       </c>
       <c r="B189" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021796</t>
+          <t>SPBD241100021797</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
@@ -28591,7 +28591,7 @@
       </c>
       <c r="B190" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021797</t>
+          <t>SPBD241100021800</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
@@ -28740,7 +28740,7 @@
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021800</t>
+          <t>SPBD241100021802</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
@@ -28889,7 +28889,7 @@
       </c>
       <c r="B192" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021802</t>
+          <t>SPBD241100021806</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
@@ -29038,7 +29038,7 @@
       </c>
       <c r="B193" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021806</t>
+          <t>SPBD241100021808</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
@@ -29187,7 +29187,7 @@
       </c>
       <c r="B194" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021808</t>
+          <t>SPBD241100021810</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
@@ -29336,7 +29336,7 @@
       </c>
       <c r="B195" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021810</t>
+          <t>SPBD241100021813</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
@@ -29485,7 +29485,7 @@
       </c>
       <c r="B196" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021813</t>
+          <t>SPBD241100021816</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
@@ -29634,7 +29634,7 @@
       </c>
       <c r="B197" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021816</t>
+          <t>SPBD241100021788</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
@@ -29783,7 +29783,7 @@
       </c>
       <c r="B198" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021788</t>
+          <t>SPBD241100021789</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
@@ -29932,7 +29932,7 @@
       </c>
       <c r="B199" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021789</t>
+          <t>SPBD241100021790</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
@@ -30081,7 +30081,7 @@
       </c>
       <c r="B200" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021790</t>
+          <t>SPBD241100021795</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
@@ -30230,7 +30230,7 @@
       </c>
       <c r="B201" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021795</t>
+          <t>SPBD241100021805</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
@@ -30379,7 +30379,7 @@
       </c>
       <c r="B202" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021805</t>
+          <t>SPBD241100021817</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
@@ -30528,7 +30528,7 @@
       </c>
       <c r="B203" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021817</t>
+          <t>SPBD241100021783</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
@@ -30677,7 +30677,7 @@
       </c>
       <c r="B204" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021783</t>
+          <t>SPBD241100021785</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
@@ -30826,7 +30826,7 @@
       </c>
       <c r="B205" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021785</t>
+          <t>SPBD241100021799</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
@@ -30975,7 +30975,7 @@
       </c>
       <c r="B206" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021799</t>
+          <t>SPBD241100021801</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
@@ -31124,7 +31124,7 @@
       </c>
       <c r="B207" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021801</t>
+          <t>SPBD241100021803</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
@@ -31273,7 +31273,7 @@
       </c>
       <c r="B208" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021803</t>
+          <t>SPBD241100021804</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
@@ -31422,7 +31422,7 @@
       </c>
       <c r="B209" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021804</t>
+          <t>SPBD241100021812</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
@@ -31571,7 +31571,7 @@
       </c>
       <c r="B210" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021812</t>
+          <t>SPBD241100021781</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
@@ -31720,7 +31720,7 @@
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021781</t>
+          <t>SPBD241100021792</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
@@ -31869,7 +31869,7 @@
       </c>
       <c r="B212" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021792</t>
+          <t>SPBD241100021794</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
@@ -32018,7 +32018,7 @@
       </c>
       <c r="B213" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021794</t>
+          <t>SPBD241100021807</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
@@ -32167,7 +32167,7 @@
       </c>
       <c r="B214" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021807</t>
+          <t>SPBD241100021815</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
@@ -32316,7 +32316,7 @@
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021815</t>
+          <t>SPBD241100021818</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
@@ -32465,7 +32465,7 @@
       </c>
       <c r="B216" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021818</t>
+          <t>SPBD241100021780</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
@@ -32614,7 +32614,7 @@
       </c>
       <c r="B217" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021780</t>
+          <t>SPBD241100021798</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
@@ -32763,7 +32763,7 @@
       </c>
       <c r="B218" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021798</t>
+          <t>SPBD241100021811</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
@@ -32905,131 +32905,31 @@
       <c r="AU218" s="3" t="n"/>
     </row>
     <row r="219" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A219" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B219" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021811</t>
-        </is>
-      </c>
-      <c r="C219" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D219" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E219" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F219" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G219" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H219" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I219" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J219" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K219" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L219" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M219" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N219" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O219" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P219" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q219" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R219" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S219" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T219" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U219" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V219" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W219" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X219" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y219" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A219" s="3" t="n"/>
+      <c r="B219" s="3" t="n"/>
+      <c r="C219" s="3" t="n"/>
+      <c r="D219" s="3" t="n"/>
+      <c r="E219" s="3" t="n"/>
+      <c r="F219" s="3" t="n"/>
+      <c r="G219" s="3" t="n"/>
+      <c r="H219" s="3" t="n"/>
+      <c r="I219" s="3" t="n"/>
+      <c r="J219" s="3" t="n"/>
+      <c r="K219" s="3" t="n"/>
+      <c r="L219" s="3" t="n"/>
+      <c r="M219" s="3" t="n"/>
+      <c r="N219" s="3" t="n"/>
+      <c r="O219" s="3" t="n"/>
+      <c r="P219" s="3" t="n"/>
+      <c r="Q219" s="3" t="n"/>
+      <c r="R219" s="3" t="n"/>
+      <c r="S219" s="3" t="n"/>
+      <c r="T219" s="3" t="n"/>
+      <c r="U219" s="3" t="n"/>
+      <c r="V219" s="3" t="n"/>
+      <c r="W219" s="3" t="n"/>
+      <c r="X219" s="3" t="n"/>
+      <c r="Y219" s="3" t="n"/>
       <c r="Z219" s="3" t="n"/>
       <c r="AA219" s="3" t="n"/>
       <c r="AB219" s="3" t="n"/>
@@ -48047,55 +47947,7 @@
       <c r="AT525" s="3" t="n"/>
       <c r="AU525" s="3" t="n"/>
     </row>
-    <row r="526" ht="13.2" customHeight="1">
-      <c r="A526" s="3" t="n"/>
-      <c r="B526" s="3" t="n"/>
-      <c r="C526" s="3" t="n"/>
-      <c r="D526" s="3" t="n"/>
-      <c r="E526" s="3" t="n"/>
-      <c r="F526" s="3" t="n"/>
-      <c r="G526" s="3" t="n"/>
-      <c r="H526" s="3" t="n"/>
-      <c r="I526" s="3" t="n"/>
-      <c r="J526" s="3" t="n"/>
-      <c r="K526" s="3" t="n"/>
-      <c r="L526" s="3" t="n"/>
-      <c r="M526" s="3" t="n"/>
-      <c r="N526" s="3" t="n"/>
-      <c r="O526" s="3" t="n"/>
-      <c r="P526" s="3" t="n"/>
-      <c r="Q526" s="3" t="n"/>
-      <c r="R526" s="3" t="n"/>
-      <c r="S526" s="3" t="n"/>
-      <c r="T526" s="3" t="n"/>
-      <c r="U526" s="3" t="n"/>
-      <c r="V526" s="3" t="n"/>
-      <c r="W526" s="3" t="n"/>
-      <c r="X526" s="3" t="n"/>
-      <c r="Y526" s="3" t="n"/>
-      <c r="Z526" s="3" t="n"/>
-      <c r="AA526" s="3" t="n"/>
-      <c r="AB526" s="3" t="n"/>
-      <c r="AC526" s="3" t="n"/>
-      <c r="AD526" s="3" t="n"/>
-      <c r="AE526" s="3" t="n"/>
-      <c r="AF526" s="3" t="n"/>
-      <c r="AG526" s="3" t="n"/>
-      <c r="AH526" s="3" t="n"/>
-      <c r="AI526" s="3" t="n"/>
-      <c r="AJ526" s="3" t="n"/>
-      <c r="AK526" s="3" t="n"/>
-      <c r="AL526" s="3" t="n"/>
-      <c r="AM526" s="3" t="n"/>
-      <c r="AN526" s="3" t="n"/>
-      <c r="AO526" s="3" t="n"/>
-      <c r="AP526" s="3" t="n"/>
-      <c r="AQ526" s="3" t="n"/>
-      <c r="AR526" s="3" t="n"/>
-      <c r="AS526" s="3" t="n"/>
-      <c r="AT526" s="3" t="n"/>
-      <c r="AU526" s="3" t="n"/>
-    </row>
+    <row r="526" ht="13.2" customHeight="1"/>
     <row r="527" ht="13.2" customHeight="1"/>
     <row r="528" ht="13.2" customHeight="1"/>
     <row r="529" ht="13.2" customHeight="1"/>

--- a/resourses/testdata/excel_file/Tracking_number.xlsx
+++ b/resourses/testdata/excel_file/Tracking_number.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU525"/>
+  <dimension ref="A1:AU524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18:Y241"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016814</t>
+          <t>SPBD241100016820</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016820</t>
+          <t>SPBD241100016821</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016821</t>
+          <t>SPBD241100016829</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016829</t>
+          <t>SPBD241100016830</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016830</t>
+          <t>SPBD241100016832</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016832</t>
+          <t>SPBD241100016795</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016795</t>
+          <t>SPBD241100016798</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016798</t>
+          <t>SPBD241100016807</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016807</t>
+          <t>SPBD241100016813</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016813</t>
+          <t>SPBD241100016815</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016815</t>
+          <t>SPBD241100016817</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016817</t>
+          <t>SPBD241100016823</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016823</t>
+          <t>SPBD241100016825</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016825</t>
+          <t>SPBD241100016826</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016826</t>
+          <t>SPBD241100016827</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016827</t>
+          <t>SPBD241100016834</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -3107,12 +3107,12 @@
     <row r="19" ht="13.2" customHeight="1" thickBot="1">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016834</t>
+          <t>SPBD241100017224</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017224</t>
+          <t>SPBD241100017225</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017225</t>
+          <t>SPBD241100017236</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017236</t>
+          <t>SPBD241100017242</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017242</t>
+          <t>SPBD241100017245</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017245</t>
+          <t>SPBD241100017222</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017222</t>
+          <t>SPBD241100017228</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017228</t>
+          <t>SPBD241100017233</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017233</t>
+          <t>SPBD241100017237</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017237</t>
+          <t>SPBD241100017248</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017248</t>
+          <t>SPBD241100017215</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017215</t>
+          <t>SPBD241100017217</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017217</t>
+          <t>SPBD241100017218</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017218</t>
+          <t>SPBD241100017219</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017219</t>
+          <t>SPBD241100017226</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017226</t>
+          <t>SPBD241100017232</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017232</t>
+          <t>SPBD241100017235</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017235</t>
+          <t>SPBD241100017239</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017239</t>
+          <t>SPBD241100017246</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017246</t>
+          <t>SPBD241100017247</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017247</t>
+          <t>SPBD241100017249</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017249</t>
+          <t>SPBD241100017216</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017216</t>
+          <t>SPBD241100017223</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017223</t>
+          <t>SPBD241100017230</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017230</t>
+          <t>SPBD241100017238</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017238</t>
+          <t>SPBD241100017240</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017240</t>
+          <t>SPBD241100017220</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -7135,7 +7135,7 @@
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017220</t>
+          <t>SPBD241100017221</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017221</t>
+          <t>SPBD241100017227</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017227</t>
+          <t>SPBD241100017229</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017229</t>
+          <t>SPBD241100017234</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017234</t>
+          <t>SPBD241100017241</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017241</t>
+          <t>SPBD241100017244</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017244</t>
+          <t>SPBD241100017252</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -8178,7 +8178,7 @@
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017252</t>
+          <t>SPBD241100017213</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -8327,7 +8327,7 @@
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017213</t>
+          <t>SPBD241100017214</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017214</t>
+          <t>SPBD241100017231</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -8625,7 +8625,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017231</t>
+          <t>SPBD241100017243</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -8774,7 +8774,7 @@
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017243</t>
+          <t>SPBD241100017250</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017250</t>
+          <t>SPBD241100017251</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -9067,12 +9067,12 @@
     <row r="59" ht="13.2" customHeight="1" thickBot="1">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017251</t>
+          <t>SPBD241100019897</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019897</t>
+          <t>SPBD241100019899</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -9370,7 +9370,7 @@
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019899</t>
+          <t>SPBD241100019903</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -9519,7 +9519,7 @@
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019903</t>
+          <t>SPBD241100019916</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -9668,7 +9668,7 @@
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019916</t>
+          <t>SPBD241100019893</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019893</t>
+          <t>SPBD241100019895</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -9966,7 +9966,7 @@
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019895</t>
+          <t>SPBD241100019904</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019904</t>
+          <t>SPBD241100019910</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019910</t>
+          <t>SPBD241100019915</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -10413,7 +10413,7 @@
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019915</t>
+          <t>SPBD241100019919</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -10562,7 +10562,7 @@
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019919</t>
+          <t>SPBD241100019920</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019920</t>
+          <t>SPBD241100019923</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -10860,7 +10860,7 @@
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019923</t>
+          <t>SPBD241100019887</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -11009,7 +11009,7 @@
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019887</t>
+          <t>SPBD241100019888</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -11158,7 +11158,7 @@
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019888</t>
+          <t>SPBD241100019892</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019892</t>
+          <t>SPBD241100019900</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019900</t>
+          <t>SPBD241100019902</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -11605,7 +11605,7 @@
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019902</t>
+          <t>SPBD241100019905</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -11754,7 +11754,7 @@
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019905</t>
+          <t>SPBD241100019906</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019906</t>
+          <t>SPBD241100019908</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -12052,7 +12052,7 @@
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019908</t>
+          <t>SPBD241100019911</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -12201,7 +12201,7 @@
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019911</t>
+          <t>SPBD241100019921</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019921</t>
+          <t>SPBD241100019925</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -12499,7 +12499,7 @@
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019925</t>
+          <t>SPBD241100019886</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -12648,7 +12648,7 @@
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019886</t>
+          <t>SPBD241100019890</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -12797,7 +12797,7 @@
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019890</t>
+          <t>SPBD241100019894</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -12946,7 +12946,7 @@
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019894</t>
+          <t>SPBD241100019901</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
@@ -13095,7 +13095,7 @@
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019901</t>
+          <t>SPBD241100019907</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -13244,7 +13244,7 @@
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019907</t>
+          <t>SPBD241100019909</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019909</t>
+          <t>SPBD241100019913</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -13542,7 +13542,7 @@
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019913</t>
+          <t>SPBD241100019918</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
@@ -13691,7 +13691,7 @@
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019918</t>
+          <t>SPBD241100019924</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -13840,7 +13840,7 @@
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019924</t>
+          <t>SPBD241100019891</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
@@ -13989,7 +13989,7 @@
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019891</t>
+          <t>SPBD241100019912</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -14138,7 +14138,7 @@
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019912</t>
+          <t>SPBD241100019917</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
@@ -14287,7 +14287,7 @@
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019917</t>
+          <t>SPBD241100019889</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019889</t>
+          <t>SPBD241100019896</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -14585,7 +14585,7 @@
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019896</t>
+          <t>SPBD241100019898</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -14734,7 +14734,7 @@
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019898</t>
+          <t>SPBD241100019914</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019914</t>
+          <t>SPBD241100019922</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -15027,12 +15027,12 @@
     <row r="99" ht="13.2" customHeight="1" thickBot="1">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019922</t>
+          <t>SPBD241100020298</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
@@ -15181,7 +15181,7 @@
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020298</t>
+          <t>SPBD241100020303</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -15330,7 +15330,7 @@
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020303</t>
+          <t>SPBD241100020292</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
@@ -15479,7 +15479,7 @@
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020292</t>
+          <t>SPBD241100020297</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020297</t>
+          <t>SPBD241100020299</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
@@ -15777,7 +15777,7 @@
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020299</t>
+          <t>SPBD241100020302</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020302</t>
+          <t>SPBD241100020304</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
@@ -16075,7 +16075,7 @@
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020304</t>
+          <t>SPBD241100020309</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -16224,7 +16224,7 @@
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020309</t>
+          <t>SPBD241100020278</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020278</t>
+          <t>SPBD241100020280</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -16522,7 +16522,7 @@
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020280</t>
+          <t>SPBD241100020286</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
@@ -16671,7 +16671,7 @@
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020286</t>
+          <t>SPBD241100020294</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -16820,7 +16820,7 @@
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020294</t>
+          <t>SPBD241100020301</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
@@ -16969,7 +16969,7 @@
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020301</t>
+          <t>SPBD241100020310</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -17118,7 +17118,7 @@
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020310</t>
+          <t>SPBD241100020311</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
@@ -17267,7 +17267,7 @@
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020311</t>
+          <t>SPBD241100020276</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020276</t>
+          <t>SPBD241100020285</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -17565,7 +17565,7 @@
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020285</t>
+          <t>SPBD241100020288</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -17714,7 +17714,7 @@
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020288</t>
+          <t>SPBD241100020290</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
@@ -17863,7 +17863,7 @@
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020290</t>
+          <t>SPBD241100020308</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
@@ -18012,7 +18012,7 @@
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020308</t>
+          <t>SPBD241100020312</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
@@ -18161,7 +18161,7 @@
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020312</t>
+          <t>SPBD241100020313</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -18310,7 +18310,7 @@
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020313</t>
+          <t>SPBD241100020314</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
@@ -18459,7 +18459,7 @@
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020314</t>
+          <t>SPBD241100020315</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020315</t>
+          <t>SPBD241100020277</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
@@ -18757,7 +18757,7 @@
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020277</t>
+          <t>SPBD241100020281</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -18906,7 +18906,7 @@
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020281</t>
+          <t>SPBD241100020284</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
@@ -19055,7 +19055,7 @@
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020284</t>
+          <t>SPBD241100020287</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -19204,7 +19204,7 @@
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020287</t>
+          <t>SPBD241100020291</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
@@ -19353,7 +19353,7 @@
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020291</t>
+          <t>SPBD241100020296</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
@@ -19502,7 +19502,7 @@
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020296</t>
+          <t>SPBD241100020279</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
@@ -19651,7 +19651,7 @@
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020279</t>
+          <t>SPBD241100020282</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
@@ -19800,7 +19800,7 @@
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020282</t>
+          <t>SPBD241100020283</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
@@ -19949,7 +19949,7 @@
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020283</t>
+          <t>SPBD241100020289</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -20098,7 +20098,7 @@
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020289</t>
+          <t>SPBD241100020293</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
@@ -20247,7 +20247,7 @@
       </c>
       <c r="B134" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020293</t>
+          <t>SPBD241100020295</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -20396,7 +20396,7 @@
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020295</t>
+          <t>SPBD241100020300</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
@@ -20545,7 +20545,7 @@
       </c>
       <c r="B136" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020300</t>
+          <t>SPBD241100020305</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -20694,7 +20694,7 @@
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020305</t>
+          <t>SPBD241100020306</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
@@ -20843,7 +20843,7 @@
       </c>
       <c r="B138" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020306</t>
+          <t>SPBD241100020307</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -20987,12 +20987,12 @@
     <row r="139" ht="13.2" customHeight="1" thickBot="1">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020307</t>
+          <t>SPBD241100021257</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
@@ -21141,7 +21141,7 @@
       </c>
       <c r="B140" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021257</t>
+          <t>SPBD241100021258</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -21290,7 +21290,7 @@
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021258</t>
+          <t>SPBD241100021262</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
@@ -21439,7 +21439,7 @@
       </c>
       <c r="B142" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021262</t>
+          <t>SPBD241100021267</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -21588,7 +21588,7 @@
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021267</t>
+          <t>SPBD241100021280</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
@@ -21737,7 +21737,7 @@
       </c>
       <c r="B144" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021280</t>
+          <t>SPBD241100021287</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -21886,7 +21886,7 @@
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021287</t>
+          <t>SPBD241100021289</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
@@ -22035,7 +22035,7 @@
       </c>
       <c r="B146" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021289</t>
+          <t>SPBD241100021260</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -22184,7 +22184,7 @@
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021260</t>
+          <t>SPBD241100021261</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
@@ -22333,7 +22333,7 @@
       </c>
       <c r="B148" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021261</t>
+          <t>SPBD241100021265</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021265</t>
+          <t>SPBD241100021270</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
@@ -22631,7 +22631,7 @@
       </c>
       <c r="B150" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021270</t>
+          <t>SPBD241100021272</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021272</t>
+          <t>SPBD241100021273</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
@@ -22929,7 +22929,7 @@
       </c>
       <c r="B152" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021273</t>
+          <t>SPBD241100021278</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -23078,7 +23078,7 @@
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021278</t>
+          <t>SPBD241100021282</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
@@ -23227,7 +23227,7 @@
       </c>
       <c r="B154" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021282</t>
+          <t>SPBD241100021290</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
@@ -23376,7 +23376,7 @@
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021290</t>
+          <t>SPBD241100021291</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
@@ -23525,7 +23525,7 @@
       </c>
       <c r="B156" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021291</t>
+          <t>SPBD241100021253</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
@@ -23674,7 +23674,7 @@
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021253</t>
+          <t>SPBD241100021274</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
@@ -23823,7 +23823,7 @@
       </c>
       <c r="B158" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021274</t>
+          <t>SPBD241100021276</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
@@ -23972,7 +23972,7 @@
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021276</t>
+          <t>SPBD241100021277</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
@@ -24121,7 +24121,7 @@
       </c>
       <c r="B160" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021277</t>
+          <t>SPBD241100021283</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
@@ -24270,7 +24270,7 @@
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021283</t>
+          <t>SPBD241100021285</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
@@ -24419,7 +24419,7 @@
       </c>
       <c r="B162" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021285</t>
+          <t>SPBD241100021286</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
@@ -24568,7 +24568,7 @@
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021286</t>
+          <t>SPBD241100021288</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
@@ -24717,7 +24717,7 @@
       </c>
       <c r="B164" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021288</t>
+          <t>SPBD241100021255</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
@@ -24866,7 +24866,7 @@
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021255</t>
+          <t>SPBD241100021264</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
@@ -25015,7 +25015,7 @@
       </c>
       <c r="B166" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021264</t>
+          <t>SPBD241100021266</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
@@ -25164,7 +25164,7 @@
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021266</t>
+          <t>SPBD241100021269</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
@@ -25313,7 +25313,7 @@
       </c>
       <c r="B168" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021269</t>
+          <t>SPBD241100021279</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
@@ -25462,7 +25462,7 @@
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021279</t>
+          <t>SPBD241100021281</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
@@ -25611,7 +25611,7 @@
       </c>
       <c r="B170" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021281</t>
+          <t>SPBD241100021252</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
@@ -25760,7 +25760,7 @@
       </c>
       <c r="B171" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021252</t>
+          <t>SPBD241100021254</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
@@ -25909,7 +25909,7 @@
       </c>
       <c r="B172" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021254</t>
+          <t>SPBD241100021263</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -26058,7 +26058,7 @@
       </c>
       <c r="B173" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021263</t>
+          <t>SPBD241100021275</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
@@ -26207,7 +26207,7 @@
       </c>
       <c r="B174" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021275</t>
+          <t>SPBD241100021256</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -26356,7 +26356,7 @@
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021256</t>
+          <t>SPBD241100021259</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
@@ -26505,7 +26505,7 @@
       </c>
       <c r="B176" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021259</t>
+          <t>SPBD241100021268</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
@@ -26654,7 +26654,7 @@
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021268</t>
+          <t>SPBD241100021271</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
@@ -26803,7 +26803,7 @@
       </c>
       <c r="B178" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021271</t>
+          <t>SPBD241100021284</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -26947,12 +26947,12 @@
     <row r="179" ht="13.2" customHeight="1" thickBot="1">
       <c r="A179" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021284</t>
+          <t>SPBD241100021782</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
@@ -27101,7 +27101,7 @@
       </c>
       <c r="B180" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021782</t>
+          <t>SPBD241100021784</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -27250,7 +27250,7 @@
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021784</t>
+          <t>SPBD241100021809</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
@@ -27399,7 +27399,7 @@
       </c>
       <c r="B182" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021809</t>
+          <t>SPBD241100021814</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
@@ -27548,7 +27548,7 @@
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021814</t>
+          <t>SPBD241100021786</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
@@ -27697,7 +27697,7 @@
       </c>
       <c r="B184" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021786</t>
+          <t>SPBD241100021787</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
@@ -27846,7 +27846,7 @@
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021787</t>
+          <t>SPBD241100021791</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
@@ -27995,7 +27995,7 @@
       </c>
       <c r="B186" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021791</t>
+          <t>SPBD241100021793</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -28144,7 +28144,7 @@
       </c>
       <c r="B187" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021793</t>
+          <t>SPBD241100021796</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
@@ -28293,7 +28293,7 @@
       </c>
       <c r="B188" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021796</t>
+          <t>SPBD241100021797</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
@@ -28442,7 +28442,7 @@
       </c>
       <c r="B189" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021797</t>
+          <t>SPBD241100021800</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
@@ -28591,7 +28591,7 @@
       </c>
       <c r="B190" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021800</t>
+          <t>SPBD241100021802</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
@@ -28740,7 +28740,7 @@
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021802</t>
+          <t>SPBD241100021806</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
@@ -28889,7 +28889,7 @@
       </c>
       <c r="B192" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021806</t>
+          <t>SPBD241100021808</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
@@ -29038,7 +29038,7 @@
       </c>
       <c r="B193" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021808</t>
+          <t>SPBD241100021810</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
@@ -29187,7 +29187,7 @@
       </c>
       <c r="B194" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021810</t>
+          <t>SPBD241100021813</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
@@ -29336,7 +29336,7 @@
       </c>
       <c r="B195" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021813</t>
+          <t>SPBD241100021816</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
@@ -29485,7 +29485,7 @@
       </c>
       <c r="B196" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021816</t>
+          <t>SPBD241100021788</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
@@ -29634,7 +29634,7 @@
       </c>
       <c r="B197" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021788</t>
+          <t>SPBD241100021789</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
@@ -29783,7 +29783,7 @@
       </c>
       <c r="B198" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021789</t>
+          <t>SPBD241100021790</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
@@ -29932,7 +29932,7 @@
       </c>
       <c r="B199" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021790</t>
+          <t>SPBD241100021795</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
@@ -30081,7 +30081,7 @@
       </c>
       <c r="B200" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021795</t>
+          <t>SPBD241100021805</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
@@ -30230,7 +30230,7 @@
       </c>
       <c r="B201" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021805</t>
+          <t>SPBD241100021817</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
@@ -30379,7 +30379,7 @@
       </c>
       <c r="B202" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021817</t>
+          <t>SPBD241100021783</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
@@ -30528,7 +30528,7 @@
       </c>
       <c r="B203" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021783</t>
+          <t>SPBD241100021785</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
@@ -30677,7 +30677,7 @@
       </c>
       <c r="B204" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021785</t>
+          <t>SPBD241100021799</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
@@ -30826,7 +30826,7 @@
       </c>
       <c r="B205" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021799</t>
+          <t>SPBD241100021801</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
@@ -30975,7 +30975,7 @@
       </c>
       <c r="B206" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021801</t>
+          <t>SPBD241100021803</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
@@ -31124,7 +31124,7 @@
       </c>
       <c r="B207" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021803</t>
+          <t>SPBD241100021804</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
@@ -31273,7 +31273,7 @@
       </c>
       <c r="B208" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021804</t>
+          <t>SPBD241100021812</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
@@ -31422,7 +31422,7 @@
       </c>
       <c r="B209" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021812</t>
+          <t>SPBD241100021781</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
@@ -31571,7 +31571,7 @@
       </c>
       <c r="B210" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021781</t>
+          <t>SPBD241100021792</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
@@ -31720,7 +31720,7 @@
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021792</t>
+          <t>SPBD241100021794</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
@@ -31869,7 +31869,7 @@
       </c>
       <c r="B212" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021794</t>
+          <t>SPBD241100021807</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
@@ -32018,7 +32018,7 @@
       </c>
       <c r="B213" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021807</t>
+          <t>SPBD241100021815</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
@@ -32167,7 +32167,7 @@
       </c>
       <c r="B214" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021815</t>
+          <t>SPBD241100021818</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
@@ -32316,7 +32316,7 @@
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021818</t>
+          <t>SPBD241100021780</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
@@ -32465,7 +32465,7 @@
       </c>
       <c r="B216" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021780</t>
+          <t>SPBD241100021798</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
@@ -32614,7 +32614,7 @@
       </c>
       <c r="B217" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021798</t>
+          <t>SPBD241100021811</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
@@ -32756,131 +32756,31 @@
       <c r="AU217" s="3" t="n"/>
     </row>
     <row r="218" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A218" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B218" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021811</t>
-        </is>
-      </c>
-      <c r="C218" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D218" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E218" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F218" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G218" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H218" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I218" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J218" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K218" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L218" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M218" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N218" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O218" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P218" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q218" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R218" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S218" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T218" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U218" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V218" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W218" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X218" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y218" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A218" s="3" t="n"/>
+      <c r="B218" s="3" t="n"/>
+      <c r="C218" s="3" t="n"/>
+      <c r="D218" s="3" t="n"/>
+      <c r="E218" s="3" t="n"/>
+      <c r="F218" s="3" t="n"/>
+      <c r="G218" s="3" t="n"/>
+      <c r="H218" s="3" t="n"/>
+      <c r="I218" s="3" t="n"/>
+      <c r="J218" s="3" t="n"/>
+      <c r="K218" s="3" t="n"/>
+      <c r="L218" s="3" t="n"/>
+      <c r="M218" s="3" t="n"/>
+      <c r="N218" s="3" t="n"/>
+      <c r="O218" s="3" t="n"/>
+      <c r="P218" s="3" t="n"/>
+      <c r="Q218" s="3" t="n"/>
+      <c r="R218" s="3" t="n"/>
+      <c r="S218" s="3" t="n"/>
+      <c r="T218" s="3" t="n"/>
+      <c r="U218" s="3" t="n"/>
+      <c r="V218" s="3" t="n"/>
+      <c r="W218" s="3" t="n"/>
+      <c r="X218" s="3" t="n"/>
+      <c r="Y218" s="3" t="n"/>
       <c r="Z218" s="3" t="n"/>
       <c r="AA218" s="3" t="n"/>
       <c r="AB218" s="3" t="n"/>
@@ -47898,55 +47798,7 @@
       <c r="AT524" s="3" t="n"/>
       <c r="AU524" s="3" t="n"/>
     </row>
-    <row r="525" ht="13.2" customHeight="1">
-      <c r="A525" s="3" t="n"/>
-      <c r="B525" s="3" t="n"/>
-      <c r="C525" s="3" t="n"/>
-      <c r="D525" s="3" t="n"/>
-      <c r="E525" s="3" t="n"/>
-      <c r="F525" s="3" t="n"/>
-      <c r="G525" s="3" t="n"/>
-      <c r="H525" s="3" t="n"/>
-      <c r="I525" s="3" t="n"/>
-      <c r="J525" s="3" t="n"/>
-      <c r="K525" s="3" t="n"/>
-      <c r="L525" s="3" t="n"/>
-      <c r="M525" s="3" t="n"/>
-      <c r="N525" s="3" t="n"/>
-      <c r="O525" s="3" t="n"/>
-      <c r="P525" s="3" t="n"/>
-      <c r="Q525" s="3" t="n"/>
-      <c r="R525" s="3" t="n"/>
-      <c r="S525" s="3" t="n"/>
-      <c r="T525" s="3" t="n"/>
-      <c r="U525" s="3" t="n"/>
-      <c r="V525" s="3" t="n"/>
-      <c r="W525" s="3" t="n"/>
-      <c r="X525" s="3" t="n"/>
-      <c r="Y525" s="3" t="n"/>
-      <c r="Z525" s="3" t="n"/>
-      <c r="AA525" s="3" t="n"/>
-      <c r="AB525" s="3" t="n"/>
-      <c r="AC525" s="3" t="n"/>
-      <c r="AD525" s="3" t="n"/>
-      <c r="AE525" s="3" t="n"/>
-      <c r="AF525" s="3" t="n"/>
-      <c r="AG525" s="3" t="n"/>
-      <c r="AH525" s="3" t="n"/>
-      <c r="AI525" s="3" t="n"/>
-      <c r="AJ525" s="3" t="n"/>
-      <c r="AK525" s="3" t="n"/>
-      <c r="AL525" s="3" t="n"/>
-      <c r="AM525" s="3" t="n"/>
-      <c r="AN525" s="3" t="n"/>
-      <c r="AO525" s="3" t="n"/>
-      <c r="AP525" s="3" t="n"/>
-      <c r="AQ525" s="3" t="n"/>
-      <c r="AR525" s="3" t="n"/>
-      <c r="AS525" s="3" t="n"/>
-      <c r="AT525" s="3" t="n"/>
-      <c r="AU525" s="3" t="n"/>
-    </row>
+    <row r="525" ht="13.2" customHeight="1"/>
     <row r="526" ht="13.2" customHeight="1"/>
     <row r="527" ht="13.2" customHeight="1"/>
     <row r="528" ht="13.2" customHeight="1"/>

--- a/resourses/testdata/excel_file/Tracking_number.xlsx
+++ b/resourses/testdata/excel_file/Tracking_number.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU524"/>
+  <dimension ref="A1:AU523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18:Y241"/>
@@ -728,7 +728,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016820</t>
+          <t>SPBD241100016821</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016821</t>
+          <t>SPBD241100016829</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016829</t>
+          <t>SPBD241100016830</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016830</t>
+          <t>SPBD241100016832</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016832</t>
+          <t>SPBD241100016795</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016795</t>
+          <t>SPBD241100016798</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016798</t>
+          <t>SPBD241100016807</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016807</t>
+          <t>SPBD241100016813</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016813</t>
+          <t>SPBD241100016815</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016815</t>
+          <t>SPBD241100016817</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016817</t>
+          <t>SPBD241100016823</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016823</t>
+          <t>SPBD241100016825</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016825</t>
+          <t>SPBD241100016826</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016826</t>
+          <t>SPBD241100016827</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016827</t>
+          <t>SPBD241100016834</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -2958,12 +2958,12 @@
     <row r="18" ht="13.2" customHeight="1" thickBot="1">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>20-11-2567</t>
+          <t>21-11-2567</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100016834</t>
+          <t>SPBD241100017224</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017224</t>
+          <t>SPBD241100017225</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017225</t>
+          <t>SPBD241100017236</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017236</t>
+          <t>SPBD241100017242</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017242</t>
+          <t>SPBD241100017245</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017245</t>
+          <t>SPBD241100017222</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017222</t>
+          <t>SPBD241100017228</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017228</t>
+          <t>SPBD241100017233</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -4155,7 +4155,7 @@
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017233</t>
+          <t>SPBD241100017237</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017237</t>
+          <t>SPBD241100017248</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017248</t>
+          <t>SPBD241100017215</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017215</t>
+          <t>SPBD241100017217</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -4751,7 +4751,7 @@
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017217</t>
+          <t>SPBD241100017218</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017218</t>
+          <t>SPBD241100017219</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017219</t>
+          <t>SPBD241100017226</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017226</t>
+          <t>SPBD241100017232</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017232</t>
+          <t>SPBD241100017235</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017235</t>
+          <t>SPBD241100017239</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017239</t>
+          <t>SPBD241100017246</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017246</t>
+          <t>SPBD241100017247</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017247</t>
+          <t>SPBD241100017249</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017249</t>
+          <t>SPBD241100017216</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017216</t>
+          <t>SPBD241100017223</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017223</t>
+          <t>SPBD241100017230</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017230</t>
+          <t>SPBD241100017238</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017238</t>
+          <t>SPBD241100017240</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017240</t>
+          <t>SPBD241100017220</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017220</t>
+          <t>SPBD241100017221</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -7135,7 +7135,7 @@
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017221</t>
+          <t>SPBD241100017227</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017227</t>
+          <t>SPBD241100017229</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017229</t>
+          <t>SPBD241100017234</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017234</t>
+          <t>SPBD241100017241</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017241</t>
+          <t>SPBD241100017244</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017244</t>
+          <t>SPBD241100017252</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017252</t>
+          <t>SPBD241100017213</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -8178,7 +8178,7 @@
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017213</t>
+          <t>SPBD241100017214</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -8327,7 +8327,7 @@
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017214</t>
+          <t>SPBD241100017231</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017231</t>
+          <t>SPBD241100017243</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -8625,7 +8625,7 @@
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017243</t>
+          <t>SPBD241100017250</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -8774,7 +8774,7 @@
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017250</t>
+          <t>SPBD241100017251</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -8918,12 +8918,12 @@
     <row r="58" ht="13.2" customHeight="1" thickBot="1">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>21-11-2567</t>
+          <t>22-11-2567</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100017251</t>
+          <t>SPBD241100019897</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -9072,7 +9072,7 @@
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019897</t>
+          <t>SPBD241100019899</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -9221,7 +9221,7 @@
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019899</t>
+          <t>SPBD241100019903</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -9370,7 +9370,7 @@
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019903</t>
+          <t>SPBD241100019916</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
@@ -9519,7 +9519,7 @@
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019916</t>
+          <t>SPBD241100019893</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -9668,7 +9668,7 @@
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019893</t>
+          <t>SPBD241100019895</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019895</t>
+          <t>SPBD241100019904</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -9966,7 +9966,7 @@
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019904</t>
+          <t>SPBD241100019910</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019910</t>
+          <t>SPBD241100019915</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019915</t>
+          <t>SPBD241100019919</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
@@ -10413,7 +10413,7 @@
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019919</t>
+          <t>SPBD241100019920</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -10562,7 +10562,7 @@
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019920</t>
+          <t>SPBD241100019923</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
@@ -10711,7 +10711,7 @@
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019923</t>
+          <t>SPBD241100019887</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -10860,7 +10860,7 @@
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019887</t>
+          <t>SPBD241100019888</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -11009,7 +11009,7 @@
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019888</t>
+          <t>SPBD241100019892</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -11158,7 +11158,7 @@
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019892</t>
+          <t>SPBD241100019900</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019900</t>
+          <t>SPBD241100019902</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -11456,7 +11456,7 @@
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019902</t>
+          <t>SPBD241100019905</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
@@ -11605,7 +11605,7 @@
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019905</t>
+          <t>SPBD241100019906</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -11754,7 +11754,7 @@
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019906</t>
+          <t>SPBD241100019908</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019908</t>
+          <t>SPBD241100019911</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -12052,7 +12052,7 @@
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019911</t>
+          <t>SPBD241100019921</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
@@ -12201,7 +12201,7 @@
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019921</t>
+          <t>SPBD241100019925</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019925</t>
+          <t>SPBD241100019886</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
@@ -12499,7 +12499,7 @@
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019886</t>
+          <t>SPBD241100019890</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -12648,7 +12648,7 @@
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019890</t>
+          <t>SPBD241100019894</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
@@ -12797,7 +12797,7 @@
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019894</t>
+          <t>SPBD241100019901</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -12946,7 +12946,7 @@
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019901</t>
+          <t>SPBD241100019907</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
@@ -13095,7 +13095,7 @@
       </c>
       <c r="B86" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019907</t>
+          <t>SPBD241100019909</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -13244,7 +13244,7 @@
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019909</t>
+          <t>SPBD241100019913</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="B88" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019913</t>
+          <t>SPBD241100019918</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -13542,7 +13542,7 @@
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019918</t>
+          <t>SPBD241100019924</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
@@ -13691,7 +13691,7 @@
       </c>
       <c r="B90" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019924</t>
+          <t>SPBD241100019891</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -13840,7 +13840,7 @@
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019891</t>
+          <t>SPBD241100019912</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
@@ -13989,7 +13989,7 @@
       </c>
       <c r="B92" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019912</t>
+          <t>SPBD241100019917</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -14138,7 +14138,7 @@
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019917</t>
+          <t>SPBD241100019889</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
@@ -14287,7 +14287,7 @@
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019889</t>
+          <t>SPBD241100019896</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019896</t>
+          <t>SPBD241100019898</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
@@ -14585,7 +14585,7 @@
       </c>
       <c r="B96" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019898</t>
+          <t>SPBD241100019914</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -14734,7 +14734,7 @@
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019914</t>
+          <t>SPBD241100019922</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
@@ -14878,12 +14878,12 @@
     <row r="98" ht="13.2" customHeight="1" thickBot="1">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>22-11-2567</t>
+          <t>25-11-2567</t>
         </is>
       </c>
       <c r="B98" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100019922</t>
+          <t>SPBD241100020298</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -15032,7 +15032,7 @@
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020298</t>
+          <t>SPBD241100020303</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
@@ -15181,7 +15181,7 @@
       </c>
       <c r="B100" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020303</t>
+          <t>SPBD241100020292</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -15330,7 +15330,7 @@
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020292</t>
+          <t>SPBD241100020297</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
@@ -15479,7 +15479,7 @@
       </c>
       <c r="B102" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020297</t>
+          <t>SPBD241100020299</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020299</t>
+          <t>SPBD241100020302</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
@@ -15777,7 +15777,7 @@
       </c>
       <c r="B104" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020302</t>
+          <t>SPBD241100020304</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
@@ -15926,7 +15926,7 @@
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020304</t>
+          <t>SPBD241100020309</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
@@ -16075,7 +16075,7 @@
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020309</t>
+          <t>SPBD241100020278</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -16224,7 +16224,7 @@
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020278</t>
+          <t>SPBD241100020280</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020280</t>
+          <t>SPBD241100020286</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -16522,7 +16522,7 @@
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020286</t>
+          <t>SPBD241100020294</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
@@ -16671,7 +16671,7 @@
       </c>
       <c r="B110" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020294</t>
+          <t>SPBD241100020301</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -16820,7 +16820,7 @@
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020301</t>
+          <t>SPBD241100020310</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
@@ -16969,7 +16969,7 @@
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020310</t>
+          <t>SPBD241100020311</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -17118,7 +17118,7 @@
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020311</t>
+          <t>SPBD241100020276</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
@@ -17267,7 +17267,7 @@
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020276</t>
+          <t>SPBD241100020285</t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020285</t>
+          <t>SPBD241100020288</t>
         </is>
       </c>
       <c r="C115" s="3" t="inlineStr">
@@ -17565,7 +17565,7 @@
       </c>
       <c r="B116" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020288</t>
+          <t>SPBD241100020290</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -17714,7 +17714,7 @@
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020290</t>
+          <t>SPBD241100020308</t>
         </is>
       </c>
       <c r="C117" s="3" t="inlineStr">
@@ -17863,7 +17863,7 @@
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020308</t>
+          <t>SPBD241100020312</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
@@ -18012,7 +18012,7 @@
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020312</t>
+          <t>SPBD241100020313</t>
         </is>
       </c>
       <c r="C119" s="3" t="inlineStr">
@@ -18161,7 +18161,7 @@
       </c>
       <c r="B120" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020313</t>
+          <t>SPBD241100020314</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -18310,7 +18310,7 @@
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020314</t>
+          <t>SPBD241100020315</t>
         </is>
       </c>
       <c r="C121" s="3" t="inlineStr">
@@ -18459,7 +18459,7 @@
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020315</t>
+          <t>SPBD241100020277</t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -18608,7 +18608,7 @@
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020277</t>
+          <t>SPBD241100020281</t>
         </is>
       </c>
       <c r="C123" s="3" t="inlineStr">
@@ -18757,7 +18757,7 @@
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020281</t>
+          <t>SPBD241100020284</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -18906,7 +18906,7 @@
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020284</t>
+          <t>SPBD241100020287</t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
@@ -19055,7 +19055,7 @@
       </c>
       <c r="B126" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020287</t>
+          <t>SPBD241100020291</t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -19204,7 +19204,7 @@
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020291</t>
+          <t>SPBD241100020296</t>
         </is>
       </c>
       <c r="C127" s="3" t="inlineStr">
@@ -19353,7 +19353,7 @@
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020296</t>
+          <t>SPBD241100020279</t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
@@ -19502,7 +19502,7 @@
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020279</t>
+          <t>SPBD241100020282</t>
         </is>
       </c>
       <c r="C129" s="3" t="inlineStr">
@@ -19651,7 +19651,7 @@
       </c>
       <c r="B130" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020282</t>
+          <t>SPBD241100020283</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
@@ -19800,7 +19800,7 @@
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020283</t>
+          <t>SPBD241100020289</t>
         </is>
       </c>
       <c r="C131" s="3" t="inlineStr">
@@ -19949,7 +19949,7 @@
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020289</t>
+          <t>SPBD241100020293</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -20098,7 +20098,7 @@
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020293</t>
+          <t>SPBD241100020295</t>
         </is>
       </c>
       <c r="C133" s="3" t="inlineStr">
@@ -20247,7 +20247,7 @@
       </c>
       <c r="B134" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020295</t>
+          <t>SPBD241100020300</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -20396,7 +20396,7 @@
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020300</t>
+          <t>SPBD241100020305</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
@@ -20545,7 +20545,7 @@
       </c>
       <c r="B136" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020305</t>
+          <t>SPBD241100020306</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -20694,7 +20694,7 @@
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020306</t>
+          <t>SPBD241100020307</t>
         </is>
       </c>
       <c r="C137" s="3" t="inlineStr">
@@ -20838,12 +20838,12 @@
     <row r="138" ht="13.2" customHeight="1" thickBot="1">
       <c r="A138" s="4" t="inlineStr">
         <is>
-          <t>25-11-2567</t>
+          <t>26-11-2567</t>
         </is>
       </c>
       <c r="B138" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100020307</t>
+          <t>SPBD241100021257</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -20992,7 +20992,7 @@
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021257</t>
+          <t>SPBD241100021258</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
@@ -21141,7 +21141,7 @@
       </c>
       <c r="B140" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021258</t>
+          <t>SPBD241100021262</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -21290,7 +21290,7 @@
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021262</t>
+          <t>SPBD241100021267</t>
         </is>
       </c>
       <c r="C141" s="3" t="inlineStr">
@@ -21439,7 +21439,7 @@
       </c>
       <c r="B142" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021267</t>
+          <t>SPBD241100021280</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -21588,7 +21588,7 @@
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021280</t>
+          <t>SPBD241100021287</t>
         </is>
       </c>
       <c r="C143" s="3" t="inlineStr">
@@ -21737,7 +21737,7 @@
       </c>
       <c r="B144" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021287</t>
+          <t>SPBD241100021289</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -21886,7 +21886,7 @@
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021289</t>
+          <t>SPBD241100021260</t>
         </is>
       </c>
       <c r="C145" s="3" t="inlineStr">
@@ -22035,7 +22035,7 @@
       </c>
       <c r="B146" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021260</t>
+          <t>SPBD241100021261</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -22184,7 +22184,7 @@
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021261</t>
+          <t>SPBD241100021265</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
@@ -22333,7 +22333,7 @@
       </c>
       <c r="B148" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021265</t>
+          <t>SPBD241100021270</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -22482,7 +22482,7 @@
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021270</t>
+          <t>SPBD241100021272</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
@@ -22631,7 +22631,7 @@
       </c>
       <c r="B150" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021272</t>
+          <t>SPBD241100021273</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -22780,7 +22780,7 @@
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021273</t>
+          <t>SPBD241100021278</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
@@ -22929,7 +22929,7 @@
       </c>
       <c r="B152" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021278</t>
+          <t>SPBD241100021282</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -23078,7 +23078,7 @@
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021282</t>
+          <t>SPBD241100021290</t>
         </is>
       </c>
       <c r="C153" s="3" t="inlineStr">
@@ -23227,7 +23227,7 @@
       </c>
       <c r="B154" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021290</t>
+          <t>SPBD241100021291</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
@@ -23376,7 +23376,7 @@
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021291</t>
+          <t>SPBD241100021253</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
@@ -23525,7 +23525,7 @@
       </c>
       <c r="B156" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021253</t>
+          <t>SPBD241100021274</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
@@ -23674,7 +23674,7 @@
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021274</t>
+          <t>SPBD241100021276</t>
         </is>
       </c>
       <c r="C157" s="3" t="inlineStr">
@@ -23823,7 +23823,7 @@
       </c>
       <c r="B158" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021276</t>
+          <t>SPBD241100021277</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
@@ -23972,7 +23972,7 @@
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021277</t>
+          <t>SPBD241100021283</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
@@ -24121,7 +24121,7 @@
       </c>
       <c r="B160" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021283</t>
+          <t>SPBD241100021285</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
@@ -24270,7 +24270,7 @@
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021285</t>
+          <t>SPBD241100021286</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
@@ -24419,7 +24419,7 @@
       </c>
       <c r="B162" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021286</t>
+          <t>SPBD241100021288</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
@@ -24568,7 +24568,7 @@
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021288</t>
+          <t>SPBD241100021255</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
@@ -24717,7 +24717,7 @@
       </c>
       <c r="B164" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021255</t>
+          <t>SPBD241100021264</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
@@ -24866,7 +24866,7 @@
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021264</t>
+          <t>SPBD241100021266</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
@@ -25015,7 +25015,7 @@
       </c>
       <c r="B166" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021266</t>
+          <t>SPBD241100021269</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
@@ -25164,7 +25164,7 @@
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021269</t>
+          <t>SPBD241100021279</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
@@ -25313,7 +25313,7 @@
       </c>
       <c r="B168" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021279</t>
+          <t>SPBD241100021281</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
@@ -25462,7 +25462,7 @@
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021281</t>
+          <t>SPBD241100021252</t>
         </is>
       </c>
       <c r="C169" s="3" t="inlineStr">
@@ -25611,7 +25611,7 @@
       </c>
       <c r="B170" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021252</t>
+          <t>SPBD241100021254</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
@@ -25760,7 +25760,7 @@
       </c>
       <c r="B171" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021254</t>
+          <t>SPBD241100021263</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
@@ -25909,7 +25909,7 @@
       </c>
       <c r="B172" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021263</t>
+          <t>SPBD241100021275</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -26058,7 +26058,7 @@
       </c>
       <c r="B173" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021275</t>
+          <t>SPBD241100021256</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
@@ -26207,7 +26207,7 @@
       </c>
       <c r="B174" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021256</t>
+          <t>SPBD241100021259</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -26356,7 +26356,7 @@
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021259</t>
+          <t>SPBD241100021268</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
@@ -26505,7 +26505,7 @@
       </c>
       <c r="B176" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021268</t>
+          <t>SPBD241100021271</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
@@ -26654,7 +26654,7 @@
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021271</t>
+          <t>SPBD241100021284</t>
         </is>
       </c>
       <c r="C177" s="3" t="inlineStr">
@@ -26798,12 +26798,12 @@
     <row r="178" ht="13.2" customHeight="1" thickBot="1">
       <c r="A178" s="4" t="inlineStr">
         <is>
-          <t>26-11-2567</t>
+          <t>27-11-2567</t>
         </is>
       </c>
       <c r="B178" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021284</t>
+          <t>SPBD241100021782</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -26952,7 +26952,7 @@
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021782</t>
+          <t>SPBD241100021784</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
@@ -27101,7 +27101,7 @@
       </c>
       <c r="B180" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021784</t>
+          <t>SPBD241100021809</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -27250,7 +27250,7 @@
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021809</t>
+          <t>SPBD241100021814</t>
         </is>
       </c>
       <c r="C181" s="3" t="inlineStr">
@@ -27399,7 +27399,7 @@
       </c>
       <c r="B182" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021814</t>
+          <t>SPBD241100021786</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
@@ -27548,7 +27548,7 @@
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021786</t>
+          <t>SPBD241100021787</t>
         </is>
       </c>
       <c r="C183" s="3" t="inlineStr">
@@ -27697,7 +27697,7 @@
       </c>
       <c r="B184" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021787</t>
+          <t>SPBD241100021791</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
@@ -27846,7 +27846,7 @@
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021791</t>
+          <t>SPBD241100021793</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
@@ -27995,7 +27995,7 @@
       </c>
       <c r="B186" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021793</t>
+          <t>SPBD241100021796</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -28144,7 +28144,7 @@
       </c>
       <c r="B187" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021796</t>
+          <t>SPBD241100021797</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
@@ -28293,7 +28293,7 @@
       </c>
       <c r="B188" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021797</t>
+          <t>SPBD241100021800</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
@@ -28442,7 +28442,7 @@
       </c>
       <c r="B189" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021800</t>
+          <t>SPBD241100021802</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
@@ -28591,7 +28591,7 @@
       </c>
       <c r="B190" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021802</t>
+          <t>SPBD241100021806</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
@@ -28740,7 +28740,7 @@
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021806</t>
+          <t>SPBD241100021808</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
@@ -28889,7 +28889,7 @@
       </c>
       <c r="B192" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021808</t>
+          <t>SPBD241100021810</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
@@ -29038,7 +29038,7 @@
       </c>
       <c r="B193" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021810</t>
+          <t>SPBD241100021813</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
@@ -29187,7 +29187,7 @@
       </c>
       <c r="B194" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021813</t>
+          <t>SPBD241100021816</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
@@ -29336,7 +29336,7 @@
       </c>
       <c r="B195" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021816</t>
+          <t>SPBD241100021788</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
@@ -29485,7 +29485,7 @@
       </c>
       <c r="B196" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021788</t>
+          <t>SPBD241100021789</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
@@ -29634,7 +29634,7 @@
       </c>
       <c r="B197" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021789</t>
+          <t>SPBD241100021790</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
@@ -29783,7 +29783,7 @@
       </c>
       <c r="B198" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021790</t>
+          <t>SPBD241100021795</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
@@ -29932,7 +29932,7 @@
       </c>
       <c r="B199" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021795</t>
+          <t>SPBD241100021805</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
@@ -30081,7 +30081,7 @@
       </c>
       <c r="B200" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021805</t>
+          <t>SPBD241100021817</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
@@ -30230,7 +30230,7 @@
       </c>
       <c r="B201" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021817</t>
+          <t>SPBD241100021783</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
@@ -30379,7 +30379,7 @@
       </c>
       <c r="B202" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021783</t>
+          <t>SPBD241100021785</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
@@ -30528,7 +30528,7 @@
       </c>
       <c r="B203" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021785</t>
+          <t>SPBD241100021799</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
@@ -30677,7 +30677,7 @@
       </c>
       <c r="B204" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021799</t>
+          <t>SPBD241100021801</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
@@ -30826,7 +30826,7 @@
       </c>
       <c r="B205" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021801</t>
+          <t>SPBD241100021803</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
@@ -30975,7 +30975,7 @@
       </c>
       <c r="B206" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021803</t>
+          <t>SPBD241100021804</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
@@ -31124,7 +31124,7 @@
       </c>
       <c r="B207" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021804</t>
+          <t>SPBD241100021812</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
@@ -31273,7 +31273,7 @@
       </c>
       <c r="B208" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021812</t>
+          <t>SPBD241100021781</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
@@ -31422,7 +31422,7 @@
       </c>
       <c r="B209" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021781</t>
+          <t>SPBD241100021792</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
@@ -31571,7 +31571,7 @@
       </c>
       <c r="B210" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021792</t>
+          <t>SPBD241100021794</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
@@ -31720,7 +31720,7 @@
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021794</t>
+          <t>SPBD241100021807</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
@@ -31869,7 +31869,7 @@
       </c>
       <c r="B212" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021807</t>
+          <t>SPBD241100021815</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
@@ -32018,7 +32018,7 @@
       </c>
       <c r="B213" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021815</t>
+          <t>SPBD241100021818</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
@@ -32167,7 +32167,7 @@
       </c>
       <c r="B214" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021818</t>
+          <t>SPBD241100021780</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
@@ -32316,7 +32316,7 @@
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021780</t>
+          <t>SPBD241100021798</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
@@ -32465,7 +32465,7 @@
       </c>
       <c r="B216" s="4" t="inlineStr">
         <is>
-          <t>SPBD241100021798</t>
+          <t>SPBD241100021811</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
@@ -32607,131 +32607,31 @@
       <c r="AU216" s="3" t="n"/>
     </row>
     <row r="217" ht="13.2" customHeight="1" thickBot="1">
-      <c r="A217" s="4" t="inlineStr">
-        <is>
-          <t>27-11-2567</t>
-        </is>
-      </c>
-      <c r="B217" s="4" t="inlineStr">
-        <is>
-          <t>SPBD241100021811</t>
-        </is>
-      </c>
-      <c r="C217" s="3" t="inlineStr">
-        <is>
-          <t>0002400563</t>
-        </is>
-      </c>
-      <c r="D217" s="3" t="inlineStr">
-        <is>
-          <t>120 ซม.</t>
-        </is>
-      </c>
-      <c r="E217" s="3" t="inlineStr">
-        <is>
-          <t>กล่อง L</t>
-        </is>
-      </c>
-      <c r="F217" s="3" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-      <c r="G217" s="3" t="inlineStr">
-        <is>
-          <t>DCBB</t>
-        </is>
-      </c>
-      <c r="H217" s="3" t="inlineStr">
-        <is>
-          <t>Home (11120)</t>
-        </is>
-      </c>
-      <c r="I217" s="3" t="inlineStr">
-        <is>
-          <t>คุณ a</t>
-        </is>
-      </c>
-      <c r="J217" s="3" t="inlineStr">
-        <is>
-          <t>0633906216</t>
-        </is>
-      </c>
-      <c r="K217" s="3" t="inlineStr">
-        <is>
-          <t>สาขา คุณาลัย-บางใหญ่ (07465)</t>
-        </is>
-      </c>
-      <c r="L217" s="3" t="inlineStr">
-        <is>
-          <t>74 ลำพยา เมืองนครปฐม นครปฐม 73000</t>
-        </is>
-      </c>
-      <c r="M217" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="N217" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
-      <c r="O217" s="3" t="inlineStr">
-        <is>
-          <t>บ้าน</t>
-        </is>
-      </c>
-      <c r="P217" s="3" t="inlineStr">
-        <is>
-          <t>554 หมู่ 3 ปากเกร็ด ปากเกร็ด นนทบุรี 11120</t>
-        </is>
-      </c>
-      <c r="Q217" s="3" t="inlineStr">
-        <is>
-          <t>73000</t>
-        </is>
-      </c>
-      <c r="R217" s="3" t="inlineStr">
-        <is>
-          <t>11120</t>
-        </is>
-      </c>
-      <c r="S217" s="3" t="inlineStr">
-        <is>
-          <t>Non COD</t>
-        </is>
-      </c>
-      <c r="T217" s="3" t="inlineStr">
-        <is>
-          <t>ไม่มีการซื้อประกัน</t>
-        </is>
-      </c>
-      <c r="U217" s="3" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="V217" s="3" t="inlineStr">
-        <is>
-          <t>11120 (กล่อง L)</t>
-        </is>
-      </c>
-      <c r="W217" s="3" t="inlineStr">
-        <is>
-          <t>นนทบุรี</t>
-        </is>
-      </c>
-      <c r="X217" s="3" t="inlineStr">
-        <is>
-          <t>ทดสอบพัสดุCourier</t>
-        </is>
-      </c>
-      <c r="Y217" s="3" t="inlineStr">
-        <is>
-          <t>0971971445</t>
-        </is>
-      </c>
+      <c r="A217" s="3" t="n"/>
+      <c r="B217" s="3" t="n"/>
+      <c r="C217" s="3" t="n"/>
+      <c r="D217" s="3" t="n"/>
+      <c r="E217" s="3" t="n"/>
+      <c r="F217" s="3" t="n"/>
+      <c r="G217" s="3" t="n"/>
+      <c r="H217" s="3" t="n"/>
+      <c r="I217" s="3" t="n"/>
+      <c r="J217" s="3" t="n"/>
+      <c r="K217" s="3" t="n"/>
+      <c r="L217" s="3" t="n"/>
+      <c r="M217" s="3" t="n"/>
+      <c r="N217" s="3" t="n"/>
+      <c r="O217" s="3" t="n"/>
+      <c r="P217" s="3" t="n"/>
+      <c r="Q217" s="3" t="n"/>
+      <c r="R217" s="3" t="n"/>
+      <c r="S217" s="3" t="n"/>
+      <c r="T217" s="3" t="n"/>
+      <c r="U217" s="3" t="n"/>
+      <c r="V217" s="3" t="n"/>
+      <c r="W217" s="3" t="n"/>
+      <c r="X217" s="3" t="n"/>
+      <c r="Y217" s="3" t="n"/>
       <c r="Z217" s="3" t="n"/>
       <c r="AA217" s="3" t="n"/>
       <c r="AB217" s="3" t="n"/>
@@ -47749,55 +47649,7 @@
       <c r="AT523" s="3" t="n"/>
       <c r="AU523" s="3" t="n"/>
     </row>
-    <row r="524" ht="13.2" customHeight="1">
-      <c r="A524" s="3" t="n"/>
-      <c r="B524" s="3" t="n"/>
-      <c r="C524" s="3" t="n"/>
-      <c r="D524" s="3" t="n"/>
-      <c r="E524" s="3" t="n"/>
-      <c r="F524" s="3" t="n"/>
-      <c r="G524" s="3" t="n"/>
-      <c r="H524" s="3" t="n"/>
-      <c r="I524" s="3" t="n"/>
-      <c r="J524" s="3" t="n"/>
-      <c r="K524" s="3" t="n"/>
-      <c r="L524" s="3" t="n"/>
-      <c r="M524" s="3" t="n"/>
-      <c r="N524" s="3" t="n"/>
-      <c r="O524" s="3" t="n"/>
-      <c r="P524" s="3" t="n"/>
-      <c r="Q524" s="3" t="n"/>
-      <c r="R524" s="3" t="n"/>
-      <c r="S524" s="3" t="n"/>
-      <c r="T524" s="3" t="n"/>
-      <c r="U524" s="3" t="n"/>
-      <c r="V524" s="3" t="n"/>
-      <c r="W524" s="3" t="n"/>
-      <c r="X524" s="3" t="n"/>
-      <c r="Y524" s="3" t="n"/>
-      <c r="Z524" s="3" t="n"/>
-      <c r="AA524" s="3" t="n"/>
-      <c r="AB524" s="3" t="n"/>
-      <c r="AC524" s="3" t="n"/>
-      <c r="AD524" s="3" t="n"/>
-      <c r="AE524" s="3" t="n"/>
-      <c r="AF524" s="3" t="n"/>
-      <c r="AG524" s="3" t="n"/>
-      <c r="AH524" s="3" t="n"/>
-      <c r="AI524" s="3" t="n"/>
-      <c r="AJ524" s="3" t="n"/>
-      <c r="AK524" s="3" t="n"/>
-      <c r="AL524" s="3" t="n"/>
-      <c r="AM524" s="3" t="n"/>
-      <c r="AN524" s="3" t="n"/>
-      <c r="AO524" s="3" t="n"/>
-      <c r="AP524" s="3" t="n"/>
-      <c r="AQ524" s="3" t="n"/>
-      <c r="AR524" s="3" t="n"/>
-      <c r="AS524" s="3" t="n"/>
-      <c r="AT524" s="3" t="n"/>
-      <c r="AU524" s="3" t="n"/>
-    </row>
+    <row r="524" ht="13.2" customHeight="1"/>
     <row r="525" ht="13.2" customHeight="1"/>
     <row r="526" ht="13.2" customHeight="1"/>
     <row r="527" ht="13.2" customHeight="1"/>
